--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
     <sheet name="4.0引擎" sheetId="2" r:id="rId2"/>
-    <sheet name="现有插件" sheetId="3" r:id="rId3"/>
+    <sheet name="线上插件" sheetId="3" r:id="rId3"/>
     <sheet name="新增插件" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270">
   <si>
     <t>名称</t>
   </si>
@@ -248,6 +248,12 @@
     <t>uexLog</t>
   </si>
   <si>
+    <t>uexTabBarWithPopMenu</t>
+  </si>
+  <si>
+    <t>uexMobSMS</t>
+  </si>
+  <si>
     <t>引擎</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
     <t>平台支持</t>
   </si>
   <si>
+    <t>是否支持4.0</t>
+  </si>
+  <si>
     <t>功能扩展</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
     <t>安卓&amp;ios</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>uexCreditCardRes</t>
   </si>
   <si>
@@ -767,9 +779,6 @@
     <t>带安全键盘的输入框插件</t>
   </si>
   <si>
-    <t>uexTabBarWithPopMenu</t>
-  </si>
-  <si>
     <t>底部菜单栏插件</t>
   </si>
   <si>
@@ -780,9 +789,6 @@
   </si>
   <si>
     <t>视频直播插件</t>
-  </si>
-  <si>
-    <t>uexMobSMS</t>
   </si>
   <si>
     <t>mob短信验证码插件</t>
@@ -829,10 +835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -859,6 +865,12 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -896,9 +908,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -925,59 +968,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,10 +1013,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,17 +1036,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,13 +1046,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,19 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1096,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,13 +1150,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,49 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1222,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,6 +1280,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1291,35 +1317,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,15 +1335,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1371,6 +1362,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1379,10 +1385,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,10 +1397,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,10 +1409,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1415,127 +1421,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1555,46 +1564,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1606,7 +1621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1971,780 +1986,790 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="12" customWidth="1"/>
-    <col min="4" max="7" width="7.875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="29" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="15" customWidth="1"/>
+    <col min="4" max="7" width="7.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29" style="16" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:8">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:8">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="13"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:8">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="13"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:8">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="13"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="13"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:8">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" ht="14.25" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="27"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" ht="14.25" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" ht="14.25" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" ht="14.25" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="B50" s="32"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="29" t="s">
+      <c r="B51" s="32"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:4">
+      <c r="A52" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="D52" s="25"/>
+      <c r="B52" s="32"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="27"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" ht="14.25" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" ht="14.25" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="C55" s="18"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" ht="14.25" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" ht="14.25" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="27"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" s="26"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="25"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" ht="14.25" spans="1:7">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" ht="14.25" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" ht="14.25" spans="1:7">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2775,100 +2800,100 @@
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="12" customWidth="1"/>
-    <col min="4" max="7" width="7.875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="29" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="15" customWidth="1"/>
+    <col min="4" max="7" width="7.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29" style="16" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" spans="1:8">
-      <c r="A3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="A3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="A6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2888,13 +2913,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2907,1236 +2932,1415 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A9" s="11" t="s">
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A11" s="14" t="s">
         <v>101</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>86</v>
+      <c r="C13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
+      <c r="C15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>86</v>
+      <c r="A16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>86</v>
+      <c r="A17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>86</v>
+      <c r="C22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>119</v>
+      <c r="A23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>124</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>121</v>
+      <c r="A24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A26" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A28" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C28" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>86</v>
+      <c r="C29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>86</v>
+      <c r="A30" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
+      <c r="A31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>132</v>
+      <c r="A32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A33" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A34" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A33" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A35" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>86</v>
+      <c r="D33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A35" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A36" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A38" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A36" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
+      <c r="D37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A38" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A39" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A40" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
+      <c r="A40" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>86</v>
+      <c r="A41" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A42" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>86</v>
+      <c r="A42" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A44" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>86</v>
+      <c r="A43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A44" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A45" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>86</v>
+      <c r="A45" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A46" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>86</v>
+      <c r="A46" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A47" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A48" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A48" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A49" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>86</v>
+      <c r="C48" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A49" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A50" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>86</v>
+      <c r="A50" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A51" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>86</v>
+      <c r="A51" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A52" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>86</v>
+      <c r="A52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A54" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A55" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A53" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C53" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A56" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="D53" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A54" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A55" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A56" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>86</v>
+      <c r="C56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>86</v>
+      <c r="A57" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A58" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>86</v>
+      <c r="A58" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A59" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A60" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="A59" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="C59" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A60" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A61" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="E60" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A61" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="B61" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A62" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A63" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A64" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="E61" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A62" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C62" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A65" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="D62" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A63" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C63" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="D63" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A64" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A67" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="D64" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A65" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C65" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A68" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="D65" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A66" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C66" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A69" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="D66" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A67" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C67" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A70" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="D67" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A68" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C68" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>86</v>
+      <c r="D68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A69" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A70" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A71" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A72" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="A71" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A72" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A73" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A74" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="C72" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A73" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A74" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A75" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A76" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="E74" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A75" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A76" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A77" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>86</v>
+      <c r="C76" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A77" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A78" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="7" t="s">
+      <c r="A78" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A79" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A80" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A81" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="5" t="s">
+    <row r="79" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A79" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C79" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A80" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A81" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A82" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A83" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>86</v>
+      <c r="E81" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A82" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A83" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A84" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A85" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="A84" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A85" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A86" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="C85" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A86" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A87" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A87" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" spans="1:4">
-      <c r="A88" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="C87" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:5">
+      <c r="A88" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>86</v>
+      <c r="C88" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4156,244 +4360,272 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="16383" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" customFormat="1" ht="42" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
   <si>
     <t>名称</t>
   </si>
@@ -281,6 +281,12 @@
     <t>是否支持4.0</t>
   </si>
   <si>
+    <t>是否为官方研发</t>
+  </si>
+  <si>
+    <t>是否废弃</t>
+  </si>
+  <si>
     <t>功能扩展</t>
   </si>
   <si>
@@ -461,6 +467,9 @@
     <t>天翼RTC插件</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t xml:space="preserve">uexEasemob </t>
   </si>
   <si>
@@ -755,10 +764,16 @@
     <t>跨域异步请求插件</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>uexScrawl</t>
   </si>
   <si>
     <t>涂鸦插件</t>
+  </si>
+  <si>
+    <t>线上</t>
   </si>
   <si>
     <t>uexShakeView</t>
@@ -835,10 +850,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -863,14 +878,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -908,30 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,17 +960,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,8 +995,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,41 +1059,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1072,37 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1118,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,25 +1183,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,61 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,20 +1297,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,6 +1330,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,45 +1392,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1385,10 +1400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1397,10 +1412,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,10 +1424,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1421,118 +1436,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1558,10 +1573,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1570,8 +1585,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1621,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2913,26 +2928,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" spans="1:5">
+    <row r="1" customFormat="1" ht="60" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -2948,1400 +2964,1528 @@
       <c r="E1" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>91</v>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>95</v>
+      <c r="B6" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>99</v>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:6">
       <c r="A12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:6">
       <c r="A15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:6">
       <c r="A16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="1" ht="16.5" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="1" ht="16.5" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="1" ht="16.5" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="1" ht="16.5" spans="1:6">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="1" ht="16.5" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="1" ht="16.5" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" customFormat="1" ht="16.5" spans="1:7">
       <c r="A23" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="16.5" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" customFormat="1" ht="16.5" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" customFormat="1" ht="16.5" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" customFormat="1" ht="16.5" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" customFormat="1" ht="16.5" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" customFormat="1" ht="16.5" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" customFormat="1" ht="16.5" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" customFormat="1" ht="16.5" spans="1:6">
       <c r="A32" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" customFormat="1" ht="16.5" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A34" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>141</v>
+      <c r="B34" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" customFormat="1" ht="16.5" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" customFormat="1" ht="16.5" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="16.5" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" customFormat="1" ht="16.5" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A39" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A40" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" ht="16.5" spans="1:4">
+    </row>
+    <row r="41" customFormat="1" ht="16.5" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="16.5" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="16.5" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="16.5" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" customFormat="1" ht="16.5" spans="1:6">
       <c r="A45" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="16.5" spans="1:6">
       <c r="A46" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="16.5" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="16.5" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" customFormat="1" ht="16.5" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" customFormat="1" ht="16.5" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" customFormat="1" ht="16.5" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" customFormat="1" ht="16.5" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>176</v>
+        <v>140</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="16.5" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>178</v>
+        <v>140</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" customFormat="1" ht="16.5" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>180</v>
+        <v>140</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" customFormat="1" ht="16.5" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" customFormat="1" ht="16.5" spans="1:6">
       <c r="A56" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" customFormat="1" ht="16.5" spans="1:6">
       <c r="A57" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>185</v>
+        <v>140</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="16.5" spans="1:6">
       <c r="A58" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" customFormat="1" ht="16.5" spans="1:6">
       <c r="A59" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" customFormat="1" ht="16.5" spans="1:6">
       <c r="A60" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" customFormat="1" ht="16.5" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="7" t="s">
         <v>194</v>
       </c>
+      <c r="B61" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="C61" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E61" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" customFormat="1" ht="16.5" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" customFormat="1" ht="16.5" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" customFormat="1" ht="16.5" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" customFormat="1" ht="16.5" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" customFormat="1" ht="16.5" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" customFormat="1" ht="16.5" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" customFormat="1" ht="16.5" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" customFormat="1" ht="16.5" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" customFormat="1" ht="16.5" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" customFormat="1" ht="16.5" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" customFormat="1" ht="16.5" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" customFormat="1" ht="16.5" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" customFormat="1" ht="16.5" spans="1:6">
       <c r="A74" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" customFormat="1" ht="16.5" spans="1:6">
       <c r="A75" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" customFormat="1" ht="16.5" spans="1:6">
       <c r="A76" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" customFormat="1" ht="16.5" spans="1:6">
       <c r="A77" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" customFormat="1" ht="16.5" spans="1:6">
       <c r="A78" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D78" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" customFormat="1" ht="16.5" spans="1:6">
       <c r="A79" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" customFormat="1" ht="16.5" spans="1:6">
       <c r="A80" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>230</v>
+        <v>194</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" customFormat="1" ht="16.5" spans="1:6">
       <c r="A81" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" customFormat="1" ht="16.5" spans="1:6">
       <c r="A82" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" customFormat="1" ht="16.5" spans="1:6">
       <c r="A83" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" ht="16.5" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" customFormat="1" ht="16.5" spans="1:6">
       <c r="A84" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" customFormat="1" ht="16.5" spans="1:6">
       <c r="A85" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A86" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A86" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" customFormat="1" ht="16.5" spans="1:6">
       <c r="A87" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" ht="16.5" spans="1:6">
       <c r="A88" s="14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4360,23 +4504,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="16383" width="9" style="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" spans="1:5">
+    <row r="1" customFormat="1" ht="42" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -4392,240 +4537,336 @@
       <c r="E1" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:4">
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>247</v>
+      <c r="B3" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
+        <v>253</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16.5" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>249</v>
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="9"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:5">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="16.5" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:8">
       <c r="A14" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="F15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34980" windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -17,11 +22,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">线上插件!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="287">
   <si>
     <t>名称</t>
   </si>
@@ -879,19 +889,17 @@
   </si>
   <si>
     <t>内部支付(IAP)插件</t>
+  </si>
+  <si>
+    <t>uexUpdate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,151 +973,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,194 +1010,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1349,271 +1039,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,140 +1115,110 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="普通 8" xfId="9"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="普通" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="普通 5" xfId="22"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通" xfId="2"/>
+    <cellStyle name="普通 5" xfId="3"/>
+    <cellStyle name="普通 8" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2090,1100 +1508,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83333333333333" style="21" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83333333333333" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" ht="18" spans="1:10">
-      <c r="A3" s="27" t="s">
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" s="20" customFormat="1" spans="1:10">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="34" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="34" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="34" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" s="20" customFormat="1" spans="1:10">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="44"/>
-    </row>
-    <row r="11" ht="18" spans="1:10">
-      <c r="A11" s="27" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:9">
-      <c r="A12" s="34" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="34" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" s="20" customFormat="1" spans="1:10">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" s="20" customFormat="1" spans="1:10">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="44"/>
-    </row>
-    <row r="16" s="20" customFormat="1" spans="1:10">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="34" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="34" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" ht="18" spans="1:10">
-      <c r="A19" s="27" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:9">
-      <c r="A20" s="34" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:9">
-      <c r="A21" s="34" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:9">
-      <c r="A22" s="34" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="34" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:9">
-      <c r="A24" s="34" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" s="20" customFormat="1" spans="1:10">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="44"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="34" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="40" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" ht="18" spans="1:10">
-      <c r="A27" s="27" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
+      <c r="B27" s="26"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:9">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:9">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:9">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:9">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:9">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:9">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" ht="18" spans="1:10">
-      <c r="A35" s="27" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:9">
+      <c r="B35" s="26"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="24" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:9">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="24" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:9">
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:9">
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="24" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:9">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="24" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:9">
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="24" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:9">
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="24" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:9">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="24" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" ht="18" spans="1:10">
-      <c r="A44" s="27" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="45"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:9">
-      <c r="A45" s="41" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="42"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="24" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:9">
-      <c r="A46" s="41" t="s">
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="24" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:9">
-      <c r="A47" s="41" t="s">
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="24" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:9">
-      <c r="A48" s="41" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:9">
-      <c r="A49" s="41" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="24" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:9">
-      <c r="A50" s="41" t="s">
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="24" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:9">
-      <c r="A51" s="41" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="24" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-    </row>
-    <row r="52" ht="14.25" spans="1:6">
-      <c r="A52" s="41" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="35"/>
-      <c r="E52" s="24" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="32"/>
+      <c r="E52" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" ht="18" spans="1:10">
-      <c r="A53" s="27" t="s">
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="45"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:9">
+      <c r="B53" s="26"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="24" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:9">
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="24" t="s">
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:6">
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="E56" s="24" t="s">
+      <c r="C56" s="32"/>
+      <c r="E56" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:9">
-      <c r="A57" s="34" t="s">
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="24" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:9">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="24" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:9">
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="24" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:9">
-      <c r="A60" s="34" t="s">
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="24" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:9">
-      <c r="A61" s="42" t="s">
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="24" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-    </row>
-    <row r="62" ht="18" spans="1:10">
-      <c r="A62" s="27" t="s">
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A62" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="45"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:9">
-      <c r="A63" s="34" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="43" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:6">
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="E64" s="43" t="s">
+      <c r="C64" s="32"/>
+      <c r="E64" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="35"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:9">
-      <c r="A65" s="34" t="s">
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="43" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:9">
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="43" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:9">
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="43" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:9">
-      <c r="A68" s="34" t="s">
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="43" t="s">
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:9">
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="43" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="18" spans="1:10">
-      <c r="A70" s="27" t="s">
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+      <c r="A70" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="45"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="B70" s="26"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:11">
+    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -3198,7 +2617,7 @@
       <c r="J79" s="21"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" customFormat="1" spans="1:11">
+    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -3213,287 +2632,292 @@
       <c r="J80" s="21"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="18" spans="1:11">
-      <c r="A81" s="27" t="s">
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+      <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="45"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="42"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.16666666666667" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83333333333333" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" ht="18" spans="1:10">
-      <c r="A3" s="27" t="s">
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" s="20" customFormat="1" spans="1:10">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" s="20" customFormat="1" spans="1:10">
-      <c r="A5" s="31" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" s="20" customFormat="1" spans="1:10">
-      <c r="A6" s="31" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.16666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
@@ -3519,7 +2943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:6">
+    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
@@ -3537,7 +2961,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:6">
+    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
@@ -3555,7 +2979,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:6">
+    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
@@ -3573,7 +2997,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>118</v>
       </c>
@@ -3591,7 +3015,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" s="13" customFormat="1" ht="16.5" spans="1:7">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>118</v>
       </c>
@@ -3610,7 +3034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:6">
+    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3052,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:6">
+    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>118</v>
       </c>
@@ -3646,7 +3070,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:6">
+    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>132</v>
       </c>
@@ -3664,7 +3088,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:6">
+    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>132</v>
       </c>
@@ -3682,7 +3106,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:7">
+    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>132</v>
       </c>
@@ -3701,7 +3125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:6">
+    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>132</v>
       </c>
@@ -3719,7 +3143,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:6">
+    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
         <v>132</v>
       </c>
@@ -3737,7 +3161,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:6">
+    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
         <v>132</v>
       </c>
@@ -3752,7 +3176,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:6">
+    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -3770,7 +3194,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:6">
+    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -3788,7 +3212,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="1" ht="16.5" spans="1:6">
+    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>132</v>
       </c>
@@ -3806,7 +3230,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customFormat="1" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
         <v>132</v>
       </c>
@@ -3824,7 +3248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="16.5" spans="1:6">
+    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
@@ -3842,7 +3266,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customFormat="1" ht="16.5" spans="1:6">
+    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
         <v>132</v>
       </c>
@@ -3860,7 +3284,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customFormat="1" ht="16.5" spans="1:6">
+    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>132</v>
       </c>
@@ -3878,7 +3302,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customFormat="1" ht="16.5" spans="1:6">
+    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3896,7 +3320,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="1" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>132</v>
       </c>
@@ -3914,7 +3338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>132</v>
       </c>
@@ -3932,7 +3356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="16.5" spans="1:6">
+    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -3950,7 +3374,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customFormat="1" ht="16.5" spans="1:6">
+    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
@@ -3968,7 +3392,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customFormat="1" ht="16.5" spans="1:6">
+    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>132</v>
       </c>
@@ -3986,7 +3410,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customFormat="1" ht="16.5" spans="1:6">
+    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
         <v>132</v>
       </c>
@@ -4004,7 +3428,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customFormat="1" ht="16.5" spans="1:6">
+    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>132</v>
       </c>
@@ -4022,7 +3446,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customFormat="1" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>132</v>
       </c>
@@ -4040,7 +3464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>132</v>
       </c>
@@ -4058,7 +3482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="16.5" spans="1:6">
+    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>132</v>
       </c>
@@ -4076,7 +3500,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customFormat="1" ht="16.5" spans="1:6">
+    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>167</v>
       </c>
@@ -4094,7 +3518,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customFormat="1" ht="16.5" spans="1:6">
+    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
         <v>167</v>
       </c>
@@ -4112,7 +3536,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customFormat="1" ht="16.5" spans="1:6">
+    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
         <v>167</v>
       </c>
@@ -4130,7 +3554,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="1" ht="16.5" spans="1:6">
+    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
         <v>167</v>
       </c>
@@ -4147,7 +3571,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="16.5" spans="1:6">
+    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>167</v>
       </c>
@@ -4165,7 +3589,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customFormat="1" ht="16.5" spans="1:6">
+    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>167</v>
       </c>
@@ -4183,7 +3607,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customFormat="1" ht="16.5" spans="1:6">
+    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
         <v>167</v>
       </c>
@@ -4201,7 +3625,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customFormat="1" ht="16.5" spans="1:6">
+    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>167</v>
       </c>
@@ -4218,7 +3642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="16.5" spans="1:6">
+    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
         <v>167</v>
       </c>
@@ -4235,7 +3659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="16.5" spans="1:6">
+    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="19" t="s">
         <v>167</v>
       </c>
@@ -4252,7 +3676,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="16.5" spans="1:6">
+    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>167</v>
       </c>
@@ -4269,7 +3693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="16.5" spans="1:6">
+    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="19" t="s">
         <v>167</v>
       </c>
@@ -4287,7 +3711,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customFormat="1" ht="16.5" spans="1:6">
+    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +3728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="16.5" spans="1:6">
+    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>167</v>
       </c>
@@ -4321,7 +3745,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="16.5" spans="1:6">
+    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
         <v>167</v>
       </c>
@@ -4338,7 +3762,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="16.5" spans="1:6">
+    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
         <v>167</v>
       </c>
@@ -4356,7 +3780,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" customFormat="1" ht="16.5" spans="1:6">
+    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -4374,7 +3798,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" customFormat="1" ht="16.5" spans="1:7">
+    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
         <v>167</v>
       </c>
@@ -4392,7 +3816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="16.5" spans="1:6">
+    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
         <v>167</v>
       </c>
@@ -4408,7 +3832,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" customFormat="1" ht="16.5" spans="1:6">
+    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
         <v>167</v>
       </c>
@@ -4425,7 +3849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="16.5" spans="1:6">
+    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
         <v>167</v>
       </c>
@@ -4440,7 +3864,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" customFormat="1" ht="16.5" spans="1:6">
+    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>167</v>
       </c>
@@ -4458,7 +3882,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" customFormat="1" ht="16.5" spans="1:6">
+    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
         <v>167</v>
       </c>
@@ -4476,7 +3900,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" customFormat="1" ht="16.5" spans="1:6">
+    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
         <v>167</v>
       </c>
@@ -4494,7 +3918,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" customFormat="1" ht="16.5" spans="1:6">
+    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>167</v>
       </c>
@@ -4511,7 +3935,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="16.5" spans="1:6">
+    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
         <v>167</v>
       </c>
@@ -4526,7 +3950,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" customFormat="1" ht="16.5" spans="1:6">
+    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
         <v>167</v>
       </c>
@@ -4541,7 +3965,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" customFormat="1" ht="16.5" spans="1:6">
+    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
         <v>218</v>
       </c>
@@ -4559,7 +3983,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" customFormat="1" ht="16.5" spans="1:6">
+    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
         <v>218</v>
       </c>
@@ -4577,7 +4001,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" customFormat="1" ht="16.5" spans="1:6">
+    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
         <v>218</v>
       </c>
@@ -4595,7 +4019,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" customFormat="1" ht="16.5" spans="1:6">
+    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
         <v>218</v>
       </c>
@@ -4613,7 +4037,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" customFormat="1" ht="16.5" spans="1:6">
+    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
         <v>218</v>
       </c>
@@ -4631,7 +4055,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" customFormat="1" ht="16.5" spans="1:6">
+    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
         <v>218</v>
       </c>
@@ -4649,7 +4073,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" customFormat="1" ht="16.5" spans="1:6">
+    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
         <v>218</v>
       </c>
@@ -4667,7 +4091,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" customFormat="1" ht="16.5" spans="1:6">
+    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
         <v>218</v>
       </c>
@@ -4685,7 +4109,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" customFormat="1" ht="16.5" spans="1:6">
+    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
         <v>218</v>
       </c>
@@ -4703,7 +4127,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" customFormat="1" ht="16.5" spans="1:6">
+    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
         <v>218</v>
       </c>
@@ -4721,7 +4145,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" customFormat="1" ht="16.5" spans="1:6">
+    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
         <v>218</v>
       </c>
@@ -4739,7 +4163,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" customFormat="1" ht="16.5" spans="1:6">
+    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
         <v>218</v>
       </c>
@@ -4754,7 +4178,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" customFormat="1" ht="16.5" spans="1:6">
+    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>218</v>
       </c>
@@ -4772,7 +4196,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" customFormat="1" ht="16.5" spans="1:6">
+    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
         <v>218</v>
       </c>
@@ -4790,7 +4214,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" customFormat="1" ht="16.5" spans="1:6">
+    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
         <v>218</v>
       </c>
@@ -4808,7 +4232,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" customFormat="1" ht="16.5" spans="1:6">
+    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
         <v>218</v>
       </c>
@@ -4826,7 +4250,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" customFormat="1" ht="16.5" spans="1:6">
+    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
         <v>218</v>
       </c>
@@ -4844,7 +4268,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" customFormat="1" ht="16.5" spans="1:6">
+    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
         <v>218</v>
       </c>
@@ -4862,7 +4286,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" customFormat="1" ht="16.5" spans="1:6">
+    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
         <v>218</v>
       </c>
@@ -4877,7 +4301,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" customFormat="1" ht="16.5" spans="1:6">
+    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
         <v>218</v>
       </c>
@@ -4895,7 +4319,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" customFormat="1" ht="16.5" spans="1:6">
+    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
         <v>218</v>
       </c>
@@ -4913,7 +4337,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" customFormat="1" ht="16.5" spans="1:6">
+    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
         <v>218</v>
       </c>
@@ -4931,7 +4355,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" customFormat="1" ht="16.5" spans="1:6">
+    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
         <v>218</v>
       </c>
@@ -4949,7 +4373,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" customFormat="1" ht="16.5" spans="1:6">
+    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
         <v>218</v>
       </c>
@@ -4967,7 +4391,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" customFormat="1" ht="16.5" spans="1:6">
+    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
         <v>263</v>
       </c>
@@ -4982,7 +4406,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" customFormat="1" ht="16.5" spans="1:6">
+    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>263</v>
       </c>
@@ -5000,7 +4424,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" customFormat="1" ht="16.5" spans="1:6">
+    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>263</v>
       </c>
@@ -5018,7 +4442,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" customFormat="1" ht="16.5" spans="1:6">
+    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
         <v>263</v>
       </c>
@@ -5036,7 +4460,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" ht="16.5" spans="1:6">
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
         <v>263</v>
       </c>
@@ -5056,6 +4480,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H88"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A88">
       <formula1>"功能扩展,界面布局,第三方SDK,系统功能,网络通讯"</formula1>
@@ -5064,32 +4489,30 @@
       <formula1>"安卓,ios,安卓&amp;ios"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" spans="1:9">
+    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -5118,7 +4541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:8">
+    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -5138,7 +4561,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:6">
+    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>118</v>
       </c>
@@ -5156,7 +4579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16.5" spans="1:8">
+    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>132</v>
       </c>
@@ -5179,7 +4602,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -5202,7 +4625,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>132</v>
       </c>
@@ -5225,7 +4648,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>132</v>
       </c>
@@ -5248,7 +4671,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:8">
+    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
@@ -5271,7 +4694,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="16.5" spans="1:8">
+    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
@@ -5294,7 +4717,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="16.5" spans="1:8">
+    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -5317,7 +4740,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="16.5" spans="1:8">
+    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>167</v>
       </c>
@@ -5338,7 +4761,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:8">
+    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
@@ -5361,7 +4784,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:8">
+    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>167</v>
       </c>
@@ -5382,7 +4805,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:8">
+    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>167</v>
       </c>
@@ -5405,7 +4828,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:8">
+    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>167</v>
       </c>
@@ -5426,7 +4849,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:6">
+    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>218</v>
       </c>
@@ -5445,6 +4868,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16">
       <formula1>"功能扩展,界面布局,第三方SDK,系统功能,网络通讯"</formula1>
@@ -5454,27 +4878,23 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="uexShakeView" tooltip="https://github.com/android-plugin/uexShakeView"/>
-    <hyperlink ref="B9" r:id="rId2" display="uexMobSMS" tooltip="https://github.com/ios-plugin/uexMobSMS"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="https://github.com/android-plugin/uexShakeView"/>
+    <hyperlink ref="B9" r:id="rId2" tooltip="https://github.com/ios-plugin/uexMobSMS"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34980" windowHeight="17860"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="34980" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="331">
   <si>
     <t>名称</t>
   </si>
@@ -893,13 +888,5684 @@
   <si>
     <t>uexUpdate</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openLocation 打开定位功能,监听并返回设备所在地经纬度信息
+closeLocation 关闭定位功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getAddress 获取经纬度对应的具体地址信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+convertLocation 转换坐标的方法
+onChange 设备位置变化的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vibrate 开启设备震动
+cancelVibrate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭设备震动
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getInfo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取设备信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screenCapture </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">屏幕截图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setVolume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">调整音量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getVolume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取系统音量值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setScreenAlwaysBright </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">屏幕常亮控制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getScreenBrightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取屏幕亮度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setScreenBrightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">调整屏幕亮度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openWiFiInterface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">isFunctionEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">判断某功能是否开启
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openSetting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开设置界面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onOrientationChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屏幕旋转的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registerApp 用户授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weiXinLogin 微信授权登录
+getWeiXinLoginAccessToken 获取微信登录accessToken
+getWeiXinLoginCheckAccessToken 检验accessToken是否有效
+getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
+getWeiXinLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppInstalled 检查微信是否已安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppSupportApi 判断API是否被支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getApiVersion 获取SDK的版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openWXApp 打开微信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shareTextContent 分享文本
+shareImageContent 分享图片
+shareLinkContent 分享Link
+isSupportPay 判断是否支持支付功能
+getPrepayId 生成预支付订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startPay 支付
+login 登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginAccessToken 获取access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginRefreshAccessToken 获取刷新access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+setCallbackWindowName 设置接收回调方法的窗口名称</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>login 登录
+isQQInstalled 检查QQ是否已安装
+shareWebImgTextToQQ 分享图文到QQ
+shareLocalImgToQQ 分享本地图片到QQ
+shareAudioToQQ 分享音频到QQ</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerApp 用户授权
+login 登录
+getUserInfo 获取用户基本信息
+logout 退出
+sendTextContent 分享文字
+sendImageContent 分享图片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>open 打开相机
+openInternal　打开自定义相机
+openViewCamera 打开自定义View照相机
+removeViewCameraFromWindow 从屏幕上移除自定义View相机
+changeFlashMode 改变自定义相机View的闪光灯模式
+changeCameraPosition 改变自定义相机View的摄像头位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>create 创建文件
+mkdir 创建文件夹
+open 打开文件
+deleteFileByPath 根据路径删除文件
+isFileExistByPath 根据路径判断文件是否存在
+getFileTypeByPath 根据路径获取文件类型
+explorer 文件管理器
+multiExplorer 文件管理器(多选)
+seekFile 定位到文件某一位置
+seekBeginOfFile 定位到起始位置
+seekEndOfFile 定位到结束位置
+writeFile 写文件
+readFile 读文件
+getFileSize 获取文件大小
+getFilePath 获取文件路径
+getFileRealPath 获取文件实际路径
+closeFile 关闭文件
+getReaderOffset 获取文件偏移值
+readPercent 读百分比对应位置的字符
+readNext 读取下一页字符
+readPre 读取上一页字符
+openWithPassword 使用密码打开文件
+createWithPassword 使用密码创建文件
+getFileCreateTime 获取文件或文件夹的创建时间
+renameFile 重命名文件
+search 搜索文件
+getFileListByPath 获取某路径下的所有文件
+getFileSizeByPath 通过路径获取文件大小
+copy 复制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setPayInfo 设置商户信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay 支付功能</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 启动扫描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setJsonData 设置数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeUploader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uploadFile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传文件</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">send </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发送请求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭一个请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setPostData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setInputStream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">根据本地文件设置请求体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setBody </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求发送的数据体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setAppVerify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置是否在请求头中加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appVerify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">字段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCertificate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置本次请求使用的数字证书
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建下载对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">download </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">下载文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancelDownload </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">取消下载
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeDownloader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭下载对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getInfo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取下载对象的相关信息</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hideMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">隐藏地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">showMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setMapType </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置地图的类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setTrafficEnabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭交通图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置地图的中心点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">得到地图的中心点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setZoomLevel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置地图的比例级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zoomIn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">放大一个地图级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zoomOut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">缩小一个地图级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rotate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">旋转地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">overlook </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俯视地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setZoomEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭缩放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setRotateEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭旋转
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCompassEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭指南针
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setScrollEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭平移
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setOverlookEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开启或关闭俯视
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addMarkersOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setMarkerOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新设置标注信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">showBubble </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示标注气泡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hideBubble </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">隐藏标注气泡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addDotOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加点覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addPolylineOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加折线覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addArcOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加弧形覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addCircleOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加圆形覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addPolygonOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加几何图形覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addGroundOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加地形图图层覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addTextOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">添加文字覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removemarkersOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeOverlay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiSearchInCity 城市内检索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiNearbySearch 周边检索
+poiBoundSearch 区域检索
+busLineSearch 公交线路检索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeBusLine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清除公交线路
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">preBusLineNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示上一个公交站点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nextBusLineNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示下一个公交站点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchRoutePlan 规划并显示路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">preRouteNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示上一个线路节点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeRoutePlan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清除线路规划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nextRouteNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示下一个线路节点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geocode 地理编码
+reverseGeocode 反地理编码
+getCurrentLocation 获取当前位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setMyLocationEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示或隐藏用户位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setUserTrackingMode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置跟踪模式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zoomControlsEnabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示或隐藏缩放控件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getDistance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">计算两点之间的距离
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapDoubleClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">双击地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapLongClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">长按地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapStatusChangeListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地图状态改变的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMarkerClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击标注的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMarkerBubbleClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击标注气泡的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSDKReceiverError </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始化地图时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">非法、网络错误时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReceiveLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始定位后的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSearchRoutePlan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">线路规划搜索结果的监听
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onZoomLevelChangeListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缩放级别改变时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取缩放级别和中心点的监听方法
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open  打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+close  关闭地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMapType 设置地图类型
+setTrafficEnabled  开启或关闭实时路况
+setCenter  设置地图中心点
+setZoomLevel  设置地图缩放级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+zoomIn  放大一个地图级别
+zoomOut  缩小一个地图级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rotate  旋转地图
+overlook  倾斜地图
+setZoomEnable  开启或关闭手势缩放
+setRotateEnable 开启或关闭手势旋转及手势倾斜
+setCompassEnable  开启或关闭指南针
+setScrollEnable  开启或关闭手势移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addMarkersOverlay  添加标注
+updateMarkerOverLay  修改标注
+addPolylineOverlay  添加折线覆盖物
+addArcOverlay  添加弧形覆盖物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addCircleOverlay  添加圆形覆盖物
+addPolygonOverlay  添加多边形覆盖物
+addGroundOverlay  添加图片覆盖物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+removeMarkersOverlays  移除标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiSearch  兴趣点搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+geocode  地理编码,通过地址获得经纬度信息
+reverseGeocode  反地理编码,将经纬度转换为地址信息
+getCurrentLocation  获取当前位置
+startLocation  开始连续定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+stopLocation  停止连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMyLocationEnable  显示或隐藏我的位置
+setUserTrackingMode  设置连续定位模式
+setScaleVisible  设置地图是否显示比例尺
+setMyLocationButtonVisible设 置是否显示回到我的位置按钮
+setZoomVisible  设置是否显示放大缩小按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clear  清除地图上所有的标注和覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setCustomButton 设置自定义按钮
+deleteCustomButton 删除自定义按钮
+showCustomButtons 显示自定义按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hideCustomButtons 隐藏自定义按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onMapLoadedListener 地图加载完成的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerClickListener 点击标注的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerBubbleClickListener 点击气泡的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReceiveLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位置变化的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapLongClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">长按地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onCustomButtonClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">自定义按钮被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>download 开始下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onDownload 下载监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pause 暂停下载
+restart 继续下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getAvailableCityList 获取可下载离线地图的城市列表
+getAvailableProvinceList 获取可下载离线地图的省和城市列表
+getDownloadList 获取已下载列表
+getDownloadingList 获取正在下载列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isUpdate 已下载的离线地图数据是否需要更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete  删除已下载或者正在下载数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openPicker 打开照片选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openBrowser 打开图片浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openCropper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开图片裁剪器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saveToPhotoAlbum 储存到相册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearOutputImages </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清除由本插件导出的所有图片文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setIpadPopEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iPad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否启用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗口</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openDatePicker 打开日期选择器
+openTimePicker 打开时间选择器
+openInputDialog 打开输入对话框
+openDatePickerWithoutDay 打开只有年月的日期选择器
+openDatePickerWithConfig 打开带配置的日期选择器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onError </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数传递错误时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopPush  停止推送服务
+resumePush  恢复推送服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAlias   设置别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setTags  设置标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAliasAndTags  同时设置别名与标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getRegistrationID 取得应用程序对应的 RegistrationID
+clearAllNotifications 清除所有通知
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearNotificationById  根据Id清除某条通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getConnectionState 获取推送连接状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addLocalNotification  添加一个本地通知
+removeLocalNotification 移除一个本地通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearLocalNotifications  移除所有的通知
+setBadgeNumber  设置badge值
+disableLocalNotificationAlertView  禁止前台本地通知提示框
+onReceiveMessage 收到了自定义消息
+onReceiveNotification 收到了通知
+onReceiveNotificationOpen  用户点击了通知
+onReceiveConnectionChange  连接状态变化
+onReceiveRegistration  应用程序注册监听</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开视频播放界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openPlayer 打开视频播放器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closePlayer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭视频播放器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">record </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开视频录制界面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPlayerClose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放器被关闭时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPlayerStatusChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放器状态改变的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onRecordFinish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">录制结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开音频文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pause </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">暂停
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">重播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">volumeUp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+
+volumeDown  音量-
+startBackgroundRecord 开始后台录音
+stopBackgroundRecord 停止后台录音
+openSoundPool 打开音效池
+addSound 向音效池添加音效
+playFromSoundPool 播放音效
+stopFromSoundPool 停止音效
+closeSoundPool 关闭音效池
+setPlayMode 设置播放模式
+setProximityState 设置听筒感应开关
+onPlayFinished  播放完成后的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开数据库
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sql Sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语句的执行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select Sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语句的查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transactionEx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">　事务的执行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭数据库</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initEasemob(param,function(data){})  初始化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login(param,function(data){})   登录
+logout(function(data){})   退出登录
+registerUser(param,function(data){})  注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updateCurrentUserNickname(param)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新当前用户的昵称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getLoginInfo(function(data){}) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取当前登陆信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+onConnected(); 已连接上
+onDisconnected(param) 链接断开
+onNewMessage(param) 收到新消息监听
+onCmdMessageReceive(param) 透传消息监听
+onAckMessage(param) 消息已读监听
+onDeliveryMessage(param) 消息送达监听
+sendText(param) 发送文本消息及表情
+sendFile(param) 发送文件
+sendPicture(param)//发送图片
+sendLocationMsg(param)//发送地理位置信息
+sendVoice(param)//发送语音
+sendVideo(param) 发送视频
+sendCmdMessage(param) 发送透传消息
+setNotifyBySoundAndVibrate(param) 消息提醒相关配置
+getMessageById(param,function(data){}) 根据id获取消息记录
+sendHasReadResponseForMessage(param) 发送消息已读回执
+onMessageSent(param) 消息已发送监听
+getConversationByName(param,function(data){}) 根据用户名获取conversation对象
+getMessageHistory(param,function(data){}) 获取聊天记录
+getUnreadMsgCount(param,function(data){}) 获取未读消息数量
+resetUnreadMsgCount(param) 指定会话未读消息数清零
+resetAllUnreadMsgCount(); 所有未读消息数清零(仅Android可用)
+getMsgCount(param,function(data){})获取消息总数(仅Android可用)
+clearConversation(param) 清空会话聊天记录(仅Android可用)
+deleteConversation(param) 删除和某个user的整个的聊天记录(包括本地)
+removeMessage(param) 删除当前会话的某条聊天记录
+deleteAllConversation(); 删除所有会话记录(包括本地)
+getChatterInfo(function(data){}); 获取聊天对象信息
+getTotalUnreadMsgCount(function(data){}); 获取总计未读消息数
+getRecentChatters(function(data){}); 获取近期聊天对象信息
+onContactAdded(param)//新增联系人监听(iOS 3.0.22后支持)
+onContactDeleted(param)//删除联系人监听(iOS 3.0.22后支持)
+onContactInvited(param)//接到好友申请
+onContactAgreed(param)//好友请求被同意
+onContactRefused(param)//好友请求被拒绝
+getContactUserNames(function(data){});//获取好友列表
+addContact(param)//添加好友
+deleteContact(param)//删除好友
+acceptInvitation(param)//同意username的好友请求
+refuseInvitation(param)//拒绝username的好友请求
+getBlackListUsernames(function(data){});//获取黑名单列表
+addUserToBlackList(param)//把用户加入到黑名单
+deleteUserFromBlackList(param)//把用户从黑名单中移除
+onInvitationDeclined(param)//群聊邀请被拒绝
+onInvitationAccpted(param)//群聊邀请被同意
+onUserRemoved(param)//当前用户被管理员移除出群聊
+onGroupDestroy(param)//群聊被创建者解散
+onApplicationReceived(param)//用户申请加入群聊,收到加群申请
+onApplicationAccept(param)// // 加群申请被同意
+onApplicationDeclined(param)//加群申请被拒绝
+createPrivateGroup(param)//创建私有群
+createPublicGroup(param)//创建公开群
+onGroupCreated(param)//群组建立监听
+addUsersToGroup(param)//群聊加人
+removeUserFromGroup(param)//群聊减人
+joinGroup(param)//加入某个群聊,只能用于加入公开群
+exitFromGroup(param)//退出群聊
+exitAndDeleteGroup(param)//解散群聊
+getGroupsFromServer(param,function(data){})//从服务器获取自己加入的和创建的群聊列表
+getAllPublicGroupsFromServer(param,function(data){});//获取所有公开群列表
+getGroup(param,function(data){})//获取群详情
+blockGroupMessage(param)//屏蔽群消息
+unblockGroupMessage(param)//解除屏蔽群
+changeGroupName(param)//修改群组名称
+blockUser(param)//将群成员拉入群组的黑名单(iOS 3.0.22后支持)
+unblockUser(param)//将拉入黑名单的群成员移除(iOS 3.0.22后支持)
+getBlockedUsers(param,function(data){})//获取群组的黑名单用户列表(iOS 3.0.22后支持)
+onGroupUpdateInfo(param)//群组信息更新的监听(仅iOS)
+onDidJoinedGroup(param)//自动加入群组监听(3.0.22新增接口)
+onReceiveGroupInvitation(param)//收到群组邀请监听(iOS 3.0.22, Android 3.0.23新增接口)
+acceptJoinApplication(param)//批准入群申请, 需要Owner权限(iOS 3.0.22, Android 3.0.23新增接口)
+declineJoinApplication(param)//拒绝入群申请, 需要Owner权限(iOS 3.0.22, Android 3.0.23新增接口)
+acceptInvitationFromGroup(param)//接受入群邀请(iOS 3.0.22, Android 3.0.23新增接口)
+declineInvitationFromGroup(param)//拒绝入群邀请(iOS 3.0.22, Android 3.0.23新增接口)
+onCallReceive(param)// 实时语音监听
+onCallStateChanged(param)//通话状态监听
+makeVoiceCall(param)//拨打语音通话
+answerCall();//接听通话
+rejectCall();//拒绝接听
+endCall();//挂断通话
+registerRemoteNotification(function(data){});//注册Apns推送
+onApnsLaunch(param);
+updatePushOptions(param,function(data){});//设置apns全局属性
+ignoreGroupPushNotification(param,function(data){})//设置指定群组是否接收
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>start 开始运行后台JS
+stop 停止当前正在运行的后台JS
+addTimer 设置一个定时器
+cancelTimer 取消定时器
+onLoad 后台JS开始运行的监听方法
+XXX 定时器的监听方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建按钮
+close  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击按钮的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开日历
+close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭日历
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setSelectedDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置被选中的日期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onItemClick  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击日期时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开聊天输入
+close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭聊天输入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getInputBarHeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取输入工具条高度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hideKeyboard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">收起键盘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">changeWebViewFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的高度以适应弹出的键盘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">insertAfterAt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加字符串到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">后面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onCommit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">完成输入的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onShareMenuItem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击分享里选项的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onVoiceAction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">录音按钮的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onKeyBoardShow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">键盘弹出或收起时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onCommitJson </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击发送的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onAt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑框输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之后的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 创建索引列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭索引列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onTouchResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开评论输入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>close 关闭评论输入
+setInputFocused 输入框自动获取焦点
+getInputBarHeight 获取输入工具条高度
+onCommit 点击评论按钮时的监听方法
+onCommitJson 点击发送的监听方法
+onKeyBoardShow 键盘弹出或收起时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>open 打开listview
+close 关闭listview视图
+setItems 设置listview列表项数据
+deleteItemsAt 删除指定位置的数据
+insertItemAt 插入数据到指定位置
+appendItems 加载数据
+reloadItems 刷新数据
+setItemSwipeType 设置侧滑类型
+setPullRefreshHeader 设置下拉刷新样式
+setPullRefreshFooter 设置上拉加载样式
+onItemClick 点击列表项的监听方法
+onLeftOptionButtonInItem 点击左边按钮的监听方法
+onRightOptionButtonInItem 点击右边按钮的监听方法
+ontPullRefreshHeaderListener 下拉刷新的监听方法
+ontPullRefreshFooterListener 上拉加载的监听方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">createNewScrollPicture   新建一个轮播图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeView   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view
+onPicItemClick 轮播图点击事件</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">init  初始化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startRoutePlan  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始路径规划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startNavi  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始导航
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">exitNavi  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">退出导航
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startDigitDog  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始巡航
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onExitNavi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">退出导航的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onExitDeclaration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">退出导航声明页面的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onExitDigitDog </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>退出巡航的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">init  初始化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">calculateWalkRoute  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始步行路径规划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">calculateDriveRoute  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始驾车路径规划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startNavi  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始导航
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopNavi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止导航
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onArriveDestination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">到达目的地
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onGetNavigationText </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">导航播报的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReCalculateRouteForTrafficJam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驾车导航时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果前方遇到拥堵时重新计算路径的回调
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReCalculateRouteForYaw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步行或驾车导航时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">出现偏航后重新计算路径的回调函数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onStartNavi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">导航开始的回调
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onNaviCancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导航取消的回调</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">createUDPSocket 创建UDP对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">createTCPSocket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeSocket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Socket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setTimeOut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置超时时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setInetAddressAndPort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置接收方的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地址和端口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sendData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发送数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">接收数据的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onDisconnected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接断开的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">isGestureCodeSet 检测是否已设置手势密码
+resetGestureCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">重置手势密码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">config </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">配置插件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verify 验证手势密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create 设置手势密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终止手势密码验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置过程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onEventOccur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插件事件发生的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openPDFReader 打开阅读器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭阅读器</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开菜单
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onClickItem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open  打开区域选择
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭区域选择
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onConfirmClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成选择的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF92D050"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档写法错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">已废弃的接口可在文档中删除
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不符合规范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档版本历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>openBrowser回调方法无参数是否符合规范
+更新历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档需重写，保持格式统一</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档未进行4.0修改
+id参数未修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档更新历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档未进行4.0修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>id参数未修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,7 +6590,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -976,11 +6642,94 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1054,7 +6803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,10 +6927,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1196,14 +6951,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1508,62 +7317,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="55.25" style="56" customWidth="1"/>
+    <col min="3" max="4" width="7.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="40.25" style="63" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="47"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -1576,13 +7385,13 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
@@ -1592,11 +7401,13 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="67.5">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="52" t="s">
+        <v>287</v>
+      </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33" t="s">
@@ -1607,9 +7418,12 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="175.5">
       <c r="A5" s="20" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>288</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -1620,13 +7434,15 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="41"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="69"/>
+    </row>
+    <row r="6" spans="1:10" ht="324">
       <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="33" t="s">
@@ -1636,12 +7452,17 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="67.5">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="53" t="s">
+        <v>290</v>
+      </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="33" t="s">
@@ -1652,11 +7473,13 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="81">
       <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="53" t="s">
+        <v>291</v>
+      </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="33" t="s">
@@ -1667,11 +7490,13 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="81">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="53" t="s">
+        <v>292</v>
+      </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33" t="s">
@@ -1682,9 +7507,12 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="391.5">
       <c r="A10" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>293</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -1695,13 +7523,13 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -1711,11 +7539,13 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="27">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="52" t="s">
+        <v>294</v>
+      </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33" t="s">
@@ -1726,11 +7556,13 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="27">
       <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33" t="s">
@@ -1741,9 +7573,12 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="54">
       <c r="A14" s="20" t="s">
         <v>22</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>296</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1754,11 +7589,14 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="148.5">
       <c r="A15" s="20" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>297</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1769,11 +7607,14 @@
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="81">
       <c r="A16" s="20" t="s">
         <v>24</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>298</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -1784,13 +7625,17 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="65" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="52" t="s">
+        <v>299</v>
+      </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33" t="s">
@@ -1801,11 +7646,13 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="409.5">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="52" t="s">
+        <v>300</v>
+      </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33" t="s">
@@ -1816,11 +7663,11 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="36"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
@@ -1828,13 +7675,15 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" ht="81">
       <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="52" t="s">
+        <v>301</v>
+      </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="33" t="s">
@@ -1844,12 +7693,17 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="81">
       <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="52" t="s">
+        <v>302</v>
+      </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="33" t="s">
@@ -1860,11 +7714,13 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="283.5">
       <c r="A22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="52" t="s">
+        <v>303</v>
+      </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33" t="s">
@@ -1875,11 +7731,13 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="108">
       <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="52" t="s">
+        <v>304</v>
+      </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="33" t="s">
@@ -1890,11 +7748,13 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="229.5">
       <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="52" t="s">
+        <v>305</v>
+      </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="33" t="s">
@@ -1905,9 +7765,12 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="20" customFormat="1" ht="67.5">
       <c r="A25" s="20" t="s">
         <v>33</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>306</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -1918,13 +7781,15 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" ht="409.5">
       <c r="A26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="52" t="s">
+        <v>307</v>
+      </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="37" t="s">
@@ -1934,12 +7799,15 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J26" s="65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="36"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
@@ -1947,11 +7815,14 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" ht="81">
+      <c r="A28" s="59" t="s">
         <v>36</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -1962,10 +7833,16 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28" s="67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.5">
       <c r="A29" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>309</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1977,9 +7854,12 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="54">
       <c r="A30" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -1991,9 +7871,12 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="162">
       <c r="A31" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>311</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -2004,10 +7887,16 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40.5">
       <c r="A32" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>312</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -2019,9 +7908,12 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>313</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -2032,10 +7924,16 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="J33" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="202.5">
+      <c r="A34" s="59" t="s">
         <v>42</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>314</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -2046,12 +7944,15 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J34" s="68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="36"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
@@ -2059,11 +7960,14 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="67.5">
       <c r="A36" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>315</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -2075,9 +7979,12 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:10" ht="108">
+      <c r="A37" s="59" t="s">
         <v>46</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -2089,9 +7996,12 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:10" ht="175.5">
+      <c r="A38" s="59" t="s">
         <v>47</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>317</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -2103,9 +8013,12 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="108">
       <c r="A39" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>318</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -2116,10 +8029,16 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="94.5">
       <c r="A40" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>319</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -2131,9 +8050,12 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="27">
       <c r="A41" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>320</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2145,9 +8067,12 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="27">
       <c r="A42" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>321</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -2159,9 +8084,12 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="40.5">
       <c r="A43" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>322</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2173,11 +8101,11 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="18">
       <c r="A44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="36"/>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
@@ -2185,13 +8113,12 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="38"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="23" t="s">
@@ -2202,11 +8129,10 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="38"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="23" t="s">
@@ -2217,11 +8143,10 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="38"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="E47" s="23" t="s">
@@ -2232,11 +8157,10 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="38"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="23" t="s">
@@ -2247,11 +8171,10 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="38"/>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="23" t="s">
@@ -2262,11 +8185,10 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="38"/>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="23" t="s">
@@ -2277,11 +8199,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="38"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="23" t="s">
@@ -2292,22 +8213,21 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="38"/>
       <c r="C52" s="32"/>
       <c r="E52" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="18">
       <c r="A53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="36"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28"/>
@@ -2315,9 +8235,9 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +8251,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -2345,7 +8265,7 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -2355,11 +8275,11 @@
       </c>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="23" t="s">
@@ -2370,7 +8290,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -2384,7 +8304,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -2398,11 +8318,11 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="23" t="s">
@@ -2413,11 +8333,11 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="23" t="s">
@@ -2428,11 +8348,11 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="18">
       <c r="A62" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="36"/>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
@@ -2440,13 +8360,13 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="40" t="s">
@@ -2457,7 +8377,7 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -2467,11 +8387,11 @@
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="40" t="s">
@@ -2482,7 +8402,7 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +8416,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -2510,11 +8430,11 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="31"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="40" t="s">
@@ -2525,7 +8445,7 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -2539,11 +8459,10 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="18">
       <c r="A70" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="26"/>
       <c r="C70" s="36"/>
       <c r="D70" s="27"/>
       <c r="E70" s="28"/>
@@ -2551,9 +8470,8 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2561,7 +8479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -2569,7 +8487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -2577,36 +8495,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="22"/>
@@ -2614,14 +8532,14 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="22"/>
@@ -2629,14 +8547,13 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="18">
       <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="26"/>
       <c r="C81" s="36"/>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
@@ -2644,76 +8561,75 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="42"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="49" t="s">
+    <row r="95" spans="1:11">
+      <c r="A95" s="42" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2729,67 +8645,67 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -2802,9 +8718,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>105</v>
       </c>
@@ -2818,7 +8734,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="20" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
@@ -2838,7 +8754,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="20" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
@@ -2858,7 +8774,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="20" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
@@ -2895,7 +8811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2903,21 +8819,21 @@
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
@@ -2943,7 +8859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" customFormat="1" ht="16.5">
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
@@ -2961,7 +8877,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" customFormat="1" ht="16.5">
       <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +8895,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" customFormat="1" ht="16.5">
       <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
@@ -2997,7 +8913,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" customFormat="1" ht="16.5">
       <c r="A5" s="17" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +8931,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>118</v>
       </c>
@@ -3034,7 +8950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" customFormat="1" ht="16.5">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3052,7 +8968,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" customFormat="1" ht="16.5">
       <c r="A8" s="19" t="s">
         <v>118</v>
       </c>
@@ -3070,7 +8986,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" customFormat="1" ht="16.5">
       <c r="A9" s="19" t="s">
         <v>132</v>
       </c>
@@ -3088,7 +9004,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" customFormat="1" ht="16.5">
       <c r="A10" s="19" t="s">
         <v>132</v>
       </c>
@@ -3106,7 +9022,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" customFormat="1" ht="16.5">
       <c r="A11" s="19" t="s">
         <v>132</v>
       </c>
@@ -3125,7 +9041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" customFormat="1" ht="16.5">
       <c r="A12" s="19" t="s">
         <v>132</v>
       </c>
@@ -3143,7 +9059,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" customFormat="1" ht="16.5">
       <c r="A13" s="19" t="s">
         <v>132</v>
       </c>
@@ -3161,7 +9077,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="19" t="s">
         <v>132</v>
       </c>
@@ -3176,7 +9092,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" customFormat="1" ht="16.5">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +9110,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" customFormat="1" ht="16.5">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -3212,7 +9128,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" customFormat="1" ht="16.5">
       <c r="A17" s="19" t="s">
         <v>132</v>
       </c>
@@ -3230,7 +9146,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" customFormat="1" ht="16.5">
       <c r="A18" s="19" t="s">
         <v>132</v>
       </c>
@@ -3248,7 +9164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" customFormat="1" ht="16.5">
       <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
@@ -3266,7 +9182,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" customFormat="1" ht="16.5">
       <c r="A20" s="19" t="s">
         <v>132</v>
       </c>
@@ -3284,7 +9200,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" customFormat="1" ht="16.5">
       <c r="A21" s="19" t="s">
         <v>132</v>
       </c>
@@ -3302,7 +9218,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" customFormat="1" ht="16.5">
       <c r="A22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3320,7 +9236,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" customFormat="1" ht="16.5">
       <c r="A23" s="19" t="s">
         <v>132</v>
       </c>
@@ -3338,7 +9254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" customFormat="1" ht="16.5">
       <c r="A24" s="19" t="s">
         <v>132</v>
       </c>
@@ -3356,7 +9272,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" customFormat="1" ht="16.5">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -3374,7 +9290,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" customFormat="1" ht="16.5">
       <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
@@ -3392,7 +9308,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" customFormat="1" ht="16.5">
       <c r="A27" s="19" t="s">
         <v>132</v>
       </c>
@@ -3410,7 +9326,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" customFormat="1" ht="16.5">
       <c r="A28" s="19" t="s">
         <v>132</v>
       </c>
@@ -3428,7 +9344,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" customFormat="1" ht="16.5">
       <c r="A29" s="19" t="s">
         <v>132</v>
       </c>
@@ -3446,7 +9362,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" customFormat="1" ht="16.5">
       <c r="A30" s="19" t="s">
         <v>132</v>
       </c>
@@ -3464,7 +9380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" customFormat="1" ht="16.5">
       <c r="A31" s="19" t="s">
         <v>132</v>
       </c>
@@ -3482,7 +9398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" customFormat="1" ht="16.5">
       <c r="A32" s="19" t="s">
         <v>132</v>
       </c>
@@ -3500,7 +9416,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" customFormat="1" ht="16.5">
       <c r="A33" s="19" t="s">
         <v>167</v>
       </c>
@@ -3518,7 +9434,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" customFormat="1" ht="16.5">
       <c r="A34" s="19" t="s">
         <v>167</v>
       </c>
@@ -3536,7 +9452,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" customFormat="1" ht="16.5">
       <c r="A35" s="19" t="s">
         <v>167</v>
       </c>
@@ -3554,7 +9470,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" customFormat="1" ht="16.5">
       <c r="A36" s="19" t="s">
         <v>167</v>
       </c>
@@ -3571,7 +9487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" customFormat="1" ht="16.5">
       <c r="A37" s="19" t="s">
         <v>167</v>
       </c>
@@ -3589,7 +9505,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" customFormat="1" ht="16.5">
       <c r="A38" s="19" t="s">
         <v>167</v>
       </c>
@@ -3607,7 +9523,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" customFormat="1" ht="16.5">
       <c r="A39" s="19" t="s">
         <v>167</v>
       </c>
@@ -3625,7 +9541,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" customFormat="1" ht="16.5">
       <c r="A40" s="19" t="s">
         <v>167</v>
       </c>
@@ -3642,7 +9558,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" customFormat="1" ht="16.5">
       <c r="A41" s="19" t="s">
         <v>167</v>
       </c>
@@ -3659,7 +9575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" customFormat="1" ht="16.5">
       <c r="A42" s="19" t="s">
         <v>167</v>
       </c>
@@ -3676,7 +9592,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" customFormat="1" ht="16.5">
       <c r="A43" s="19" t="s">
         <v>167</v>
       </c>
@@ -3693,7 +9609,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" customFormat="1" ht="16.5">
       <c r="A44" s="19" t="s">
         <v>167</v>
       </c>
@@ -3711,7 +9627,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" customFormat="1" ht="16.5">
       <c r="A45" s="19" t="s">
         <v>167</v>
       </c>
@@ -3728,7 +9644,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" customFormat="1" ht="16.5">
       <c r="A46" s="19" t="s">
         <v>167</v>
       </c>
@@ -3745,7 +9661,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" customFormat="1" ht="16.5">
       <c r="A47" s="19" t="s">
         <v>167</v>
       </c>
@@ -3762,7 +9678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" customFormat="1" ht="16.5">
       <c r="A48" s="19" t="s">
         <v>167</v>
       </c>
@@ -3780,7 +9696,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" customFormat="1" ht="16.5">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -3798,7 +9714,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" customFormat="1" ht="16.5">
       <c r="A50" s="19" t="s">
         <v>167</v>
       </c>
@@ -3816,7 +9732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" customFormat="1" ht="16.5">
       <c r="A51" s="19" t="s">
         <v>167</v>
       </c>
@@ -3832,7 +9748,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" customFormat="1" ht="16.5">
       <c r="A52" s="19" t="s">
         <v>167</v>
       </c>
@@ -3849,7 +9765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" customFormat="1" ht="16.5">
       <c r="A53" s="19" t="s">
         <v>167</v>
       </c>
@@ -3864,7 +9780,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" customFormat="1" ht="16.5">
       <c r="A54" s="19" t="s">
         <v>167</v>
       </c>
@@ -3882,7 +9798,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" customFormat="1" ht="16.5">
       <c r="A55" s="19" t="s">
         <v>167</v>
       </c>
@@ -3900,7 +9816,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" customFormat="1" ht="16.5">
       <c r="A56" s="19" t="s">
         <v>167</v>
       </c>
@@ -3918,7 +9834,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" customFormat="1" ht="16.5">
       <c r="A57" s="19" t="s">
         <v>167</v>
       </c>
@@ -3935,7 +9851,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" customFormat="1" ht="16.5">
       <c r="A58" s="19" t="s">
         <v>167</v>
       </c>
@@ -3950,7 +9866,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" customFormat="1" ht="16.5">
       <c r="A59" s="19" t="s">
         <v>167</v>
       </c>
@@ -3965,7 +9881,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" customFormat="1" ht="16.5">
       <c r="A60" s="19" t="s">
         <v>218</v>
       </c>
@@ -3983,7 +9899,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" customFormat="1" ht="16.5">
       <c r="A61" s="19" t="s">
         <v>218</v>
       </c>
@@ -4001,7 +9917,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" customFormat="1" ht="16.5">
       <c r="A62" s="19" t="s">
         <v>218</v>
       </c>
@@ -4019,7 +9935,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" customFormat="1" ht="16.5">
       <c r="A63" s="19" t="s">
         <v>218</v>
       </c>
@@ -4037,7 +9953,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" customFormat="1" ht="16.5">
       <c r="A64" s="19" t="s">
         <v>218</v>
       </c>
@@ -4055,7 +9971,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" customFormat="1" ht="16.5">
       <c r="A65" s="19" t="s">
         <v>218</v>
       </c>
@@ -4073,7 +9989,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" customFormat="1" ht="16.5">
       <c r="A66" s="19" t="s">
         <v>218</v>
       </c>
@@ -4091,7 +10007,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" customFormat="1" ht="16.5">
       <c r="A67" s="19" t="s">
         <v>218</v>
       </c>
@@ -4109,7 +10025,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" customFormat="1" ht="16.5">
       <c r="A68" s="19" t="s">
         <v>218</v>
       </c>
@@ -4127,7 +10043,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" customFormat="1" ht="16.5">
       <c r="A69" s="19" t="s">
         <v>218</v>
       </c>
@@ -4145,7 +10061,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" customFormat="1" ht="16.5">
       <c r="A70" s="19" t="s">
         <v>218</v>
       </c>
@@ -4163,7 +10079,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" customFormat="1" ht="16.5">
       <c r="A71" s="19" t="s">
         <v>218</v>
       </c>
@@ -4178,7 +10094,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" customFormat="1" ht="16.5">
       <c r="A72" s="19" t="s">
         <v>218</v>
       </c>
@@ -4196,7 +10112,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" customFormat="1" ht="16.5">
       <c r="A73" s="19" t="s">
         <v>218</v>
       </c>
@@ -4214,7 +10130,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" customFormat="1" ht="16.5">
       <c r="A74" s="19" t="s">
         <v>218</v>
       </c>
@@ -4232,7 +10148,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" customFormat="1" ht="16.5">
       <c r="A75" s="19" t="s">
         <v>218</v>
       </c>
@@ -4250,7 +10166,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" customFormat="1" ht="16.5">
       <c r="A76" s="19" t="s">
         <v>218</v>
       </c>
@@ -4268,7 +10184,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" customFormat="1" ht="16.5">
       <c r="A77" s="19" t="s">
         <v>218</v>
       </c>
@@ -4286,7 +10202,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" customFormat="1" ht="16.5">
       <c r="A78" s="19" t="s">
         <v>218</v>
       </c>
@@ -4301,7 +10217,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" customFormat="1" ht="16.5">
       <c r="A79" s="19" t="s">
         <v>218</v>
       </c>
@@ -4319,7 +10235,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" customFormat="1" ht="16.5">
       <c r="A80" s="19" t="s">
         <v>218</v>
       </c>
@@ -4337,7 +10253,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" customFormat="1" ht="16.5">
       <c r="A81" s="19" t="s">
         <v>218</v>
       </c>
@@ -4355,7 +10271,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" customFormat="1" ht="16.5">
       <c r="A82" s="19" t="s">
         <v>218</v>
       </c>
@@ -4373,7 +10289,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" customFormat="1" ht="16.5">
       <c r="A83" s="19" t="s">
         <v>218</v>
       </c>
@@ -4391,7 +10307,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" customFormat="1" ht="16.5">
       <c r="A84" s="19" t="s">
         <v>263</v>
       </c>
@@ -4406,7 +10322,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" customFormat="1" ht="16.5">
       <c r="A85" s="19" t="s">
         <v>263</v>
       </c>
@@ -4424,7 +10340,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" customFormat="1" ht="16.5">
       <c r="A86" s="19" t="s">
         <v>263</v>
       </c>
@@ -4442,7 +10358,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" customFormat="1" ht="16.5">
       <c r="A87" s="19" t="s">
         <v>263</v>
       </c>
@@ -4460,7 +10376,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="16.5">
       <c r="A88" s="19" t="s">
         <v>263</v>
       </c>
@@ -4494,25 +10410,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" customFormat="1" ht="42">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -4541,7 +10457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" customFormat="1" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4561,7 +10477,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>118</v>
       </c>
@@ -4579,7 +10495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" customFormat="1" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>132</v>
       </c>
@@ -4602,7 +10518,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -4625,7 +10541,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>132</v>
       </c>
@@ -4648,7 +10564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="10" t="s">
         <v>132</v>
       </c>
@@ -4671,7 +10587,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" customFormat="1" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
@@ -4694,7 +10610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" customFormat="1" ht="16.5">
       <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
@@ -4717,7 +10633,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" customFormat="1" ht="16.5">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -4740,7 +10656,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" customFormat="1" ht="16.5">
       <c r="A11" s="6" t="s">
         <v>167</v>
       </c>
@@ -4761,7 +10677,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" customFormat="1" ht="16.5">
       <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
@@ -4784,7 +10700,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" customFormat="1" ht="16.5">
       <c r="A13" s="6" t="s">
         <v>167</v>
       </c>
@@ -4805,7 +10721,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" customFormat="1" ht="16.5">
       <c r="A14" s="6" t="s">
         <v>167</v>
       </c>
@@ -4828,7 +10744,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" customFormat="1" ht="16.5">
       <c r="A15" s="6" t="s">
         <v>167</v>
       </c>
@@ -4849,7 +10765,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
         <v>218</v>
       </c>
@@ -4886,12 +10802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="34980" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34980" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -941,275 +946,263 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getInfo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取设备信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screenCapture </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">屏幕截图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setVolume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">调整音量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getVolume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取系统音量值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setScreenAlwaysBright </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">屏幕常亮控制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getScreenBrightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取屏幕亮度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setScreenBrightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">调整屏幕亮度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openWiFiInterface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">isFunctionEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">判断某功能是否开启
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openSetting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开设置界面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onOrientationChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屏幕旋转的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">getInfo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">获取设备信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">screenCapture </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">屏幕截图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setVolume </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">调整音量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getVolume </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">获取系统音量值
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setScreenAlwaysBright </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">屏幕常亮控制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getScreenBrightness </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">获取屏幕亮度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setScreenBrightness </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">调整屏幕亮度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">openWiFiInterface </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WIFI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置页
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">isFunctionEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">判断某功能是否开启
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">openSetting </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">打开设置界面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onOrientationChange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>屏幕旋转的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>registerApp 用户授权</t>
     </r>
     <r>
@@ -1217,7 +1210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,114 +1236,109 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>isWXAppInstalled 检查微信是否已安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppSupportApi 判断API是否被支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getApiVersion 获取SDK的版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>isWXAppInstalled 检查微信是否已安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppSupportApi 判断API是否被支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getApiVersion 获取SDK的版本号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>openWXApp 打开微信</t>
     </r>
     <r>
@@ -1359,7 +1346,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1386,7 +1372,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,10 +1395,31 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>getLoginAccessToken 获取access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1426,17 +1432,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>getLoginAccessToken 获取access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>getLoginRefreshAccessToken 获取刷新access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1449,52 +1476,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>getLoginRefreshAccessToken 获取刷新access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>getLoginUnionID 获取用户个人信息</t>
     </r>
     <r>
@@ -1502,7 +1483,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1604,127 +1584,567 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>setJsonData 设置数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeUploader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uploadFile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传文件</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">send </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发送请求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭一个请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setPostData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setInputStream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">根据本地文件设置请求体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setBody </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求发送的数据体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setAppVerify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置是否在请求头中加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appVerify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">字段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCertificate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置本次请求使用的数字证书
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create 创建下载对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">download </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">下载文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancelDownload </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">取消下载
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeDownloader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭下载对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getInfo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取下载对象的相关信息</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setJsonData 设置数据</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">create 创建上传对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">closeUploader </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭上传对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setHeaders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置请求头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">uploadFile </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传文件</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">create 创建请求对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">send </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">发送请求
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1740,456 +2160,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">关闭一个请求对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setPostData </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">请求数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setInputStream </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">根据本地文件设置请求体
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setBody </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">请求发送的数据体
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setAppVerify </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置是否在请求头中加入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appVerify</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">字段
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setHeaders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置请求头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCertificate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置本次请求使用的数字证书
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getCookie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取指定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clearCookie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>清空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>信息</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">create 创建下载对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setHeaders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置请求头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">download </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">下载文件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cancelDownload </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">取消下载
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">closeDownloader </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭下载对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getInfo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取下载对象的相关信息</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">关闭地图
 </t>
     </r>
@@ -2198,7 +2168,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2220,7 +2189,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2242,7 +2210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2264,7 +2231,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2286,7 +2252,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2308,7 +2273,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2330,7 +2294,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2352,7 +2315,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2374,7 +2336,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2396,7 +2357,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2378,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2440,7 +2399,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2462,7 +2420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2484,7 +2441,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2506,7 +2462,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2483,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2550,7 +2504,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2572,7 +2525,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2594,7 +2546,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2616,7 +2567,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2638,7 +2588,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2660,7 +2609,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2682,7 +2630,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2704,7 +2651,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2726,7 +2672,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2748,7 +2693,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2770,7 +2714,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2792,7 +2735,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2814,7 +2756,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2882,76 +2823,73 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeBusLine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清除公交线路
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">preBusLineNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示上一个公交站点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nextBusLineNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示下一个公交站点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">removeBusLine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清除公交线路
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">preBusLineNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示上一个公交站点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nextBusLineNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示下一个公交站点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>searchRoutePlan 规划并显示路线</t>
     </r>
     <r>
@@ -2970,7 +2908,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2992,7 +2929,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3014,7 +2950,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3060,407 +2995,389 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setMyLocationEnable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示或隐藏用户位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setUserTrackingMode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置跟踪模式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zoomControlsEnabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示或隐藏缩放控件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getDistance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">计算两点之间的距离
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapDoubleClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">双击地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapLongClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">长按地图的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMapStatusChangeListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地图状态改变的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMarkerClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击标注的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onMarkerBubbleClickListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击标注气泡的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSDKReceiverError </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始化地图时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">非法、网络错误时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReceiveLocation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始定位后的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSearchRoutePlan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">线路规划搜索结果的监听
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onZoomLevelChangeListener </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缩放级别改变时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">获取缩放级别和中心点的监听方法
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">startLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setMyLocationEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示或隐藏用户位置
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setUserTrackingMode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置跟踪模式
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zoomControlsEnabled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示或隐藏缩放控件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getDistance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">计算两点之间的距离
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapDoubleClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">双击地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapLongClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">长按地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapStatusChangeListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">地图状态改变的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMarkerClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击标注的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMarkerBubbleClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击标注气泡的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSDKReceiverError </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>初始化地图时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">非法、网络错误时的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onReceiveLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始定位后的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSearchRoutePlan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">线路规划搜索结果的监听
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onZoomLevelChangeListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩放级别改变时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">获取缩放级别和中心点的监听方法
-</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>open  打开地图</t>
     </r>
     <r>
@@ -3468,7 +3385,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3495,7 +3411,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3525,7 +3440,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3551,7 +3465,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3576,7 +3489,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3615,7 +3527,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3643,7 +3554,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3669,22 +3579,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>hideCustomButtons 隐藏自定义按钮</t>
     </r>
     <r>
@@ -3692,7 +3601,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3749,7 +3657,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3771,7 +3678,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3793,7 +3699,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3815,7 +3720,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3950,32 +3854,31 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">openCropper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开图片裁剪器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">openCropper </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">打开图片裁剪器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>saveToPhotoAlbum 储存到相册</t>
     </r>
     <r>
@@ -3994,7 +3897,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4016,7 +3918,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4037,7 +3938,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4058,7 +3958,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4108,7 +4007,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4357,120 +4255,115 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closePlayer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭视频播放器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">record </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">打开视频录制界面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPlayerClose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放器被关闭时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPlayerStatusChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放器状态改变的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onRecordFinish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">录制结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">closePlayer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭视频播放器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">record </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">打开视频录制界面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPlayerClose </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放器被关闭时的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPlayerStatusChange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放器状态改变的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onRecordFinish </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">录制结束的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -4485,7 +4378,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4507,7 +4399,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4529,7 +4420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4551,7 +4441,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4573,7 +4462,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4594,7 +4482,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4755,7 +4642,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4777,7 +4663,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4798,7 +4683,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4819,7 +4703,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4840,7 +4723,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4963,7 +4845,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5002,7 +4883,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5024,7 +4904,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5063,7 +4942,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5085,7 +4963,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5107,7 +4984,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5128,7 +5004,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5150,7 +5025,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5171,7 +5045,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5193,7 +5066,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5215,7 +5087,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5237,7 +5108,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5259,7 +5129,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5281,7 +5150,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5303,7 +5171,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5324,7 +5191,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5352,7 +5218,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5374,7 +5239,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5395,7 +5259,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5423,7 +5286,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5464,7 +5326,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5486,7 +5347,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5508,7 +5368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5529,7 +5388,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5548,7 +5406,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5570,7 +5427,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5592,7 +5448,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5614,7 +5469,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5636,7 +5490,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5658,7 +5511,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5680,7 +5532,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5708,7 +5559,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5730,7 +5580,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5752,7 +5601,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5774,7 +5622,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5796,7 +5643,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5818,7 +5664,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5840,7 +5685,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5861,7 +5705,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5883,7 +5726,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5904,7 +5746,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5926,7 +5767,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5948,7 +5788,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5976,7 +5815,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5997,7 +5835,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6019,7 +5856,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6040,7 +5876,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6062,7 +5897,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6084,7 +5918,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6105,7 +5938,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6127,7 +5959,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6149,7 +5980,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6171,7 +6001,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6210,21 +6039,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">config </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">配置插件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">config </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">配置插件
+      <t>verify 验证手势密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -6236,7 +6086,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>verify 验证手势密码</t>
+      <t>create 设置手势密码</t>
     </r>
     <r>
       <rPr>
@@ -6252,31 +6102,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>create 设置手势密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6297,7 +6124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6319,7 +6145,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6347,7 +6172,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6375,7 +6199,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6396,7 +6219,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6424,7 +6246,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6446,7 +6267,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6480,7 +6300,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -6523,7 +6342,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -6564,8 +6382,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6733,8 +6551,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6757,6 +6590,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -6789,7 +6628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6802,8 +6641,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6933,30 +6775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6987,12 +6805,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7014,12 +6826,46 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2"/>
     <cellStyle name="普通 5" xfId="3"/>
     <cellStyle name="普通 8" xfId="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -7317,62 +7163,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.25" style="56" customWidth="1"/>
-    <col min="3" max="4" width="7.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="48" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="40.25" style="63" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="47"/>
-      <c r="B2" s="50"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -7385,13 +7231,13 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
@@ -7401,11 +7247,11 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="67.5">
+    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="44" t="s">
         <v>287</v>
       </c>
       <c r="C4" s="32"/>
@@ -7418,11 +7264,11 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="175.5">
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="182" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="50" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="34"/>
@@ -7434,13 +7280,13 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="69"/>
-    </row>
-    <row r="6" spans="1:10" ht="324">
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="336" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>289</v>
       </c>
       <c r="C6" s="32"/>
@@ -7452,15 +7298,15 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="67.5">
+    <row r="7" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="45" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="32"/>
@@ -7473,11 +7319,11 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="81">
+    <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="45" t="s">
         <v>291</v>
       </c>
       <c r="C8" s="32"/>
@@ -7490,11 +7336,11 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="81">
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="45" t="s">
         <v>292</v>
       </c>
       <c r="C9" s="32"/>
@@ -7507,11 +7353,11 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="391.5">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="406" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="52" t="s">
         <v>293</v>
       </c>
       <c r="C10" s="34"/>
@@ -7523,13 +7369,13 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -7539,11 +7385,11 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="44" t="s">
         <v>294</v>
       </c>
       <c r="C12" s="32"/>
@@ -7556,11 +7402,11 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>295</v>
       </c>
       <c r="C13" s="32"/>
@@ -7573,11 +7419,11 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="54">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="50" t="s">
         <v>296</v>
       </c>
       <c r="C14" s="34"/>
@@ -7589,13 +7435,13 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="148.5">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="52" t="s">
         <v>297</v>
       </c>
       <c r="C15" s="34"/>
@@ -7607,13 +7453,13 @@
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="63"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="81">
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="50" t="s">
         <v>298</v>
       </c>
       <c r="C16" s="34"/>
@@ -7625,15 +7471,15 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5">
+    <row r="17" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="44" t="s">
         <v>299</v>
       </c>
       <c r="C17" s="32"/>
@@ -7646,11 +7492,11 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="409.5">
+    <row r="18" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="44" t="s">
         <v>300</v>
       </c>
       <c r="C18" s="32"/>
@@ -7663,11 +7509,11 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="36"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
@@ -7677,11 +7523,11 @@
       <c r="I19" s="27"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" ht="81">
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="44" t="s">
         <v>301</v>
       </c>
       <c r="C20" s="32"/>
@@ -7693,15 +7539,15 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="81">
+    <row r="21" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="44" t="s">
         <v>302</v>
       </c>
       <c r="C21" s="32"/>
@@ -7714,11 +7560,11 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="283.5">
+    <row r="22" spans="1:10" ht="280" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="44" t="s">
         <v>303</v>
       </c>
       <c r="C22" s="32"/>
@@ -7731,11 +7577,11 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="108">
+    <row r="23" spans="1:10" ht="112" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="44" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="32"/>
@@ -7748,11 +7594,11 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="229.5">
+    <row r="24" spans="1:10" ht="238" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="44" t="s">
         <v>305</v>
       </c>
       <c r="C24" s="32"/>
@@ -7765,11 +7611,11 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="67.5">
+    <row r="25" spans="1:10" s="20" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="52" t="s">
         <v>306</v>
       </c>
       <c r="C25" s="34"/>
@@ -7781,13 +7627,13 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" ht="409.5">
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="44" t="s">
         <v>307</v>
       </c>
       <c r="C26" s="32"/>
@@ -7799,15 +7645,15 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="55" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="36"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
@@ -7817,11 +7663,11 @@
       <c r="I27" s="27"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" ht="81">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="47" t="s">
         <v>308</v>
       </c>
       <c r="C28" s="32"/>
@@ -7833,15 +7679,15 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="57" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="40.5">
+    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C29" s="32"/>
@@ -7854,11 +7700,11 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="54">
+    <row r="30" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="47" t="s">
         <v>310</v>
       </c>
       <c r="C30" s="32"/>
@@ -7871,11 +7717,11 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="162">
+    <row r="31" spans="1:10" ht="168" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C31" s="32"/>
@@ -7887,15 +7733,15 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="55" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.5">
+    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="47" t="s">
         <v>312</v>
       </c>
       <c r="C32" s="32"/>
@@ -7908,11 +7754,11 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="94.5">
+    <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="47" t="s">
         <v>313</v>
       </c>
       <c r="C33" s="32"/>
@@ -7924,15 +7770,15 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="65" t="s">
+      <c r="J33" s="55" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="202.5">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+      <c r="A34" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="47" t="s">
         <v>314</v>
       </c>
       <c r="C34" s="32"/>
@@ -7944,15 +7790,15 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="58" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="36"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
@@ -7962,11 +7808,11 @@
       <c r="I35" s="27"/>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:10" ht="67.5">
+    <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C36" s="32"/>
@@ -7979,11 +7825,11 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="108">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+      <c r="A37" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="47" t="s">
         <v>316</v>
       </c>
       <c r="C37" s="32"/>
@@ -7996,11 +7842,11 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="175.5">
-      <c r="A38" s="59" t="s">
+    <row r="38" spans="1:10" ht="182" x14ac:dyDescent="0.15">
+      <c r="A38" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="47" t="s">
         <v>317</v>
       </c>
       <c r="C38" s="32"/>
@@ -8013,11 +7859,11 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="108">
+    <row r="39" spans="1:10" ht="112" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="47" t="s">
         <v>318</v>
       </c>
       <c r="C39" s="32"/>
@@ -8029,15 +7875,15 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-      <c r="J39" s="68" t="s">
+      <c r="J39" s="58" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="94.5">
+    <row r="40" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="47" t="s">
         <v>319</v>
       </c>
       <c r="C40" s="32"/>
@@ -8050,11 +7896,11 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="27">
+    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C41" s="32"/>
@@ -8067,11 +7913,11 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="27">
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="47" t="s">
         <v>321</v>
       </c>
       <c r="C42" s="32"/>
@@ -8084,11 +7930,11 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="40.5">
+    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="47" t="s">
         <v>322</v>
       </c>
       <c r="C43" s="32"/>
@@ -8101,11 +7947,11 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="18">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="36"/>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
@@ -8115,7 +7961,7 @@
       <c r="I44" s="27"/>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
@@ -8129,7 +7975,7 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
         <v>55</v>
       </c>
@@ -8143,7 +7989,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
         <v>56</v>
       </c>
@@ -8157,7 +8003,7 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>57</v>
       </c>
@@ -8171,7 +8017,7 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -8185,7 +8031,7 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="38" t="s">
         <v>59</v>
       </c>
@@ -8199,7 +8045,7 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="38" t="s">
         <v>60</v>
       </c>
@@ -8213,7 +8059,7 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="38" t="s">
         <v>61</v>
       </c>
@@ -8223,11 +8069,11 @@
       </c>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="18">
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="51"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="36"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28"/>
@@ -8237,7 +8083,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -8251,7 +8097,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -8265,7 +8111,7 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -8275,11 +8121,11 @@
       </c>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="23" t="s">
@@ -8290,7 +8136,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -8304,7 +8150,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -8318,11 +8164,11 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="23" t="s">
@@ -8333,11 +8179,11 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="23" t="s">
@@ -8348,11 +8194,11 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:10" ht="18">
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="51"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="36"/>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
@@ -8362,11 +8208,11 @@
       <c r="I62" s="27"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="40" t="s">
@@ -8377,7 +8223,7 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -8387,11 +8233,11 @@
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="57"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="40" t="s">
@@ -8402,7 +8248,7 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -8416,7 +8262,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -8430,11 +8276,11 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="40" t="s">
@@ -8445,7 +8291,7 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -8459,10 +8305,11 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:11" ht="18">
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="25" t="s">
         <v>79</v>
       </c>
+      <c r="B70" s="43"/>
       <c r="C70" s="36"/>
       <c r="D70" s="27"/>
       <c r="E70" s="28"/>
@@ -8471,7 +8318,7 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -8479,7 +8326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -8487,7 +8334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -8495,36 +8342,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" customFormat="1">
+    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="22"/>
@@ -8532,14 +8379,14 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="63"/>
+      <c r="J79" s="53"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1">
+    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="56"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="22"/>
@@ -8547,13 +8394,14 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="63"/>
+      <c r="J80" s="53"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18">
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
+      <c r="B81" s="70"/>
       <c r="C81" s="36"/>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
@@ -8563,72 +8411,72 @@
       <c r="I81" s="27"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="42" t="s">
         <v>286</v>
       </c>
@@ -8650,62 +8498,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -8718,9 +8566,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>105</v>
       </c>
@@ -8734,7 +8582,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
@@ -8754,7 +8602,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
@@ -8774,7 +8622,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
@@ -8811,7 +8659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8819,21 +8667,21 @@
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
@@ -8859,7 +8707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5">
+    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
@@ -8877,7 +8725,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="16.5">
+    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
@@ -8895,7 +8743,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="16.5">
+    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
@@ -8913,7 +8761,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="16.5">
+    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>118</v>
       </c>
@@ -8931,7 +8779,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="16.5">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>118</v>
       </c>
@@ -8950,7 +8798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="16.5">
+    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -8968,7 +8816,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="16.5">
+    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>118</v>
       </c>
@@ -8986,7 +8834,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="16.5">
+    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>132</v>
       </c>
@@ -9004,7 +8852,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="16.5">
+    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>132</v>
       </c>
@@ -9022,7 +8870,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="16.5">
+    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>132</v>
       </c>
@@ -9041,7 +8889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="16.5">
+    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>132</v>
       </c>
@@ -9059,7 +8907,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="16.5">
+    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
         <v>132</v>
       </c>
@@ -9077,7 +8925,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.5">
+    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
         <v>132</v>
       </c>
@@ -9092,7 +8940,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="16.5">
+    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -9110,7 +8958,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="16.5">
+    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -9128,7 +8976,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="16.5">
+    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>132</v>
       </c>
@@ -9146,7 +8994,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" ht="16.5">
+    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
         <v>132</v>
       </c>
@@ -9164,7 +9012,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="16.5">
+    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
@@ -9182,7 +9030,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="16.5">
+    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
         <v>132</v>
       </c>
@@ -9200,7 +9048,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="16.5">
+    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>132</v>
       </c>
@@ -9218,7 +9066,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="16.5">
+    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
         <v>132</v>
       </c>
@@ -9236,7 +9084,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" customFormat="1" ht="16.5">
+    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>132</v>
       </c>
@@ -9254,7 +9102,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" ht="16.5">
+    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>132</v>
       </c>
@@ -9272,7 +9120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" ht="16.5">
+    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -9290,7 +9138,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="16.5">
+    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
@@ -9308,7 +9156,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:7" customFormat="1" ht="16.5">
+    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>132</v>
       </c>
@@ -9326,7 +9174,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="16.5">
+    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
         <v>132</v>
       </c>
@@ -9344,7 +9192,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="16.5">
+    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>132</v>
       </c>
@@ -9362,7 +9210,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="16.5">
+    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>132</v>
       </c>
@@ -9380,7 +9228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="16.5">
+    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>132</v>
       </c>
@@ -9398,7 +9246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="16.5">
+    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>132</v>
       </c>
@@ -9416,7 +9264,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" customFormat="1" ht="16.5">
+    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>167</v>
       </c>
@@ -9434,7 +9282,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" customFormat="1" ht="16.5">
+    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
         <v>167</v>
       </c>
@@ -9452,7 +9300,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" customFormat="1" ht="16.5">
+    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
         <v>167</v>
       </c>
@@ -9470,7 +9318,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" customFormat="1" ht="16.5">
+    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
         <v>167</v>
       </c>
@@ -9487,7 +9335,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="16.5">
+    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>167</v>
       </c>
@@ -9505,7 +9353,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" customFormat="1" ht="16.5">
+    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>167</v>
       </c>
@@ -9523,7 +9371,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" customFormat="1" ht="16.5">
+    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
         <v>167</v>
       </c>
@@ -9541,7 +9389,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" ht="16.5">
+    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>167</v>
       </c>
@@ -9558,7 +9406,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:6" customFormat="1" ht="16.5">
+    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
         <v>167</v>
       </c>
@@ -9575,7 +9423,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" customFormat="1" ht="16.5">
+    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="19" t="s">
         <v>167</v>
       </c>
@@ -9592,7 +9440,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="16.5">
+    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>167</v>
       </c>
@@ -9609,7 +9457,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" customFormat="1" ht="16.5">
+    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="19" t="s">
         <v>167</v>
       </c>
@@ -9627,7 +9475,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" customFormat="1" ht="16.5">
+    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
         <v>167</v>
       </c>
@@ -9644,7 +9492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" ht="16.5">
+    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>167</v>
       </c>
@@ -9661,7 +9509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" customFormat="1" ht="16.5">
+    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
         <v>167</v>
       </c>
@@ -9678,7 +9526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" customFormat="1" ht="16.5">
+    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
         <v>167</v>
       </c>
@@ -9696,7 +9544,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="16.5">
+    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -9714,7 +9562,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" customFormat="1" ht="16.5">
+    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
         <v>167</v>
       </c>
@@ -9732,7 +9580,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" ht="16.5">
+    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
         <v>167</v>
       </c>
@@ -9748,7 +9596,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" customFormat="1" ht="16.5">
+    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
         <v>167</v>
       </c>
@@ -9765,7 +9613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="16.5">
+    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
         <v>167</v>
       </c>
@@ -9780,7 +9628,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1" ht="16.5">
+    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>167</v>
       </c>
@@ -9798,7 +9646,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="16.5">
+    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
         <v>167</v>
       </c>
@@ -9816,7 +9664,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="16.5">
+    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
         <v>167</v>
       </c>
@@ -9834,7 +9682,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="16.5">
+    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>167</v>
       </c>
@@ -9851,7 +9699,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="16.5">
+    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
         <v>167</v>
       </c>
@@ -9866,7 +9714,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:7" customFormat="1" ht="16.5">
+    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
         <v>167</v>
       </c>
@@ -9881,7 +9729,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" customFormat="1" ht="16.5">
+    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
         <v>218</v>
       </c>
@@ -9899,7 +9747,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="16.5">
+    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
         <v>218</v>
       </c>
@@ -9917,7 +9765,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" customFormat="1" ht="16.5">
+    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
         <v>218</v>
       </c>
@@ -9935,7 +9783,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="16.5">
+    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
         <v>218</v>
       </c>
@@ -9953,7 +9801,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="16.5">
+    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
         <v>218</v>
       </c>
@@ -9971,7 +9819,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" customFormat="1" ht="16.5">
+    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
         <v>218</v>
       </c>
@@ -9989,7 +9837,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" customFormat="1" ht="16.5">
+    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
         <v>218</v>
       </c>
@@ -10007,7 +9855,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="16.5">
+    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
         <v>218</v>
       </c>
@@ -10025,7 +9873,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" customFormat="1" ht="16.5">
+    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
         <v>218</v>
       </c>
@@ -10043,7 +9891,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" customFormat="1" ht="16.5">
+    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
         <v>218</v>
       </c>
@@ -10061,7 +9909,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" customFormat="1" ht="16.5">
+    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
         <v>218</v>
       </c>
@@ -10079,7 +9927,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" customFormat="1" ht="16.5">
+    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
         <v>218</v>
       </c>
@@ -10094,7 +9942,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" ht="16.5">
+    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>218</v>
       </c>
@@ -10112,7 +9960,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="16.5">
+    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
         <v>218</v>
       </c>
@@ -10130,7 +9978,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="16.5">
+    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
         <v>218</v>
       </c>
@@ -10148,7 +9996,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="16.5">
+    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
         <v>218</v>
       </c>
@@ -10166,7 +10014,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" ht="16.5">
+    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
         <v>218</v>
       </c>
@@ -10184,7 +10032,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="16.5">
+    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
         <v>218</v>
       </c>
@@ -10202,7 +10050,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" ht="16.5">
+    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
         <v>218</v>
       </c>
@@ -10217,7 +10065,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="16.5">
+    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
         <v>218</v>
       </c>
@@ -10235,7 +10083,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" ht="16.5">
+    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
         <v>218</v>
       </c>
@@ -10253,7 +10101,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="16.5">
+    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
         <v>218</v>
       </c>
@@ -10271,7 +10119,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" ht="16.5">
+    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
         <v>218</v>
       </c>
@@ -10289,7 +10137,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" ht="16.5">
+    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
         <v>218</v>
       </c>
@@ -10307,7 +10155,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" ht="16.5">
+    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
         <v>263</v>
       </c>
@@ -10322,7 +10170,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" ht="16.5">
+    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>263</v>
       </c>
@@ -10340,7 +10188,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" ht="16.5">
+    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>263</v>
       </c>
@@ -10358,7 +10206,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="16.5">
+    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
         <v>263</v>
       </c>
@@ -10376,7 +10224,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="16.5">
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
         <v>263</v>
       </c>
@@ -10410,25 +10258,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="42">
+    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -10457,7 +10305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="16.5">
+    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10477,7 +10325,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>118</v>
       </c>
@@ -10495,7 +10343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="16.5">
+    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>132</v>
       </c>
@@ -10518,7 +10366,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -10541,7 +10389,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>132</v>
       </c>
@@ -10564,7 +10412,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>132</v>
       </c>
@@ -10587,7 +10435,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="16.5">
+    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
@@ -10610,7 +10458,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
@@ -10633,7 +10481,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="16.5">
+    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -10656,7 +10504,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>167</v>
       </c>
@@ -10677,7 +10525,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
@@ -10700,7 +10548,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>167</v>
       </c>
@@ -10721,7 +10569,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>167</v>
       </c>
@@ -10744,7 +10592,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>167</v>
       </c>
@@ -10765,7 +10613,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>218</v>
       </c>
@@ -10802,12 +10650,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34980" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="34980" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">线上插件!$A$1:$H$88</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="342">
   <si>
     <t>名称</t>
   </si>
@@ -1190,304 +1185,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>屏幕旋转的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>registerApp 用户授权</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weiXinLogin 微信授权登录
-getWeiXinLoginAccessToken 获取微信登录accessToken
-getWeiXinLoginCheckAccessToken 检验accessToken是否有效
-getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
-getWeiXinLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppInstalled 检查微信是否已安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppSupportApi 判断API是否被支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getApiVersion 获取SDK的版本号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openWXApp 打开微信</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shareTextContent 分享文本
-shareImageContent 分享图片
-shareLinkContent 分享Link
-isSupportPay 判断是否支持支付功能
-getPrepayId 生成预支付订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>startPay 支付
-login 登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginAccessToken 获取access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginRefreshAccessToken 获取刷新access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-setCallbackWindowName 设置接收回调方法的窗口名称</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1506,15 +1203,6 @@
 logout 退出
 sendTextContent 分享文字
 sendImageContent 分享图片</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>open 打开相机
-openInternal　打开自定义相机
-openViewCamera 打开自定义View照相机
-removeViewCameraFromWindow 从屏幕上移除自定义View相机
-changeFlashMode 改变自定义相机View的闪光灯模式
-changeCameraPosition 改变自定义相机View的摄像头位置</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1551,82 +1239,412 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">setPayInfo 设置商户信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pay 支付功能</t>
+      <t xml:space="preserve">create 创建上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">closeUploader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭上传对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uploadFile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传文件</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 启动扫描</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setJsonData 设置数据</t>
+      <t xml:space="preserve">create 创建请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">send </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发送请求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭一个请求对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setPostData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setInputStream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">根据本地文件设置请求体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setBody </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求发送的数据体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setAppVerify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置是否在请求头中加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appVerify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">字段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setHeaders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置请求头
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCertificate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置本次请求使用的数字证书
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearCookie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">create 创建上传对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">closeUploader </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭上传对象
+      <t xml:space="preserve">create 创建下载对象
 </t>
     </r>
     <r>
@@ -1658,390 +1676,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">uploadFile </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传文件</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">create 创建请求对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">send </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">发送请求
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭一个请求对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setPostData </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">请求数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setInputStream </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">根据本地文件设置请求体
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setBody </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">请求发送的数据体
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setAppVerify </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置是否在请求头中加入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appVerify</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">字段
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setHeaders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置请求头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCertificate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置本次请求使用的数字证书
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getCookie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取指定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clearCookie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>清空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>信息</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">create 创建下载对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setHeaders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置请求头
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">download </t>
     </r>
     <r>
@@ -2116,2255 +1750,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>获取下载对象的相关信息</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hideMap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">隐藏地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">showMap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setMapType </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置地图的类型
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setTrafficEnabled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭交通图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置地图的中心点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">得到地图的中心点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setZoomLevel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置地图的比例级别
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zoomIn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">放大一个地图级别
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zoomOut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">缩小一个地图级别
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">rotate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">旋转地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">overlook </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">俯视地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setZoomEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭缩放
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setRotateEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭旋转
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCompassEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭指南针
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setScrollEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭平移
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setOverlookEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开启或关闭俯视
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addMarkersOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加标注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setMarkerOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">更新设置标注信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">showBubble </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示标注气泡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hideBubble </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">隐藏标注气泡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addDotOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加点覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addPolylineOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加折线覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addArcOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加弧形覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addCircleOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加圆形覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addPolygonOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加几何图形覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addGroundOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加地形图图层覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addTextOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">添加文字覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removemarkersOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">移除标注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removeOverlay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">移除覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>poiSearchInCity 城市内检索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>poiNearbySearch 周边检索
-poiBoundSearch 区域检索
-busLineSearch 公交线路检索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removeBusLine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清除公交线路
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">preBusLineNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示上一个公交站点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nextBusLineNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示下一个公交站点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>searchRoutePlan 规划并显示路线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">preRouteNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示上一个线路节点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removeRoutePlan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清除线路规划
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nextRouteNode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示下一个线路节点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>geocode 地理编码
-reverseGeocode 反地理编码
-getCurrentLocation 获取当前位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">startLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setMyLocationEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示或隐藏用户位置
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setUserTrackingMode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置跟踪模式
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zoomControlsEnabled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">显示或隐藏缩放控件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getDistance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">计算两点之间的距离
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapDoubleClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">双击地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapLongClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">长按地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapStatusChangeListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">地图状态改变的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMarkerClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击标注的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMarkerBubbleClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击标注气泡的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSDKReceiverError </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>初始化地图时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">非法、网络错误时的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onReceiveLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始定位后的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSearchRoutePlan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">线路规划搜索结果的监听
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onZoomLevelChangeListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩放级别改变时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">获取缩放级别和中心点的监听方法
-</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open  打开地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-close  关闭地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setMapType 设置地图类型
-setTrafficEnabled  开启或关闭实时路况
-setCenter  设置地图中心点
-setZoomLevel  设置地图缩放级别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-zoomIn  放大一个地图级别
-zoomOut  缩小一个地图级别
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rotate  旋转地图
-overlook  倾斜地图
-setZoomEnable  开启或关闭手势缩放
-setRotateEnable 开启或关闭手势旋转及手势倾斜
-setCompassEnable  开启或关闭指南针
-setScrollEnable  开启或关闭手势移动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>addMarkersOverlay  添加标注
-updateMarkerOverLay  修改标注
-addPolylineOverlay  添加折线覆盖物
-addArcOverlay  添加弧形覆盖物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>addCircleOverlay  添加圆形覆盖物
-addPolygonOverlay  添加多边形覆盖物
-addGroundOverlay  添加图片覆盖物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-removeMarkersOverlays  移除标注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>poiSearch  兴趣点搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-geocode  地理编码,通过地址获得经纬度信息
-reverseGeocode  反地理编码,将经纬度转换为地址信息
-getCurrentLocation  获取当前位置
-startLocation  开始连续定位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-stopLocation  停止连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setMyLocationEnable  显示或隐藏我的位置
-setUserTrackingMode  设置连续定位模式
-setScaleVisible  设置地图是否显示比例尺
-setMyLocationButtonVisible设 置是否显示回到我的位置按钮
-setZoomVisible  设置是否显示放大缩小按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clear  清除地图上所有的标注和覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setCustomButton 设置自定义按钮
-deleteCustomButton 删除自定义按钮
-showCustomButtons 显示自定义按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hideCustomButtons 隐藏自定义按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onMapLoadedListener 地图加载完成的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onMarkerClickListener 点击标注的监听方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onMarkerBubbleClickListener 点击气泡的监听方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onReceiveLocation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位置变化的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onMapLongClickListener </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">长按地图的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onCustomButtonClick </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">自定义按钮被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>download 开始下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onDownload 下载监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pause 暂停下载
-restart 继续下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getAvailableCityList 获取可下载离线地图的城市列表
-getAvailableProvinceList 获取可下载离线地图的省和城市列表
-getDownloadList 获取已下载列表
-getDownloadingList 获取正在下载列表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isUpdate 已下载的离线地图数据是否需要更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delete  删除已下载或者正在下载数据</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">openPicker 打开照片选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openBrowser 打开图片浏览器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">openCropper </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">打开图片裁剪器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>saveToPhotoAlbum 储存到相册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clearOutputImages </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清除由本插件导出的所有图片文件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setIpadPopEnable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iPad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否启用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>窗口</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openDatePicker 打开日期选择器
-openTimePicker 打开时间选择器
-openInputDialog 打开输入对话框
-openDatePickerWithoutDay 打开只有年月的日期选择器
-openDatePickerWithConfig 打开带配置的日期选择器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onError </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>参数传递错误时的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopPush  停止推送服务
-resumePush  恢复推送服务
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAlias   设置别名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setTags  设置标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAliasAndTags  同时设置别名与标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getRegistrationID 取得应用程序对应的 RegistrationID
-clearAllNotifications 清除所有通知
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clearNotificationById  根据Id清除某条通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getConnectionState 获取推送连接状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>addLocalNotification  添加一个本地通知
-removeLocalNotification 移除一个本地通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clearLocalNotifications  移除所有的通知
-setBadgeNumber  设置badge值
-disableLocalNotificationAlertView  禁止前台本地通知提示框
-onReceiveMessage 收到了自定义消息
-onReceiveNotification 收到了通知
-onReceiveNotificationOpen  用户点击了通知
-onReceiveConnectionChange  连接状态变化
-onReceiveRegistration  应用程序注册监听</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开视频播放界面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openPlayer 打开视频播放器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">closePlayer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭视频播放器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">record </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">打开视频录制界面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPlayerClose </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放器被关闭时的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPlayerStatusChange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放器状态改变的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onRecordFinish </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">录制结束的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -6285,10 +3670,43 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>文档版本历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>openBrowser回调方法无参数是否符合规范
+更新历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档需重写，保持格式统一</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档未进行4.0修改
+id参数未修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档更新历史错误</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档未进行4.0修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>id参数未修改</t>
+  </si>
+  <si>
+    <t>openCreditCardRec 开启识别</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF92D050"/>
+        <color rgb="FF00B050"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -6350,40 +3768,1659 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>文档版本历史错误</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registerApp 用户授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weiXinLogin 微信授权登录
+getWeiXinLoginAccessToken 获取微信登录accessToken
+getWeiXinLoginCheckAccessToken 检验accessToken是否有效
+getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
+getWeiXinLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppInstalled 检查微信是否已安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppSupportApi 判断API是否被支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getApiVersion 获取SDK的版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openWXApp 打开微信
+shareTextContent 分享文本
+shareImageContent 分享图片
+shareLinkContent 分享Link
+isSupportPay 判断是否支持支付功能
+getPrepayId 生成预支付订单
+startPay 支付
+login 登录
+getLoginAccessToken 获取access_token
+getLoginRefreshAccessToken 获取刷新access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+setCallbackWindowName 设置接收回调方法的窗口名称</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>open 打开相机
+openInternal　打开自定义相机
+openViewCamera 打开自定义View照相机
+removeViewCameraFromWindow 从屏幕上移除自定义View相机
+changeFlashMode 改变自定义相机View的闪光灯模式
+changeCameraPosition 改变自定义相机View的摄像头位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setPayInfo 设置商户信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay 支付功能</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 启动扫描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setJsonData 设置数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+close 关闭地图
+hideMap 隐藏地图
+showMap 显示地图
+setMapType 设置地图的类型
+setTrafficEnabled 开启或关闭交通图
+setCenter 设置地图的中心点
+getCenter 得到地图的中心点
+setZoomLevel 设置地图的比例级别
+zoomIn 放大一个地图级别
+zoomOut 缩小一个地图级别
+rotate 旋转地图
+overlook 俯视地图
+setZoomEnable 开启或关闭缩放
+setRotateEnable 开启或关闭旋转
+setCompassEnable 开启或关闭指南针
+setScrollEnable 开启或关闭平移
+setOverlookEnable 开启或关闭俯视
+addMarkersOverlay 添加标注
+setMarkerOverlay 更新设置标注信息
+showBubble 显示标注气泡
+hideBubble 隐藏标注气泡
+addDotOverlay 添加点覆盖物
+addPolylineOverlay 添加折线覆盖物
+addArcOverlay 添加弧形覆盖物
+addCircleOverlay 添加圆形覆盖物
+addPolygonOverlay 添加几何图形覆盖物
+addGroundOverlay 添加地形图图层覆盖物
+addTextOverlay 添加文字覆盖物
+removemarkersOverlay 移除标注
+removeOverlay 移除覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiSearchInCity 城市内检索
+poiNearbySearch 周边检索
+poiBoundSearch 区域检索
+busLineSearch 公交线路检索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+removeBusLine 清除公交线路
+preBusLineNode 显示上一个公交站点
+nextBusLineNode 显示下一个公交站点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchRoutePlan 规划并显示路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+preRouteNode 显示上一个线路节点
+removeRoutePlan 清除线路规划
+nextRouteNode 显示下一个线路节点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geocode 地理编码
+reverseGeocode 反地理编码
+getCurrentLocation 获取当前位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+startLocation 开始连续定位
+stopLocation 停止连续定位
+setMyLocationEnable 显示或隐藏用户位置
+setUserTrackingMode 设置跟踪模式
+zoomControlsEnabled 显示或隐藏缩放控件
+getDistance 计算两点之间的距离
+onMapClickListener 点击地图的监听方法
+onMapDoubleClickListener 双击地图的监听方法
+onMapLongClickListener 长按地图的监听方法
+onMapStatusChangeListener 地图状态改变的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerClickListener 点击标注的监听方法
+onMarkerBubbleClickListener 点击标注气泡的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onSDKReceiverError 初始化地图时,key非法、网络错误时的监听方法
+onReceiveLocation 开始定位后的监听方法
+onSearchRoutePlan 线路规划搜索结果的监听
+onZoomLevelChangeListener 缩放级别改变时,获取缩放级别和中心点的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open  打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+close  关闭地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMapType 设置地图类型
+setTrafficEnabled  开启或关闭实时路况
+setCenter  设置地图中心点
+setZoomLevel  设置地图缩放级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+zoomIn  放大一个地图级别
+zoomOut  缩小一个地图级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rotate  旋转地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlook  倾斜地图
+setZoomEnable  开启或关闭手势缩放
+setRotateEnable 开启或关闭手势旋转及手势倾斜
+setCompassEnable  开启或关闭指南针
+setScrollEnable  开启或关闭手势移动
+addMarkersOverlay  添加标注
+updateMarkerOverLay  修改标注
+addPolylineOverlay  添加折线覆盖物
+addArcOverlay  添加弧形覆盖物
+addCircleOverlay  添加圆形覆盖物
+addPolygonOverlay  添加多边形覆盖物
+addGroundOverlay  添加图片覆盖物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+removeMarkersOverlays  移除标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiSearch  兴趣点搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geocode  地理编码,通过地址获得经纬度信息
+reverseGeocode  反地理编码,将经纬度转换为地址信息
+getCurrentLocation  获取当前位置
+startLocation  开始连续定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+stopLocation  停止连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMyLocationEnable  显示或隐藏我的位置
+setUserTrackingMode  设置连续定位模式
+setScaleVisible  设置地图是否显示比例尺
+setMyLocationButtonVisible设 置是否显示回到我的位置按钮
+setZoomVisible  设置是否显示放大缩小按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clear  清除地图上所有的标注和覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setCustomButton 设置自定义按钮
+deleteCustomButton 删除自定义按钮
+showCustomButtons 显示自定义按钮
+hideCustomButtons 隐藏自定义按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onMapLoadedListener 地图加载完成的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerClickListener 点击标注的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerBubbleClickListener 点击气泡的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onReceiveLocation 位置变化的监听方法
+onMapClickListener 点击地图的监听方法
+onMapLongClickListener 长按地图的监听方法
+onCustomButtonClick 自定义按钮被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>download 开始下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onDownload 下载监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pause 暂停下载
+restart 继续下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getAvailableCityList 获取可下载离线地图的城市列表
+getAvailableProvinceList 获取可下载离线地图的省和城市列表
+getDownloadList 获取已下载列表
+getDownloadingList 获取正在下载列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isUpdate 已下载的离线地图数据是否需要更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete  删除已下载或者正在下载数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openPicker 打开照片选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openBrowser 打开图片浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCropper 打开图片裁剪器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saveToPhotoAlbum 储存到相册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearOutputImages 清除由本插件导出的所有图片文件
+setIpadPopEnable 设置iPad是否启用pop窗口</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openDatePicker 打开日期选择器
+openTimePicker 打开时间选择器
+openInputDialog 打开输入对话框
+openDatePickerWithoutDay 打开只有年月的日期选择器
+openDatePickerWithConfig 打开带配置的日期选择器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onError 参数传递错误时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopPush  停止推送服务
+resumePush  恢复推送服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAlias   设置别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setTags  设置标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAliasAndTags  同时设置别名与标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getRegistrationID 取得应用程序对应的 RegistrationID
+clearAllNotifications 清除所有通知
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearNotificationById  根据Id清除某条通知
+getConnectionState 获取推送连接状态
+addLocalNotification  添加一个本地通知
+removeLocalNotification 移除一个本地通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearLocalNotifications  移除所有的通知
+setBadgeNumber  设置badge值
+disableLocalNotificationAlertView  禁止前台本地通知提示框
+onReceiveMessage 收到了自定义消息
+onReceiveNotification 收到了通知
+onReceiveNotificationOpen  用户点击了通知
+onReceiveConnectionChange  连接状态变化
+onReceiveRegistration  应用程序注册监听</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开视频播放界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openPlayer 打开视频播放器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+closePlayer 关闭视频播放器
+record 打开视频录制界面
+onPlayerClose 播放器被关闭时的监听方法
+onPlayerStatusChange 播放器状态改变的监听方法
+onRecordFinish 录制结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCircleLoading </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开带有圆形加载动画的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loading view
+close 关闭Loading</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearHistory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清空搜索历史
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSearch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户点击搜索之后的回调</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 创建带安全键盘的输入框
+close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">销毁带安全键盘的输入框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取输入框中的内容</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentItem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前选中项
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onDataChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据发生变化的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未进行4.0修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openSlidePager 创建滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closeSlidePager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentPage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPageClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击页面的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onChangeColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面切换背景色的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开视频播放器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pause </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">暂停
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear 清空缓存(仅支持iOS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getCurrentTime 获取当前播放的时间
+seekTo 跳转到时间播放
+onStateChanged　播放器状态的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onNetworkStateChanged　切换网络的监听方法(仅支持iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持iOS不应出现在方法简述上，应在平台支持中区分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDynamicShortcutItems 设置动态shortcut
+onLoadByShortcutClickEvent 程序被点击3DTouch Shortcut调起的监听方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文档更新历史错误
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档中有type唯一标识符参数</t>
+    </r>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>openBrowser回调方法无参数是否符合规范
-更新历史错误</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档需重写，保持格式统一</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档未进行4.0修改
-id参数未修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档更新历史错误</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档未进行4.0修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>id参数未修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6564,7 +5601,23 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6645,7 +5698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6781,9 +5834,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6814,9 +5864,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6825,6 +5872,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6856,8 +5906,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7163,62 +6228,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" style="48" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="55.125" style="47" customWidth="1"/>
+    <col min="3" max="4" width="7.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="60" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -7231,9 +6296,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
@@ -7247,7 +6312,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="67.5">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
@@ -7264,11 +6329,11 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="175.5">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="34"/>
@@ -7280,14 +6345,14 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:10" ht="336" x14ac:dyDescent="0.15">
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="324">
       <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -7298,16 +6363,16 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="J6" s="53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="67.5">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>290</v>
+      <c r="B7" s="72" t="s">
+        <v>289</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -7319,12 +6384,12 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="81">
       <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>291</v>
+      <c r="B8" s="72" t="s">
+        <v>290</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -7336,12 +6401,12 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="81">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>292</v>
+      <c r="B9" s="72" t="s">
+        <v>323</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -7353,12 +6418,12 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="406" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="391.5">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>293</v>
+      <c r="B10" s="51" t="s">
+        <v>291</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -7369,9 +6434,9 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -7385,12 +6450,12 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="27">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -7402,12 +6467,12 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="27">
       <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -7419,12 +6484,12 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="54">
       <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>296</v>
+      <c r="B14" s="49" t="s">
+        <v>292</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -7435,14 +6500,14 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="154" x14ac:dyDescent="0.15">
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="148.5">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>297</v>
+      <c r="B15" s="51" t="s">
+        <v>293</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -7453,14 +6518,14 @@
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="81">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>298</v>
+      <c r="B16" s="49" t="s">
+        <v>294</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -7471,16 +6536,16 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="J16" s="70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -7492,12 +6557,12 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="409.5">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -7509,7 +6574,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
@@ -7523,12 +6588,12 @@
       <c r="I19" s="27"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="81">
       <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -7539,16 +6604,16 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="56" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="J20" s="71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="81">
       <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -7560,12 +6625,12 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="283.5">
       <c r="A22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -7577,12 +6642,12 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="108">
       <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -7594,12 +6659,12 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="229.5">
       <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -7611,12 +6676,12 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="20" customFormat="1" ht="67.5">
       <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>306</v>
+      <c r="B25" s="51" t="s">
+        <v>296</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -7627,14 +6692,14 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="53"/>
-    </row>
-    <row r="26" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="409.5">
       <c r="A26" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -7645,11 +6710,11 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="55" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J26" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
@@ -7663,12 +6728,12 @@
       <c r="I27" s="27"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:10" ht="81">
+      <c r="A28" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>308</v>
+      <c r="B28" s="46" t="s">
+        <v>298</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -7679,16 +6744,16 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="57" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J28" s="55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.5">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>309</v>
+      <c r="B29" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -7700,12 +6765,12 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="54">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>310</v>
+      <c r="B30" s="46" t="s">
+        <v>300</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -7717,12 +6782,12 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="168" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="162">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>311</v>
+      <c r="B31" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -7733,16 +6798,16 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J31" s="70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40.5">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>312</v>
+      <c r="B32" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -7754,12 +6819,12 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>313</v>
+      <c r="B33" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -7770,16 +6835,16 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.15">
-      <c r="A34" s="51" t="s">
+      <c r="J33" s="70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="202.5">
+      <c r="A34" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>314</v>
+      <c r="B34" s="46" t="s">
+        <v>304</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -7790,11 +6855,11 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J34" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="25" t="s">
         <v>43</v>
       </c>
@@ -7808,12 +6873,12 @@
       <c r="I35" s="27"/>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="67.5">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>315</v>
+      <c r="B36" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -7825,12 +6890,12 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.15">
-      <c r="A37" s="51" t="s">
+    <row r="37" spans="1:10" ht="108">
+      <c r="A37" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>316</v>
+      <c r="B37" s="46" t="s">
+        <v>306</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -7842,12 +6907,12 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="182" x14ac:dyDescent="0.15">
-      <c r="A38" s="51" t="s">
+    <row r="38" spans="1:10" ht="175.5">
+      <c r="A38" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>317</v>
+      <c r="B38" s="46" t="s">
+        <v>307</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -7859,12 +6924,12 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="108">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>318</v>
+      <c r="B39" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -7875,16 +6940,16 @@
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-      <c r="J39" s="58" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="J39" s="56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="94.5">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>319</v>
+      <c r="B40" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -7896,12 +6961,12 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="27">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>320</v>
+      <c r="B41" s="46" t="s">
+        <v>310</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -7913,12 +6978,12 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="27">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>321</v>
+      <c r="B42" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -7930,12 +6995,12 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="40.5">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>322</v>
+      <c r="B43" s="46" t="s">
+        <v>312</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -7947,7 +7012,7 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="18">
       <c r="A44" s="25" t="s">
         <v>53</v>
       </c>
@@ -7961,9 +7026,12 @@
       <c r="I44" s="27"/>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="38" t="s">
         <v>54</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>320</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -7975,9 +7043,12 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="40.5">
       <c r="A46" s="38" t="s">
         <v>55</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>332</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -7989,9 +7060,12 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="67.5">
       <c r="A47" s="38" t="s">
         <v>56</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>333</v>
       </c>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -8002,10 +7076,16 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J47" s="70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="40.5">
       <c r="A48" s="38" t="s">
         <v>57</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>334</v>
       </c>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
@@ -8017,9 +7097,12 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:10" ht="67.5">
+      <c r="A49" s="73" t="s">
         <v>58</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>335</v>
       </c>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -8030,10 +7113,16 @@
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="67.5">
       <c r="A50" s="38" t="s">
         <v>59</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>337</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
@@ -8044,10 +7133,16 @@
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J50" s="70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="135">
       <c r="A51" s="38" t="s">
         <v>60</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>338</v>
       </c>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
@@ -8058,18 +7153,27 @@
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J51" s="70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="40.5">
       <c r="A52" s="38" t="s">
         <v>61</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>340</v>
       </c>
       <c r="C52" s="32"/>
       <c r="E52" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J52" s="71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18">
       <c r="A53" s="25" t="s">
         <v>62</v>
       </c>
@@ -8083,7 +7187,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -8097,7 +7201,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -8111,7 +7215,7 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -8121,11 +7225,11 @@
       </c>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="49"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="23" t="s">
@@ -8136,7 +7240,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -8150,7 +7254,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -8164,11 +7268,11 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="49"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="23" t="s">
@@ -8179,11 +7283,11 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="46"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="23" t="s">
@@ -8194,7 +7298,7 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="18">
       <c r="A62" s="25" t="s">
         <v>71</v>
       </c>
@@ -8208,11 +7312,11 @@
       <c r="I62" s="27"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="40" t="s">
@@ -8223,7 +7327,7 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -8233,11 +7337,11 @@
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="49"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="40" t="s">
@@ -8248,7 +7352,7 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -8262,7 +7366,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -8276,11 +7380,11 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="40" t="s">
@@ -8291,7 +7395,7 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -8305,7 +7409,7 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="18">
       <c r="A70" s="25" t="s">
         <v>79</v>
       </c>
@@ -8318,7 +7422,7 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -8326,7 +7430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -8334,7 +7438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -8342,36 +7446,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
       <c r="E79" s="22"/>
@@ -8379,14 +7483,14 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="53"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="22"/>
@@ -8394,14 +7498,14 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="53"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="18">
       <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="70"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="36"/>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
@@ -8411,72 +7515,72 @@
       <c r="I81" s="27"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11">
       <c r="A95" s="42" t="s">
         <v>286</v>
       </c>
@@ -8498,62 +7602,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -8566,9 +7670,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>105</v>
       </c>
@@ -8582,7 +7686,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="20" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
@@ -8602,7 +7706,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="20" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
@@ -8622,7 +7726,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="20" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
@@ -8659,7 +7763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8667,21 +7771,21 @@
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
@@ -8707,7 +7811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" customFormat="1" ht="16.5">
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
@@ -8725,7 +7829,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" customFormat="1" ht="16.5">
       <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
@@ -8743,7 +7847,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" customFormat="1" ht="16.5">
       <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
@@ -8761,7 +7865,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" customFormat="1" ht="16.5">
       <c r="A5" s="17" t="s">
         <v>118</v>
       </c>
@@ -8779,7 +7883,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>118</v>
       </c>
@@ -8798,7 +7902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" customFormat="1" ht="16.5">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -8816,7 +7920,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" customFormat="1" ht="16.5">
       <c r="A8" s="19" t="s">
         <v>118</v>
       </c>
@@ -8834,7 +7938,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" customFormat="1" ht="16.5">
       <c r="A9" s="19" t="s">
         <v>132</v>
       </c>
@@ -8852,7 +7956,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" customFormat="1" ht="16.5">
       <c r="A10" s="19" t="s">
         <v>132</v>
       </c>
@@ -8870,7 +7974,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" customFormat="1" ht="16.5">
       <c r="A11" s="19" t="s">
         <v>132</v>
       </c>
@@ -8889,7 +7993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" customFormat="1" ht="16.5">
       <c r="A12" s="19" t="s">
         <v>132</v>
       </c>
@@ -8907,7 +8011,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" customFormat="1" ht="16.5">
       <c r="A13" s="19" t="s">
         <v>132</v>
       </c>
@@ -8925,7 +8029,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="19" t="s">
         <v>132</v>
       </c>
@@ -8940,7 +8044,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" customFormat="1" ht="16.5">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -8958,7 +8062,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" customFormat="1" ht="16.5">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -8976,7 +8080,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" customFormat="1" ht="16.5">
       <c r="A17" s="19" t="s">
         <v>132</v>
       </c>
@@ -8994,7 +8098,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" customFormat="1" ht="16.5">
       <c r="A18" s="19" t="s">
         <v>132</v>
       </c>
@@ -9012,7 +8116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" customFormat="1" ht="16.5">
       <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
@@ -9030,7 +8134,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" customFormat="1" ht="16.5">
       <c r="A20" s="19" t="s">
         <v>132</v>
       </c>
@@ -9048,7 +8152,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" customFormat="1" ht="16.5">
       <c r="A21" s="19" t="s">
         <v>132</v>
       </c>
@@ -9066,7 +8170,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" customFormat="1" ht="16.5">
       <c r="A22" s="19" t="s">
         <v>132</v>
       </c>
@@ -9084,7 +8188,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" customFormat="1" ht="16.5">
       <c r="A23" s="19" t="s">
         <v>132</v>
       </c>
@@ -9102,7 +8206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" customFormat="1" ht="16.5">
       <c r="A24" s="19" t="s">
         <v>132</v>
       </c>
@@ -9120,7 +8224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" customFormat="1" ht="16.5">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -9138,7 +8242,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" customFormat="1" ht="16.5">
       <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
@@ -9156,7 +8260,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" customFormat="1" ht="16.5">
       <c r="A27" s="19" t="s">
         <v>132</v>
       </c>
@@ -9174,7 +8278,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" customFormat="1" ht="16.5">
       <c r="A28" s="19" t="s">
         <v>132</v>
       </c>
@@ -9192,7 +8296,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" customFormat="1" ht="16.5">
       <c r="A29" s="19" t="s">
         <v>132</v>
       </c>
@@ -9210,7 +8314,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" customFormat="1" ht="16.5">
       <c r="A30" s="19" t="s">
         <v>132</v>
       </c>
@@ -9228,7 +8332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" customFormat="1" ht="16.5">
       <c r="A31" s="19" t="s">
         <v>132</v>
       </c>
@@ -9246,7 +8350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" customFormat="1" ht="16.5">
       <c r="A32" s="19" t="s">
         <v>132</v>
       </c>
@@ -9264,7 +8368,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" customFormat="1" ht="16.5">
       <c r="A33" s="19" t="s">
         <v>167</v>
       </c>
@@ -9282,7 +8386,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" customFormat="1" ht="16.5">
       <c r="A34" s="19" t="s">
         <v>167</v>
       </c>
@@ -9300,7 +8404,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" customFormat="1" ht="16.5">
       <c r="A35" s="19" t="s">
         <v>167</v>
       </c>
@@ -9318,7 +8422,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" customFormat="1" ht="16.5">
       <c r="A36" s="19" t="s">
         <v>167</v>
       </c>
@@ -9335,7 +8439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" customFormat="1" ht="16.5">
       <c r="A37" s="19" t="s">
         <v>167</v>
       </c>
@@ -9353,7 +8457,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" customFormat="1" ht="16.5">
       <c r="A38" s="19" t="s">
         <v>167</v>
       </c>
@@ -9371,7 +8475,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" customFormat="1" ht="16.5">
       <c r="A39" s="19" t="s">
         <v>167</v>
       </c>
@@ -9389,7 +8493,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" customFormat="1" ht="16.5">
       <c r="A40" s="19" t="s">
         <v>167</v>
       </c>
@@ -9406,7 +8510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" customFormat="1" ht="16.5">
       <c r="A41" s="19" t="s">
         <v>167</v>
       </c>
@@ -9423,7 +8527,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" customFormat="1" ht="16.5">
       <c r="A42" s="19" t="s">
         <v>167</v>
       </c>
@@ -9440,7 +8544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" customFormat="1" ht="16.5">
       <c r="A43" s="19" t="s">
         <v>167</v>
       </c>
@@ -9457,7 +8561,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" customFormat="1" ht="16.5">
       <c r="A44" s="19" t="s">
         <v>167</v>
       </c>
@@ -9475,7 +8579,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" customFormat="1" ht="16.5">
       <c r="A45" s="19" t="s">
         <v>167</v>
       </c>
@@ -9492,7 +8596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" customFormat="1" ht="16.5">
       <c r="A46" s="19" t="s">
         <v>167</v>
       </c>
@@ -9509,7 +8613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" customFormat="1" ht="16.5">
       <c r="A47" s="19" t="s">
         <v>167</v>
       </c>
@@ -9526,7 +8630,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" customFormat="1" ht="16.5">
       <c r="A48" s="19" t="s">
         <v>167</v>
       </c>
@@ -9544,7 +8648,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" customFormat="1" ht="16.5">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -9562,7 +8666,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" customFormat="1" ht="16.5">
       <c r="A50" s="19" t="s">
         <v>167</v>
       </c>
@@ -9580,7 +8684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" customFormat="1" ht="16.5">
       <c r="A51" s="19" t="s">
         <v>167</v>
       </c>
@@ -9596,7 +8700,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" customFormat="1" ht="16.5">
       <c r="A52" s="19" t="s">
         <v>167</v>
       </c>
@@ -9613,7 +8717,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" customFormat="1" ht="16.5">
       <c r="A53" s="19" t="s">
         <v>167</v>
       </c>
@@ -9628,7 +8732,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" customFormat="1" ht="16.5">
       <c r="A54" s="19" t="s">
         <v>167</v>
       </c>
@@ -9646,7 +8750,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" customFormat="1" ht="16.5">
       <c r="A55" s="19" t="s">
         <v>167</v>
       </c>
@@ -9664,7 +8768,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" customFormat="1" ht="16.5">
       <c r="A56" s="19" t="s">
         <v>167</v>
       </c>
@@ -9682,7 +8786,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" customFormat="1" ht="16.5">
       <c r="A57" s="19" t="s">
         <v>167</v>
       </c>
@@ -9699,7 +8803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" customFormat="1" ht="16.5">
       <c r="A58" s="19" t="s">
         <v>167</v>
       </c>
@@ -9714,7 +8818,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" customFormat="1" ht="16.5">
       <c r="A59" s="19" t="s">
         <v>167</v>
       </c>
@@ -9729,7 +8833,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" customFormat="1" ht="16.5">
       <c r="A60" s="19" t="s">
         <v>218</v>
       </c>
@@ -9747,7 +8851,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" customFormat="1" ht="16.5">
       <c r="A61" s="19" t="s">
         <v>218</v>
       </c>
@@ -9765,7 +8869,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" customFormat="1" ht="16.5">
       <c r="A62" s="19" t="s">
         <v>218</v>
       </c>
@@ -9783,7 +8887,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" customFormat="1" ht="16.5">
       <c r="A63" s="19" t="s">
         <v>218</v>
       </c>
@@ -9801,7 +8905,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" customFormat="1" ht="16.5">
       <c r="A64" s="19" t="s">
         <v>218</v>
       </c>
@@ -9819,7 +8923,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" customFormat="1" ht="16.5">
       <c r="A65" s="19" t="s">
         <v>218</v>
       </c>
@@ -9837,7 +8941,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" customFormat="1" ht="16.5">
       <c r="A66" s="19" t="s">
         <v>218</v>
       </c>
@@ -9855,7 +8959,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" customFormat="1" ht="16.5">
       <c r="A67" s="19" t="s">
         <v>218</v>
       </c>
@@ -9873,7 +8977,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" customFormat="1" ht="16.5">
       <c r="A68" s="19" t="s">
         <v>218</v>
       </c>
@@ -9891,7 +8995,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" customFormat="1" ht="16.5">
       <c r="A69" s="19" t="s">
         <v>218</v>
       </c>
@@ -9909,7 +9013,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" customFormat="1" ht="16.5">
       <c r="A70" s="19" t="s">
         <v>218</v>
       </c>
@@ -9927,7 +9031,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" customFormat="1" ht="16.5">
       <c r="A71" s="19" t="s">
         <v>218</v>
       </c>
@@ -9942,7 +9046,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" customFormat="1" ht="16.5">
       <c r="A72" s="19" t="s">
         <v>218</v>
       </c>
@@ -9960,7 +9064,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" customFormat="1" ht="16.5">
       <c r="A73" s="19" t="s">
         <v>218</v>
       </c>
@@ -9978,7 +9082,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" customFormat="1" ht="16.5">
       <c r="A74" s="19" t="s">
         <v>218</v>
       </c>
@@ -9996,7 +9100,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" customFormat="1" ht="16.5">
       <c r="A75" s="19" t="s">
         <v>218</v>
       </c>
@@ -10014,7 +9118,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" customFormat="1" ht="16.5">
       <c r="A76" s="19" t="s">
         <v>218</v>
       </c>
@@ -10032,7 +9136,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" customFormat="1" ht="16.5">
       <c r="A77" s="19" t="s">
         <v>218</v>
       </c>
@@ -10050,7 +9154,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" customFormat="1" ht="16.5">
       <c r="A78" s="19" t="s">
         <v>218</v>
       </c>
@@ -10065,7 +9169,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" customFormat="1" ht="16.5">
       <c r="A79" s="19" t="s">
         <v>218</v>
       </c>
@@ -10083,7 +9187,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" customFormat="1" ht="16.5">
       <c r="A80" s="19" t="s">
         <v>218</v>
       </c>
@@ -10101,7 +9205,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" customFormat="1" ht="16.5">
       <c r="A81" s="19" t="s">
         <v>218</v>
       </c>
@@ -10119,7 +9223,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" customFormat="1" ht="16.5">
       <c r="A82" s="19" t="s">
         <v>218</v>
       </c>
@@ -10137,7 +9241,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" customFormat="1" ht="16.5">
       <c r="A83" s="19" t="s">
         <v>218</v>
       </c>
@@ -10155,7 +9259,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" customFormat="1" ht="16.5">
       <c r="A84" s="19" t="s">
         <v>263</v>
       </c>
@@ -10170,7 +9274,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" customFormat="1" ht="16.5">
       <c r="A85" s="19" t="s">
         <v>263</v>
       </c>
@@ -10188,7 +9292,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" customFormat="1" ht="16.5">
       <c r="A86" s="19" t="s">
         <v>263</v>
       </c>
@@ -10206,7 +9310,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" customFormat="1" ht="16.5">
       <c r="A87" s="19" t="s">
         <v>263</v>
       </c>
@@ -10224,7 +9328,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="16.5">
       <c r="A88" s="19" t="s">
         <v>263</v>
       </c>
@@ -10258,25 +9362,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" customFormat="1" ht="42">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -10305,7 +9409,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" customFormat="1" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10325,7 +9429,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>118</v>
       </c>
@@ -10343,7 +9447,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" customFormat="1" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>132</v>
       </c>
@@ -10366,7 +9470,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -10389,7 +9493,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>132</v>
       </c>
@@ -10412,7 +9516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="10" t="s">
         <v>132</v>
       </c>
@@ -10435,7 +9539,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" customFormat="1" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
@@ -10458,7 +9562,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" customFormat="1" ht="16.5">
       <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
@@ -10481,7 +9585,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" customFormat="1" ht="16.5">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -10504,7 +9608,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" customFormat="1" ht="16.5">
       <c r="A11" s="6" t="s">
         <v>167</v>
       </c>
@@ -10525,7 +9629,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" customFormat="1" ht="16.5">
       <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
@@ -10548,7 +9652,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" customFormat="1" ht="16.5">
       <c r="A13" s="6" t="s">
         <v>167</v>
       </c>
@@ -10569,7 +9673,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" customFormat="1" ht="16.5">
       <c r="A14" s="6" t="s">
         <v>167</v>
       </c>
@@ -10592,7 +9696,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" customFormat="1" ht="16.5">
       <c r="A15" s="6" t="s">
         <v>167</v>
       </c>
@@ -10613,7 +9717,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
         <v>218</v>
       </c>
@@ -10650,12 +9754,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="34980" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="345">
   <si>
     <t>名称</t>
   </si>
@@ -5414,6 +5414,837 @@
       <t>文档中有type唯一标识符参数</t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPay 支付</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">init  初始化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updateRecognizerSettings  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更新语音识别设置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">start  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始语音识别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stop  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止语音识别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancel  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">取消语音识别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">runTextUnderstand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">进行文本语义理解
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">speaking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">进行语音合成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancelSpeaking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">取消语音合成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onRecognizerStart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音识别开始的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSpeechStart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">检测到开始说话的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReceiveRecognizerResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">收到语音识别结果的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onEnd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音识别任务结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onVADTimeout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">录音超时的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onUpdateVolume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">录音过程中音量大小的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onReceiveUnderstanderResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">收到语义理解结果的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSpeakingStart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音合成开始的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSpeakingFinish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音合成结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSpeakingCancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音合成被取消的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSpeakingErrorOccur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语音合成过程出错的监听方法
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">canMakePayment 检测是否可以进行ApplePay支付
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startChinaUnionPay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调起银联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startPay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apple Pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">commitPaymentMethodChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">确认支付方式变化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">commitShippingMethodChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">确认物流方式变化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">commitShippingContactChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">确认物流信息变化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">commitAuthorizedResult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">确认订单支付结果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addButton </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeButton </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onChinaUnionPayFinish </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>银联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPaymentMethodChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付方式变化的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onShippingContactChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">物流联系人变化的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onShippingMethodChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">物流方式变化的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPaymentAuthorized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户进行支付的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onCommitError ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付提交变化发生错误的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onPayFinish ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支付结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onButtonClick ApplePay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付按钮被点击的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5698,7 +6529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5876,6 +6707,24 @@
     <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5906,22 +6755,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6231,9 +7065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6249,41 +7083,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="59" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="65" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -6296,7 +7130,7 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
@@ -6371,7 +7205,7 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="62" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="32"/>
@@ -6388,7 +7222,7 @@
       <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="62" t="s">
         <v>290</v>
       </c>
       <c r="C8" s="32"/>
@@ -6405,7 +7239,7 @@
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="62" t="s">
         <v>323</v>
       </c>
       <c r="C9" s="32"/>
@@ -6536,7 +7370,7 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="60" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6604,7 +7438,7 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="61" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6798,7 +7632,7 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="60" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6835,7 +7669,7 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="60" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7030,7 +7864,7 @@
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="59" t="s">
         <v>320</v>
       </c>
       <c r="C45" s="32"/>
@@ -7076,7 +7910,7 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="70" t="s">
+      <c r="J47" s="60" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7098,7 +7932,7 @@
       <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="67.5">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="46" t="s">
@@ -7133,7 +7967,7 @@
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="70" t="s">
+      <c r="J50" s="60" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7153,7 +7987,7 @@
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
-      <c r="J51" s="70" t="s">
+      <c r="J51" s="60" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7161,7 +7995,7 @@
       <c r="A52" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="64" t="s">
         <v>340</v>
       </c>
       <c r="C52" s="32"/>
@@ -7169,7 +8003,7 @@
         <v>45</v>
       </c>
       <c r="F52" s="32"/>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7191,6 +8025,9 @@
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B54" s="75" t="s">
+        <v>342</v>
+      </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="23" t="s">
@@ -7200,10 +8037,16 @@
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="270">
       <c r="A55" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>343</v>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -7215,9 +8058,12 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="229.5">
       <c r="A56" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>344</v>
       </c>
       <c r="C56" s="32"/>
       <c r="E56" s="23" t="s">
@@ -7623,41 +8469,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -7670,7 +8516,7 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="34980" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -14,6 +19,7 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4.0插件'!$A$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">线上插件!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="379">
   <si>
     <t>名称</t>
   </si>
@@ -115,15 +121,9 @@
     <t>uexImage</t>
   </si>
   <si>
-    <t>uexControl</t>
-  </si>
-  <si>
     <t>uexJpush</t>
   </si>
   <si>
-    <t>uexVideo</t>
-  </si>
-  <si>
     <t>uexAudio</t>
   </si>
   <si>
@@ -136,9 +136,6 @@
     <t>四批插件</t>
   </si>
   <si>
-    <t>uexBackground</t>
-  </si>
-  <si>
     <t>uexButton</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>uexIndexBar</t>
   </si>
   <si>
-    <t>uexInputTextFieldView</t>
-  </si>
-  <si>
     <t>uexListView</t>
   </si>
   <si>
@@ -178,21 +172,12 @@
     <t>uexGestureUnlock</t>
   </si>
   <si>
-    <t>uexPDFReader</t>
-  </si>
-  <si>
-    <t>uexActionSheet</t>
-  </si>
-  <si>
     <t>uexAreaPickerView</t>
   </si>
   <si>
     <t>六批插件</t>
   </si>
   <si>
-    <t>uexCreditCardRec</t>
-  </si>
-  <si>
     <t>uexLoadingView</t>
   </si>
   <si>
@@ -887,37 +872,6 @@
   </si>
   <si>
     <t>uexUpdate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">openLocation 打开定位功能,监听并返回设备所在地经纬度信息
-closeLocation 关闭定位功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getAddress 获取经纬度对应的具体地址信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-convertLocation 转换坐标的方法
-onChange 设备位置变化的监听方法</t>
-    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -2703,86 +2657,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">createNewScrollPicture   新建一个轮播图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">startAutoScroll   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始图片轮播
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopAutoScroll   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止图片轮播
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removeView   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>view
-onPicItemClick 轮播图点击事件</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">init  初始化
 </t>
     </r>
@@ -3718,7 +3592,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3760,226 +3634,12 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>registerApp 用户授权</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weiXinLogin 微信授权登录
-getWeiXinLoginAccessToken 获取微信登录accessToken
-getWeiXinLoginCheckAccessToken 检验accessToken是否有效
-getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
-getWeiXinLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppInstalled 检查微信是否已安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppSupportApi 判断API是否被支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getApiVersion 获取SDK的版本号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openWXApp 打开微信
-shareTextContent 分享文本
-shareImageContent 分享图片
-shareLinkContent 分享Link
-isSupportPay 判断是否支持支付功能
-getPrepayId 生成预支付订单
-startPay 支付
-login 登录
-getLoginAccessToken 获取access_token
-getLoginRefreshAccessToken 获取刷新access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-setCallbackWindowName 设置接收回调方法的窗口名称</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>open 打开相机
@@ -4214,6 +3874,1170 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">openPicker 打开照片选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openBrowser 打开图片浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCropper 打开图片裁剪器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saveToPhotoAlbum 储存到相册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearOutputImages 清除由本插件导出的所有图片文件
+setIpadPopEnable 设置iPad是否启用pop窗口</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openDatePicker 打开日期选择器
+openTimePicker 打开时间选择器
+openInputDialog 打开输入对话框
+openDatePickerWithoutDay 打开只有年月的日期选择器
+openDatePickerWithConfig 打开带配置的日期选择器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onError 参数传递错误时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopPush  停止推送服务
+resumePush  恢复推送服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAlias   设置别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setTags  设置标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAliasAndTags  同时设置别名与标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getRegistrationID 取得应用程序对应的 RegistrationID
+clearAllNotifications 清除所有通知
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearNotificationById  根据Id清除某条通知
+getConnectionState 获取推送连接状态
+addLocalNotification  添加一个本地通知
+removeLocalNotification 移除一个本地通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearLocalNotifications  移除所有的通知
+setBadgeNumber  设置badge值
+disableLocalNotificationAlertView  禁止前台本地通知提示框
+onReceiveMessage 收到了自定义消息
+onReceiveNotification 收到了通知
+onReceiveNotificationOpen  用户点击了通知
+onReceiveConnectionChange  连接状态变化
+onReceiveRegistration  应用程序注册监听</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开视频播放界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openPlayer 打开视频播放器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+closePlayer 关闭视频播放器
+record 打开视频录制界面
+onPlayerClose 播放器被关闭时的监听方法
+onPlayerStatusChange 播放器状态改变的监听方法
+onRecordFinish 录制结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCircleLoading </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开带有圆形加载动画的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loading view
+close 关闭Loading</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearHistory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清空搜索历史
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSearch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户点击搜索之后的回调</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 创建带安全键盘的输入框
+close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">销毁带安全键盘的输入框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取输入框中的内容</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentItem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前选中项
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onDataChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据发生变化的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未进行4.0修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openSlidePager 创建滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closeSlidePager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentPage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPageClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击页面的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onChangeColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面切换背景色的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开视频播放器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pause </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">暂停
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear 清空缓存(仅支持iOS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getCurrentTime 获取当前播放的时间
+seekTo 跳转到时间播放
+onStateChanged　播放器状态的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onNetworkStateChanged　切换网络的监听方法(仅支持iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持iOS不应出现在方法简述上，应在平台支持中区分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDynamicShortcutItems 设置动态shortcut
+onLoadByShortcutClickEvent 程序被点击3DTouch Shortcut调起的监听方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文档更新历史错误
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档中有type唯一标识符参数</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uexLocation </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registerApp 用户授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weiXinLogin 微信授权登录
+getWeiXinLoginAccessToken 获取微信登录accessToken
+getWeiXinLoginCheckAccessToken 检验accessToken是否有效
+getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
+getWeiXinLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppInstalled 检查微信是否已安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppSupportApi 判断API是否被支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getApiVersion 获取SDK的版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openWXApp 打开微信
+shareTextContent 分享文本
+shareImageContent 分享图片
+shareLinkContent 分享Link
+isSupportPay 判断是否支持支付功能
+getPrepayId 生成预支付订单
+startPay 支付
+login 登录
+getLoginAccessToken 获取access_token
+getLoginRefreshAccessToken 获取刷新access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+setCallbackWindowName 设置接收回调方法的窗口名称</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexScanner</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexImage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexControl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexVideo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexAudio</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexBackground</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexButton</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexCalendarView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexChatKeyboard</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexInputTextFieldView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexScrollPicture</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">createNewScrollPicture   新建一个轮播图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeView   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view
+onPicItemClick 轮播图点击事件</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexGaodeNavi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexGestureUnlock</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexPDFReader</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexActionSheet</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexAreaPickerView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexCreditCardRec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDataAnalysis</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
@@ -4602,19 +5426,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">openPicker 打开照片选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t xml:space="preserve">openLocation 打开定位功能,监听并返回设备所在地经纬度信息
+closeLocation 关闭定位功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>openBrowser 打开图片浏览器</t>
+      <t>getAddress 获取经纬度对应的具体地址信息</t>
     </r>
     <r>
       <rPr>
@@ -4625,802 +5450,231 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-openCropper 打开图片裁剪器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>saveToPhotoAlbum 储存到相册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clearOutputImages 清除由本插件导出的所有图片文件
-setIpadPopEnable 设置iPad是否启用pop窗口</t>
+convertLocation 转换坐标的方法
+onChange 设备位置变化的监听方法</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openDatePicker 打开日期选择器
-openTimePicker 打开时间选择器
-openInputDialog 打开输入对话框
-openDatePickerWithoutDay 打开只有年月的日期选择器
-openDatePickerWithConfig 打开带配置的日期选择器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onError 参数传递错误时的监听方法</t>
-    </r>
+    <t>杨广</t>
+    <rPh sb="0" eb="1">
+      <t>yang'g</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopPush  停止推送服务
-resumePush  恢复推送服务
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAlias   设置别名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setTags  设置标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAliasAndTags  同时设置别名与标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getRegistrationID 取得应用程序对应的 RegistrationID
-clearAllNotifications 清除所有通知
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clearNotificationById  根据Id清除某条通知
-getConnectionState 获取推送连接状态
-addLocalNotification  添加一个本地通知
-removeLocalNotification 移除一个本地通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clearLocalNotifications  移除所有的通知
-setBadgeNumber  设置badge值
-disableLocalNotificationAlertView  禁止前台本地通知提示框
-onReceiveMessage 收到了自定义消息
-onReceiveNotification 收到了通知
-onReceiveNotificationOpen  用户点击了通知
-onReceiveConnectionChange  连接状态变化
-onReceiveRegistration  应用程序注册监听</t>
-    </r>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'fe</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开视频播放界面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openPlayer 打开视频播放器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-closePlayer 关闭视频播放器
-record 打开视频录制界面
-onPlayerClose 播放器被关闭时的监听方法
-onPlayerStatusChange 播放器状态改变的监听方法
-onRecordFinish 录制结束的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
-    </r>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'fei</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开loading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-openCircleLoading </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打开带有圆形加载动画的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loading view
-close 关闭Loading</t>
-    </r>
+    <t>董继菲</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">open 打开搜索框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭搜索框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clearHistory </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清空搜索历史
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onItemClick item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSearch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户点击搜索之后的回调</t>
-    </r>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>y'f</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">open 创建带安全键盘的输入框
-close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">销毁带安全键盘的输入框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getData </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取输入框中的内容</t>
-    </r>
+    <t>杨广</t>
+    <rPh sb="0" eb="1">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guang</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">open 打开分段选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭分段选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCurrentItem </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置当前选中项
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onItemClick item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onDataChange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据发生变化的监听方法</t>
-    </r>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>y'fei</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>未进行4.0修改</t>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">openSlidePager 创建滑动页面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>closeSlidePager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">移除滑动页面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCurrentPage </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置当前页
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPageClick </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击页面的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onChangeColor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面切换背景色的监听方法</t>
-    </r>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long'tao</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">open 打开视频播放器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">play </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pause </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">暂停
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clear 清空缓存(仅支持iOS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getCurrentTime 获取当前播放的时间
-seekTo 跳转到时间播放
-onStateChanged　播放器状态的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onNetworkStateChanged　切换网络的监听方法(仅支持iOS)</t>
-    </r>
+    <t>杨广</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>仅支持iOS不应出现在方法简述上，应在平台支持中区分</t>
+    <t>叶飞</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>setDynamicShortcutItems 设置动态shortcut
-onLoadByShortcutClickEvent 程序被点击3DTouch Shortcut调起的监听方法</t>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'f</t>
+    </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">文档更新历史错误
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文档中有type唯一标识符参数</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kanl'gi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>knag</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董继菲</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lon'tao</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <rPh sb="0" eb="1">
+      <t>fei'qi</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long't</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu'kang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>log'tao</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄锦</t>
+    <rPh sb="0" eb="1">
+      <t>huang'jin</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5433,13 +5687,13 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5451,20 +5705,21 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5472,24 +5727,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5497,12 +5753,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5593,6 +5851,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5619,8 +5878,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5649,6 +5920,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5681,7 +5958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5697,8 +5974,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5876,6 +6162,27 @@
     <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5906,31 +6213,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2"/>
     <cellStyle name="普通 5" xfId="3"/>
     <cellStyle name="普通 8" xfId="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -6228,62 +6580,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.125" style="47" customWidth="1"/>
-    <col min="3" max="4" width="7.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="47" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="40.125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="59" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -6296,9 +6648,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="60"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
@@ -6312,15 +6664,19 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="67.5">
-      <c r="A4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A4" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>355</v>
+      </c>
       <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
@@ -6329,15 +6685,19 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="175.5">
+    <row r="5" spans="1:10" s="20" customFormat="1" ht="182" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>357</v>
+      </c>
       <c r="E5" s="35" t="s">
         <v>11</v>
       </c>
@@ -6347,15 +6707,19 @@
       <c r="I5" s="34"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:10" ht="324">
+    <row r="6" spans="1:10" ht="342" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
@@ -6364,18 +6728,22 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="67.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>358</v>
+      </c>
       <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6384,15 +6752,19 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="81">
+    <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>360</v>
+      </c>
       <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
@@ -6401,15 +6773,19 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="81">
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
@@ -6418,15 +6794,19 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="391.5">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="406" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+        <v>283</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="E10" s="35" t="s">
         <v>11</v>
       </c>
@@ -6436,7 +6816,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -6450,15 +6830,19 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+        <v>314</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>360</v>
+      </c>
       <c r="E12" s="33" t="s">
         <v>20</v>
       </c>
@@ -6467,15 +6851,19 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
-      <c r="A13" s="31" t="s">
-        <v>21</v>
+    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="76" t="s">
+        <v>333</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+        <v>315</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>364</v>
+      </c>
       <c r="E13" s="33" t="s">
         <v>20</v>
       </c>
@@ -6484,15 +6872,19 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="54">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="E14" s="35" t="s">
         <v>20</v>
       </c>
@@ -6502,15 +6894,19 @@
       <c r="I14" s="34"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="148.5">
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+        <v>285</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="E15" s="35" t="s">
         <v>20</v>
       </c>
@@ -6520,15 +6916,19 @@
       <c r="I15" s="34"/>
       <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="81">
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+        <v>286</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="E16" s="35" t="s">
         <v>20</v>
       </c>
@@ -6536,19 +6936,23 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="409.5">
+      <c r="J16" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+        <v>316</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>365</v>
+      </c>
       <c r="E17" s="33" t="s">
         <v>20</v>
       </c>
@@ -6557,15 +6961,19 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="409.5">
+    <row r="18" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="E18" s="33" t="s">
         <v>20</v>
       </c>
@@ -6574,7 +6982,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
@@ -6588,15 +6996,19 @@
       <c r="I19" s="27"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" ht="81">
-      <c r="A20" s="31" t="s">
-        <v>28</v>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A20" s="77" t="s">
+        <v>334</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+        <v>317</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E20" s="33" t="s">
         <v>20</v>
       </c>
@@ -6604,19 +7016,23 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="81">
-      <c r="A21" s="31" t="s">
-        <v>29</v>
+      <c r="J20" s="62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A21" s="76" t="s">
+        <v>335</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+        <v>318</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E21" s="33" t="s">
         <v>20</v>
       </c>
@@ -6625,15 +7041,19 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="283.5">
+    <row r="22" spans="1:10" ht="280" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+        <v>319</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E22" s="33" t="s">
         <v>20</v>
       </c>
@@ -6642,15 +7062,19 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="108">
-      <c r="A23" s="31" t="s">
-        <v>31</v>
+    <row r="23" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+      <c r="A23" s="76" t="s">
+        <v>336</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+        <v>320</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E23" s="33" t="s">
         <v>20</v>
       </c>
@@ -6659,15 +7083,19 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="229.5">
-      <c r="A24" s="31" t="s">
-        <v>32</v>
+    <row r="24" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+      <c r="A24" s="77" t="s">
+        <v>337</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E24" s="33" t="s">
         <v>20</v>
       </c>
@@ -6676,15 +7104,19 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="67.5">
+    <row r="25" spans="1:10" s="20" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+        <v>288</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>362</v>
+      </c>
       <c r="E25" s="35" t="s">
         <v>20</v>
       </c>
@@ -6694,15 +7126,19 @@
       <c r="I25" s="34"/>
       <c r="J25" s="52"/>
     </row>
-    <row r="26" spans="1:10" ht="409.5">
+    <row r="26" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E26" s="37" t="s">
         <v>20</v>
       </c>
@@ -6711,12 +7147,12 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="54" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="36"/>
@@ -6728,15 +7164,19 @@
       <c r="I27" s="27"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" ht="81">
+    <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+        <v>290</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>371</v>
+      </c>
       <c r="E28" s="33" t="s">
         <v>11</v>
       </c>
@@ -6745,18 +7185,22 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="55" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="40.5">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
+        <v>339</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+        <v>291</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E29" s="33" t="s">
         <v>11</v>
       </c>
@@ -6765,15 +7209,19 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="54">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
+    <row r="30" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A30" s="42" t="s">
+        <v>340</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+        <v>292</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E30" s="33" t="s">
         <v>11</v>
       </c>
@@ -6782,15 +7230,19 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="162">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
+    <row r="31" spans="1:10" ht="168" x14ac:dyDescent="0.15">
+      <c r="A31" s="42" t="s">
+        <v>341</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+        <v>293</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>372</v>
+      </c>
       <c r="E31" s="33" t="s">
         <v>11</v>
       </c>
@@ -6798,19 +7250,23 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="40.5">
+      <c r="J31" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E32" s="33" t="s">
         <v>11</v>
       </c>
@@ -6819,15 +7275,19 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="94.5">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
+    <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A33" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+        <v>295</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>372</v>
+      </c>
       <c r="E33" s="33" t="s">
         <v>11</v>
       </c>
@@ -6835,19 +7295,23 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="202.5">
+      <c r="J33" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+        <v>296</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E34" s="33" t="s">
         <v>11</v>
       </c>
@@ -6856,12 +7320,12 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="36"/>
@@ -6873,148 +7337,179 @@
       <c r="I35" s="27"/>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" spans="1:10" ht="67.5">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+    <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A36" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E36" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="108">
+    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.15">
       <c r="A37" s="50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+        <v>297</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="E37" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="175.5">
+    <row r="38" spans="1:10" ht="182" x14ac:dyDescent="0.15">
       <c r="A38" s="50" t="s">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+        <v>298</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="E38" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="108">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="94.5">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
+    <row r="39" spans="1:10" s="79" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A39" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A40" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+        <v>300</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E40" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="27">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
+    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="42" t="s">
+        <v>347</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+        <v>301</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E41" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="27">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A42" s="42" t="s">
+        <v>348</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+        <v>302</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E42" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="40.5">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" ht="18">
+    <row r="43" spans="1:10" s="90" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A43" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="91" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="36"/>
@@ -7026,156 +7521,186 @@
       <c r="I44" s="27"/>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>360</v>
+      </c>
       <c r="E45" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:10" ht="40.5">
+    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+        <v>321</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>360</v>
+      </c>
       <c r="E46" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="67.5">
+    <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+        <v>322</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E47" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="40.5">
+      <c r="J47" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+        <v>323</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E48" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="67.5">
-      <c r="A49" s="73" t="s">
-        <v>58</v>
+    <row r="49" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A49" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+        <v>324</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="E49" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="56" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="67.5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A50" s="38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+        <v>326</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E50" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="135">
-      <c r="A51" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="70" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="40.5">
+      <c r="J50" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="90" customFormat="1" ht="140" x14ac:dyDescent="0.15">
+      <c r="A51" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A52" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="74" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>361</v>
+      </c>
       <c r="E52" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F52" s="32"/>
-      <c r="J52" s="71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="18">
+      <c r="J52" s="62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="36"/>
@@ -7187,120 +7712,150 @@
       <c r="I53" s="27"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E54" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E55" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>361</v>
+      </c>
       <c r="E56" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B57" s="48"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>375</v>
+      </c>
       <c r="E57" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E58" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E59" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B60" s="48"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>375</v>
+      </c>
       <c r="E60" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B61" s="45"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E61" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:10" ht="18">
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B62" s="43"/>
       <c r="C62" s="36"/>
@@ -7312,106 +7867,130 @@
       <c r="I62" s="27"/>
       <c r="J62" s="41"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B63" s="48"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E63" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>376</v>
+      </c>
       <c r="E64" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B65" s="48"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="E65" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E66" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E67" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B68" s="48"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E68" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="32"/>
+        <v>71</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>376</v>
+      </c>
       <c r="D69" s="32"/>
       <c r="E69" s="40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:11" ht="18">
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="36"/>
@@ -7422,62 +8001,117 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="94"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="89"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1" t="s">
+      <c r="C78" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" customFormat="1">
-      <c r="A79" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B79" s="47"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E79" s="22"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -7486,13 +8120,17 @@
       <c r="J79" s="52"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1">
+    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B80" s="47"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="C80" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -7501,9 +8139,9 @@
       <c r="J80" s="52"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18">
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A81" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B81" s="58"/>
       <c r="C81" s="36"/>
@@ -7515,74 +8153,146 @@
       <c r="I81" s="27"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1" t="s">
+      <c r="C89" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1" t="s">
+      <c r="C90" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
+      <c r="C91" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
+      <c r="C92" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
+      <c r="C93" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="C94" s="59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="42" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7602,62 +8312,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="61" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -7670,11 +8380,11 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -7686,16 +8396,16 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1">
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>11</v>
@@ -7706,16 +8416,16 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>11</v>
@@ -7726,16 +8436,16 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>20</v>
@@ -7763,1586 +8473,1587 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A3" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="16.5">
+    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="16.5">
-      <c r="A6" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A9" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="D13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C18" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A15" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="16.5">
-      <c r="A16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A17" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="16.5">
+    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="16.5">
+    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="16.5">
+    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" customFormat="1" ht="16.5">
+    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="16.5">
+    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:7" customFormat="1" ht="16.5">
+    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="16.5">
+    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="16.5">
+    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="16.5">
+    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A33" s="19" t="s">
+      <c r="D35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C36" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A34" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A35" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="D37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C38" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A36" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="D38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="D39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A37" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="C40" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A38" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C41" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A39" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="C42" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="D42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A40" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="C43" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A41" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="C44" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A42" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="C45" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="D45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A46" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A43" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C46" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="D46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A44" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="C47" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A45" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A46" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A47" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" customFormat="1" ht="16.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="16.5">
+    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" customFormat="1" ht="16.5">
+    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" customFormat="1" ht="16.5">
+    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" customFormat="1" ht="16.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1" ht="16.5">
+    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="16.5">
+    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="16.5">
+    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A57" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="C60" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A58" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A59" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A60" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="16.5">
+    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" customFormat="1" ht="16.5">
+    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C63" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A66" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A63" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="C66" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="D66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" customFormat="1" ht="16.5">
-      <c r="A64" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A68" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A65" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="C68" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A69" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A66" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="C69" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A67" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="C70" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A68" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A69" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A70" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" customFormat="1" ht="16.5">
-      <c r="A71" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>241</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" ht="16.5">
+    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="16.5">
+    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="16.5">
+    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="16.5">
+    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" ht="16.5">
+    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="16.5">
+    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" ht="16.5">
+    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="16.5">
+    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" ht="16.5">
+    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="16.5">
+    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" ht="16.5">
+    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" ht="16.5">
+    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" ht="16.5">
+    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" ht="16.5">
+    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" ht="16.5">
+    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="16.5">
+    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="16.5">
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F88" s="7"/>
     </row>
@@ -9362,377 +10073,377 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="42">
+    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="16.5">
-      <c r="A2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="16.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="16.5">
-      <c r="A8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="16.5">
-      <c r="A9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" ht="16.5">
-      <c r="A10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" ht="16.5">
-      <c r="A11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" ht="16.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -9754,12 +10465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="1480" yWindow="540" windowWidth="35260" windowHeight="18500"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="380">
   <si>
     <t>名称</t>
   </si>
@@ -5667,6 +5667,10 @@
     <rPh sb="0" eb="1">
       <t>huang'jin</t>
     </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uexTestinCrash </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5924,7 +5928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5984,7 +5988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6087,12 +6091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6132,20 +6130,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6154,9 +6143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6174,14 +6160,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6213,43 +6208,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6258,19 +6226,43 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6584,58 +6576,58 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="45" customWidth="1"/>
     <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
     <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" style="48" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -6648,13 +6640,13 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
@@ -6664,163 +6656,167 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A4" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" ht="182" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="77"/>
+    </row>
+    <row r="5" spans="1:10" s="78" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+      <c r="A5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" ht="342" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:10" s="78" customFormat="1" ht="342" x14ac:dyDescent="0.15">
+      <c r="A6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="53" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="79" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="406" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="78" customFormat="1" ht="406" x14ac:dyDescent="0.15">
+      <c r="A10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="52"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -6830,32 +6826,33 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:10" s="78" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>315</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -6872,71 +6869,71 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:10" s="78" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="154" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="77"/>
+    </row>
+    <row r="15" spans="1:10" s="78" customFormat="1" ht="154" x14ac:dyDescent="0.15">
+      <c r="A15" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="77"/>
+    </row>
+    <row r="16" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A16" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="61" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="82" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6944,7 +6941,7 @@
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>316</v>
       </c>
       <c r="C17" s="32" t="s">
@@ -6965,7 +6962,7 @@
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>352</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -6986,66 +6983,67 @@
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A20" s="77" t="s">
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A20" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="62" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="84" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A21" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" spans="1:10" ht="280" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>319</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -7062,75 +7060,77 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="112" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:10" s="78" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A23" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="81" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" ht="238" x14ac:dyDescent="0.15">
-      <c r="A24" s="77" t="s">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="77"/>
+    </row>
+    <row r="24" spans="1:10" s="78" customFormat="1" ht="238" x14ac:dyDescent="0.15">
+      <c r="A24" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="77"/>
+    </row>
+    <row r="25" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A25" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="52"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:10" ht="409" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -7139,14 +7139,14 @@
       <c r="D26" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="49" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7154,21 +7154,21 @@
       <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="41"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="44" t="s">
         <v>290</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -7184,36 +7184,37 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="50" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:10" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A29" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="44" t="s">
         <v>292</v>
       </c>
       <c r="C30" s="32" t="s">
@@ -7230,56 +7231,57 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="168" x14ac:dyDescent="0.15">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:10" s="78" customFormat="1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A31" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="61" t="s">
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="82" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:10" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="77"/>
     </row>
     <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="44" t="s">
         <v>295</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -7295,15 +7297,15 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="55" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.15">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="44" t="s">
         <v>296</v>
       </c>
       <c r="C34" s="32" t="s">
@@ -7319,7 +7321,7 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="51" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7327,21 +7329,21 @@
       <c r="A35" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="41"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="61" t="s">
         <v>344</v>
       </c>
       <c r="C36" s="32" t="s">
@@ -7359,10 +7361,10 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="44" t="s">
         <v>297</v>
       </c>
       <c r="C37" s="32" t="s">
@@ -7380,10 +7382,10 @@
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:10" ht="182" x14ac:dyDescent="0.15">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="44" t="s">
         <v>298</v>
       </c>
       <c r="C38" s="32" t="s">
@@ -7400,35 +7402,35 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:10" s="79" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A39" s="79" t="s">
+    <row r="39" spans="1:10" s="78" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A39" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="83" t="s">
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="86" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="44" t="s">
         <v>300</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -7446,10 +7448,10 @@
       <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="44" t="s">
         <v>301</v>
       </c>
       <c r="C41" s="32" t="s">
@@ -7467,10 +7469,10 @@
       <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="44" t="s">
         <v>302</v>
       </c>
       <c r="C42" s="32" t="s">
@@ -7487,23 +7489,23 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="90" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A43" s="85" t="s">
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A43" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="88" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="91" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="87" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7511,21 +7513,21 @@
       <c r="A44" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="36"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="41"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="54" t="s">
         <v>311</v>
       </c>
       <c r="C45" s="32" t="s">
@@ -7543,10 +7545,10 @@
       <c r="I45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="44" t="s">
         <v>321</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -7564,10 +7566,10 @@
       <c r="I46" s="32"/>
     </row>
     <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="44" t="s">
         <v>322</v>
       </c>
       <c r="C47" s="32" t="s">
@@ -7583,15 +7585,15 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="61" t="s">
+      <c r="J47" s="55" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="44" t="s">
         <v>323</v>
       </c>
       <c r="C48" s="32" t="s">
@@ -7609,10 +7611,10 @@
       <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="44" t="s">
         <v>324</v>
       </c>
       <c r="C49" s="32" t="s">
@@ -7628,15 +7630,15 @@
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
-      <c r="J49" s="56" t="s">
+      <c r="J49" s="51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="44" t="s">
         <v>326</v>
       </c>
       <c r="C50" s="32" t="s">
@@ -7652,39 +7654,39 @@
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="61" t="s">
+      <c r="J50" s="55" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="90" customFormat="1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A51" s="92" t="s">
+    <row r="51" spans="1:10" s="31" customFormat="1" ht="140" x14ac:dyDescent="0.15">
+      <c r="A51" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="D51" s="87" t="s">
+      <c r="D51" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="93" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="89" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="58" t="s">
         <v>329</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -7694,7 +7696,7 @@
         <v>41</v>
       </c>
       <c r="F52" s="32"/>
-      <c r="J52" s="62" t="s">
+      <c r="J52" s="56" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7702,15 +7704,15 @@
       <c r="A53" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="27"/>
       <c r="E53" s="28"/>
-      <c r="F53" s="36"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="41"/>
+      <c r="J53" s="39"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
@@ -7764,7 +7766,7 @@
       <c r="A57" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="32" t="s">
         <v>374</v>
       </c>
@@ -7819,7 +7821,7 @@
       <c r="A60" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="32" t="s">
         <v>354</v>
       </c>
@@ -7835,10 +7837,10 @@
       <c r="I60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="32" t="s">
         <v>354</v>
       </c>
@@ -7857,28 +7859,28 @@
       <c r="A62" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
-      <c r="F62" s="36"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="41"/>
+      <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="32" t="s">
         <v>354</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F63" s="32"/>
@@ -7893,7 +7895,7 @@
       <c r="C64" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F64" s="32"/>
@@ -7902,14 +7904,14 @@
       <c r="A65" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="32" t="s">
         <v>361</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F65" s="32"/>
@@ -7927,7 +7929,7 @@
       <c r="D66" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F66" s="32"/>
@@ -7945,7 +7947,7 @@
       <c r="D67" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F67" s="32"/>
@@ -7957,14 +7959,14 @@
       <c r="A68" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="48"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="32" t="s">
         <v>354</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F68" s="32"/>
@@ -7980,7 +7982,7 @@
         <v>376</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F69" s="32"/>
@@ -7992,11 +7994,11 @@
       <c r="A70" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="36"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="27"/>
       <c r="E70" s="28"/>
-      <c r="F70" s="36"/>
+      <c r="F70" s="34"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
@@ -8011,7 +8013,7 @@
       <c r="D71" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8025,7 +8027,7 @@
       <c r="D72" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8039,7 +8041,7 @@
       <c r="D73" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8054,19 +8056,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90" t="s">
+    <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="94"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="89"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="91"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -8105,7 +8107,7 @@
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="47"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="32" t="s">
         <v>354</v>
       </c>
@@ -8117,14 +8119,14 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
-      <c r="J79" s="52"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="47"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="32" t="s">
         <v>354</v>
       </c>
@@ -8136,18 +8138,18 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="52"/>
+      <c r="J80" s="48"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A81" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="36"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="36"/>
+      <c r="F81" s="34"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
@@ -8165,8 +8167,8 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>85</v>
+      <c r="A83" s="40" t="s">
+        <v>379</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>354</v>
@@ -8195,7 +8197,7 @@
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="53" t="s">
         <v>354</v>
       </c>
       <c r="D86" s="32" t="s">
@@ -8206,18 +8208,18 @@
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="53" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="40" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="53" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8225,10 +8227,10 @@
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="53" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8236,7 +8238,7 @@
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="53" t="s">
         <v>354</v>
       </c>
       <c r="D90" s="32" t="s">
@@ -8247,7 +8249,7 @@
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C91" s="53" t="s">
         <v>354</v>
       </c>
       <c r="D91" s="32" t="s">
@@ -8258,7 +8260,7 @@
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C92" s="53" t="s">
         <v>354</v>
       </c>
       <c r="D92" s="32" t="s">
@@ -8269,10 +8271,10 @@
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="53" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8280,18 +8282,18 @@
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="53" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="53" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8333,41 +8335,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="74" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -8380,7 +8382,7 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">

--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/appcan/appcan-test-report/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="540" windowWidth="35260" windowHeight="18500"/>
+    <workbookView xWindow="1485" yWindow="540" windowWidth="18015" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="386">
   <si>
     <t>名称</t>
   </si>
@@ -884,6 +879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,6 +891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -905,6 +902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -916,6 +914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,6 +925,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -937,6 +937,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,6 +948,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -958,6 +960,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -968,6 +971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -979,6 +983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -989,6 +994,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1000,6 +1006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1010,6 +1017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1021,6 +1029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1031,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1042,6 +1052,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,6 +1063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,6 +1074,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,6 +1085,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,6 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1093,6 +1108,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,6 +1120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,6 +1131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1125,6 +1143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1135,6 +1154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1201,6 +1221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1211,6 +1232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1222,6 +1244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1232,6 +1255,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,6 +1267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1253,6 +1278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,6 +1296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,6 +1307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,6 +1319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1301,6 +1330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1312,6 +1342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1322,6 +1353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,6 +1364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,6 +1375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1353,6 +1387,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1363,6 +1398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1374,6 +1410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1384,6 +1421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1394,6 +1432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1404,6 +1443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1415,6 +1455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,6 +1466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1435,6 +1477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1445,6 +1488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,6 +1500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,6 +1511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1477,6 +1523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1487,6 +1534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1498,6 +1546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,6 +1557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,6 +1568,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1528,6 +1579,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1538,6 +1590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,6 +1601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,6 +1613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1569,6 +1624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,6 +1635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1589,6 +1646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1606,6 +1664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1616,6 +1675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1627,6 +1687,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1637,6 +1698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1648,6 +1710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1658,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,6 +1733,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1679,6 +1744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1690,6 +1756,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1700,6 +1767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1717,6 +1785,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1727,6 +1796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1738,6 +1808,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1748,6 +1819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,6 +1831,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1769,6 +1842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1780,6 +1854,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1790,6 +1865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1801,6 +1877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1811,6 +1888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1821,6 +1899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,6 +1928,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,6 +1939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1870,6 +1951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,6 +1962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1891,6 +1974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1901,6 +1985,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1912,6 +1997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1922,6 +2008,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1946,6 +2033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1970,6 +2058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1981,6 +2070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1991,6 +2081,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2002,6 +2093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2012,6 +2104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2022,6 +2115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2032,6 +2126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2042,6 +2137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2052,6 +2148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2062,6 +2159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2173,6 +2271,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2184,6 +2283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2194,6 +2294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2211,6 +2312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2222,6 +2324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2232,6 +2335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2243,6 +2347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2253,6 +2358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2270,6 +2376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,6 +2388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2291,6 +2399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2302,6 +2411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2312,6 +2422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2323,6 +2434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2333,6 +2445,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2343,6 +2456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2353,6 +2467,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2364,6 +2479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2374,6 +2490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2384,6 +2501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2394,6 +2512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2405,6 +2524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2415,6 +2535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2426,6 +2547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2436,6 +2558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2447,6 +2570,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2457,6 +2581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2468,6 +2593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2478,6 +2604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2489,6 +2616,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2499,6 +2627,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2510,6 +2639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2520,6 +2650,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2530,6 +2661,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2540,6 +2672,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2557,6 +2690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2567,6 +2701,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2578,6 +2713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2588,6 +2724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2598,6 +2735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2608,6 +2746,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2625,6 +2764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2665,6 +2805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2675,6 +2816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2686,6 +2828,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2696,6 +2839,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2707,6 +2851,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2717,6 +2862,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2728,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2738,6 +2885,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2749,6 +2897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2759,6 +2908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2770,6 +2920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2780,6 +2931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2791,6 +2943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2801,6 +2954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2818,6 +2972,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2828,6 +2983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2839,6 +2995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2849,6 +3006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2860,6 +3018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2870,6 +3029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2881,6 +3041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2891,6 +3052,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2902,6 +3064,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2912,6 +3075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2923,6 +3087,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2933,6 +3098,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2944,6 +3110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2954,6 +3121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2964,6 +3132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2974,6 +3143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2985,6 +3155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2995,6 +3166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3005,6 +3177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3015,6 +3188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3026,6 +3200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3036,6 +3211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3047,6 +3223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3057,6 +3234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3074,6 +3252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3084,6 +3263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3094,6 +3274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3104,6 +3285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3115,6 +3297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3125,6 +3308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3135,6 +3319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3145,6 +3330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3156,6 +3342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,6 +3353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3177,6 +3365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,6 +3376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3197,6 +3387,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3207,6 +3398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3218,6 +3410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3228,6 +3421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3239,6 +3433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3249,6 +3444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3260,6 +3456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3270,6 +3467,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,6 +3485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3298,6 +3497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3308,6 +3508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3330,6 +3531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3352,6 +3554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3363,6 +3566,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3373,6 +3577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3383,6 +3588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3393,6 +3599,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3404,6 +3611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3414,6 +3622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3431,6 +3640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3441,6 +3651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3458,6 +3669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3468,6 +3680,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3478,6 +3691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3488,6 +3702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3505,6 +3720,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3515,6 +3731,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3526,6 +3743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3536,6 +3754,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3550,15 +3769,6 @@
   <si>
     <t>openBrowser回调方法无参数是否符合规范
 更新历史错误</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档需重写，保持格式统一</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档未进行4.0修改
-id参数未修改</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3592,7 +3802,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3634,7 +3845,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3685,6 +3897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3706,6 +3919,34 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">openPicker 打开照片选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openBrowser 打开图片浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCropper 打开图片裁剪器
+</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -3714,6 +3955,1844 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>saveToPhotoAlbum 储存到相册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearOutputImages 清除由本插件导出的所有图片文件
+setIpadPopEnable 设置iPad是否启用pop窗口</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openDatePicker 打开日期选择器
+openTimePicker 打开时间选择器
+openInputDialog 打开输入对话框
+openDatePickerWithoutDay 打开只有年月的日期选择器
+openDatePickerWithConfig 打开带配置的日期选择器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onError 参数传递错误时的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopPush  停止推送服务
+resumePush  恢复推送服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAlias   设置别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setTags  设置标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAliasAndTags  同时设置别名与标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getRegistrationID 取得应用程序对应的 RegistrationID
+clearAllNotifications 清除所有通知
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearNotificationById  根据Id清除某条通知
+getConnectionState 获取推送连接状态
+addLocalNotification  添加一个本地通知
+removeLocalNotification 移除一个本地通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clearLocalNotifications  移除所有的通知
+setBadgeNumber  设置badge值
+disableLocalNotificationAlertView  禁止前台本地通知提示框
+onReceiveMessage 收到了自定义消息
+onReceiveNotification 收到了通知
+onReceiveNotificationOpen  用户点击了通知
+onReceiveConnectionChange  连接状态变化
+onReceiveRegistration  应用程序注册监听</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开视频播放界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openPlayer 打开视频播放器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+closePlayer 关闭视频播放器
+record 打开视频录制界面
+onPlayerClose 播放器被关闭时的监听方法
+onPlayerStatusChange 播放器状态改变的监听方法
+onRecordFinish 录制结束的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open 打开loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+openCircleLoading </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开带有圆形加载动画的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loading view
+close 关闭Loading</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭搜索框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clearHistory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">清空搜索历史
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onSearch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户点击搜索之后的回调</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 创建带安全键盘的输入框
+close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">销毁带安全键盘的输入框
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">getData </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取输入框中的内容</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭分段选择器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentItem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前选中项
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onItemClick item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onDataChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据发生变化的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openSlidePager 创建滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closeSlidePager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移除滑动页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentPage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设置当前页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onPageClick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">点击页面的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onChangeColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面切换背景色的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open 打开视频播放器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">播放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pause </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">暂停
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear 清空缓存(仅支持iOS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getCurrentTime 获取当前播放的时间
+seekTo 跳转到时间播放
+onStateChanged　播放器状态的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onNetworkStateChanged　切换网络的监听方法(仅支持iOS)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持iOS不应出现在方法简述上，应在平台支持中区分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDynamicShortcutItems 设置动态shortcut
+onLoadByShortcutClickEvent 程序被点击3DTouch Shortcut调起的监听方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uexLocation </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registerApp 用户授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weiXinLogin 微信授权登录
+getWeiXinLoginAccessToken 获取微信登录accessToken
+getWeiXinLoginCheckAccessToken 检验accessToken是否有效
+getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
+getWeiXinLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppInstalled 检查微信是否已安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isWXAppSupportApi 判断API是否被支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getApiVersion 获取SDK的版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openWXApp 打开微信
+shareTextContent 分享文本
+shareImageContent 分享图片
+shareLinkContent 分享Link
+isSupportPay 判断是否支持支付功能
+getPrepayId 生成预支付订单
+startPay 支付
+login 登录
+getLoginAccessToken 获取access_token
+getLoginRefreshAccessToken 获取刷新access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getLoginUnionID 获取用户个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+setCallbackWindowName 设置接收回调方法的窗口名称</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexScanner</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexImage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexControl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexVideo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexAudio</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexBackground</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexButton</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexCalendarView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexChatKeyboard</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexInputTextFieldView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexScrollPicture</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">createNewScrollPicture   新建一个轮播图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">startAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stopAutoScroll   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">停止图片轮播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">removeView   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view
+onPicItemClick 轮播图点击事件</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexGaodeNavi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexGestureUnlock</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexPDFReader</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexActionSheet</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexAreaPickerView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexCreditCardRec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDataAnalysis</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open  打开地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+close  关闭地图
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMapType 设置地图类型
+setTrafficEnabled  开启或关闭实时路况
+setCenter  设置地图中心点
+setZoomLevel  设置地图缩放级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+zoomIn  放大一个地图级别
+zoomOut  缩小一个地图级别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rotate  旋转地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlook  倾斜地图
+setZoomEnable  开启或关闭手势缩放
+setRotateEnable 开启或关闭手势旋转及手势倾斜
+setCompassEnable  开启或关闭指南针
+setScrollEnable  开启或关闭手势移动
+addMarkersOverlay  添加标注
+updateMarkerOverLay  修改标注
+addPolylineOverlay  添加折线覆盖物
+addArcOverlay  添加弧形覆盖物
+addCircleOverlay  添加圆形覆盖物
+addPolygonOverlay  添加多边形覆盖物
+addGroundOverlay  添加图片覆盖物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+removeMarkersOverlays  移除标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poiSearch  兴趣点搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geocode  地理编码,通过地址获得经纬度信息
+reverseGeocode  反地理编码,将经纬度转换为地址信息
+getCurrentLocation  获取当前位置
+startLocation  开始连续定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+stopLocation  停止连续定位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setMyLocationEnable  显示或隐藏我的位置
+setUserTrackingMode  设置连续定位模式
+setScaleVisible  设置地图是否显示比例尺
+setMyLocationButtonVisible设 置是否显示回到我的位置按钮
+setZoomVisible  设置是否显示放大缩小按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+clear  清除地图上所有的标注和覆盖物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setCustomButton 设置自定义按钮
+deleteCustomButton 删除自定义按钮
+showCustomButtons 显示自定义按钮
+hideCustomButtons 隐藏自定义按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onMapLoadedListener 地图加载完成的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerClickListener 点击标注的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onMarkerBubbleClickListener 点击气泡的监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onReceiveLocation 位置变化的监听方法
+onMapClickListener 点击地图的监听方法
+onMapLongClickListener 长按地图的监听方法
+onCustomButtonClick 自定义按钮被点击的监听方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>download 开始下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onDownload 下载监听方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pause 暂停下载
+restart 继续下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getAvailableCityList 获取可下载离线地图的城市列表
+getAvailableProvinceList 获取可下载离线地图的省和城市列表
+getDownloadList 获取已下载列表
+getDownloadingList 获取正在下载列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isUpdate 已下载的离线地图数据是否需要更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete  删除已下载或者正在下载数据</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openLocation 打开定位功能,监听并返回设备所在地经纬度信息
+closeLocation 关闭定位功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getAddress 获取经纬度对应的具体地址信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+convertLocation 转换坐标的方法
+onChange 设备位置变化的监听方法</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨广</t>
+    <rPh sb="0" eb="1">
+      <t>yang'g</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'fe</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'fei</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董继菲</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>y'f</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨广</t>
+    <rPh sb="0" eb="1">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>y'fei</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long'tao</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨广</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶飞</t>
+    <rPh sb="0" eb="1">
+      <t>ye'f</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kanl'gi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>knag</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董继菲</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lon'tao</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <rPh sb="0" eb="1">
+      <t>fei'qi</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>long't</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘康立</t>
+    <rPh sb="0" eb="1">
+      <t>liu'kang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄢龙涛</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>log'tao</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄锦</t>
+    <rPh sb="0" eb="1">
+      <t>huang'jin</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uexTestinCrash </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pen接口加error参数</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>open 打开地图</t>
     </r>
     <r>
@@ -3721,6 +5800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3776,6 +5856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3801,6 +5882,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3828,6 +5910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3861,6 +5944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3873,1812 +5957,103 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">openPicker 打开照片选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openBrowser 打开图片浏览器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-openCropper 打开图片裁剪器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>saveToPhotoAlbum 储存到相册</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clearOutputImages 清除由本插件导出的所有图片文件
-setIpadPopEnable 设置iPad是否启用pop窗口</t>
-    </r>
+    <t>标注相关加上id
+搜索相关接口回调加error
+地理编码和反地理编码回调接口加error</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openDatePicker 打开日期选择器
-openTimePicker 打开时间选择器
-openInputDialog 打开输入对话框
-openDatePickerWithoutDay 打开只有年月的日期选择器
-openDatePickerWithConfig 打开带配置的日期选择器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onError 参数传递错误时的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> init  初始化(已废弃,插件现在自动初始化)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopPush  停止推送服务
-resumePush  恢复推送服务
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAlias   设置别名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setTags  设置标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setAliasAndTags  同时设置别名与标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getRegistrationID 取得应用程序对应的 RegistrationID
-clearAllNotifications 清除所有通知
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clearNotificationById  根据Id清除某条通知
-getConnectionState 获取推送连接状态
-addLocalNotification  添加一个本地通知
-removeLocalNotification 移除一个本地通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clearLocalNotifications  移除所有的通知
-setBadgeNumber  设置badge值
-disableLocalNotificationAlertView  禁止前台本地通知提示框
-onReceiveMessage 收到了自定义消息
-onReceiveNotification 收到了通知
-onReceiveNotificationOpen  用户点击了通知
-onReceiveConnectionChange  连接状态变化
-onReceiveRegistration  应用程序注册监听</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开视频播放界面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openPlayer 打开视频播放器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-closePlayer 关闭视频播放器
-record 打开视频录制界面
-onPlayerClose 播放器被关闭时的监听方法
-onPlayerStatusChange 播放器状态改变的监听方法
-onRecordFinish 录制结束的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onExportWithProgress 视频压缩进度的监听方法(仅iOS)</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open 打开loading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-openCircleLoading </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打开带有圆形加载动画的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loading view
-close 关闭Loading</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open 打开搜索框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭搜索框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clearHistory </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">清空搜索历史
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onItemClick item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onSearch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户点击搜索之后的回调</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open 创建带安全键盘的输入框
-close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">销毁带安全键盘的输入框
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">getData </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取输入框中的内容</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open 打开分段选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭分段选择器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCurrentItem </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置当前选中项
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onItemClick item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onDataChange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据发生变化的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>未进行4.0修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">openSlidePager 创建滑动页面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>closeSlidePager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">移除滑动页面
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">setCurrentPage </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">设置当前页
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onPageClick </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">点击页面的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">onChangeColor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面切换背景色的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open 打开视频播放器
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">play </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">播放
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pause </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">暂停
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">close </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">关闭
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clear 清空缓存(仅支持iOS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getCurrentTime 获取当前播放的时间
-seekTo 跳转到时间播放
-onStateChanged　播放器状态的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onNetworkStateChanged　切换网络的监听方法(仅支持iOS)</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅支持iOS不应出现在方法简述上，应在平台支持中区分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>setDynamicShortcutItems 设置动态shortcut
-onLoadByShortcutClickEvent 程序被点击3DTouch Shortcut调起的监听方法</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">文档更新历史错误
-</t>
+      <t>标注相关加上id
+搜索相关接口回调加error
+地理编码和反地理编码回调接口加error
+离线地图相关接口有回调的全部加</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>文档中有type唯一标识符参数</t>
-    </r>
+      <t>error</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nit接口删掉
+设置别名和标签相关接口回调函数加error
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档需重写
+回调加error</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">uexLocation </t>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.0修改</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>registerApp 用户授权</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>weiXinLogin 微信授权登录
-getWeiXinLoginAccessToken 获取微信登录accessToken
-getWeiXinLoginCheckAccessToken 检验accessToken是否有效
-getWeiXinLoginRefreshAccessToken 获取微信登录的刷新或续期access_token
-getWeiXinLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppInstalled 检查微信是否已安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getWXAppInstallUrl 获取微信itunes的安装地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isWXAppSupportApi 判断API是否被支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getApiVersion 获取SDK的版本号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openWXApp 打开微信
-shareTextContent 分享文本
-shareImageContent 分享图片
-shareLinkContent 分享Link
-isSupportPay 判断是否支持支付功能
-getPrepayId 生成预支付订单
-startPay 支付
-login 登录
-getLoginAccessToken 获取access_token
-getLoginRefreshAccessToken 获取刷新access_token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginCheckAccessToken 检验access_token是否有效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getLoginUnionID 获取用户个人信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-setCallbackWindowName 设置接收回调方法的窗口名称</t>
+      <t>回调加e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rror</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>uexScanner</t>
+    <t>iOS重写</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>uexImage</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexControl</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexVideo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexAudio</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexBackground</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexButton</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexCalendarView</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexChatKeyboard</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexInputTextFieldView</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexScrollPicture</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">createNewScrollPicture   新建一个轮播图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">startAutoScroll   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">开始图片轮播
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">stopAutoScroll   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">停止图片轮播
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">removeView   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>view
-onPicItemClick 轮播图点击事件</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexGaodeNavi</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexGestureUnlock</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexPDFReader</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexActionSheet</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexAreaPickerView</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexCreditCardRec</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>uexDataAnalysis</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open  打开地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-close  关闭地图
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setMapType 设置地图类型
-setTrafficEnabled  开启或关闭实时路况
-setCenter  设置地图中心点
-setZoomLevel  设置地图缩放级别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-zoomIn  放大一个地图级别
-zoomOut  缩小一个地图级别
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rotate  旋转地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>overlook  倾斜地图
-setZoomEnable  开启或关闭手势缩放
-setRotateEnable 开启或关闭手势旋转及手势倾斜
-setCompassEnable  开启或关闭指南针
-setScrollEnable  开启或关闭手势移动
-addMarkersOverlay  添加标注
-updateMarkerOverLay  修改标注
-addPolylineOverlay  添加折线覆盖物
-addArcOverlay  添加弧形覆盖物
-addCircleOverlay  添加圆形覆盖物
-addPolygonOverlay  添加多边形覆盖物
-addGroundOverlay  添加图片覆盖物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-removeMarkersOverlays  移除标注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>poiSearch  兴趣点搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>geocode  地理编码,通过地址获得经纬度信息
-reverseGeocode  反地理编码,将经纬度转换为地址信息
-getCurrentLocation  获取当前位置
-startLocation  开始连续定位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-stopLocation  停止连续定位
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setMyLocationEnable  显示或隐藏我的位置
-setUserTrackingMode  设置连续定位模式
-setScaleVisible  设置地图是否显示比例尺
-setMyLocationButtonVisible设 置是否显示回到我的位置按钮
-setZoomVisible  设置是否显示放大缩小按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-clear  清除地图上所有的标注和覆盖物
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setCustomButton 设置自定义按钮
-deleteCustomButton 删除自定义按钮
-showCustomButtons 显示自定义按钮
-hideCustomButtons 隐藏自定义按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onMapLoadedListener 地图加载完成的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onMarkerClickListener 点击标注的监听方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onMarkerBubbleClickListener 点击气泡的监听方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onReceiveLocation 位置变化的监听方法
-onMapClickListener 点击地图的监听方法
-onMapLongClickListener 长按地图的监听方法
-onCustomButtonClick 自定义按钮被点击的监听方法
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>download 开始下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onDownload 下载监听方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pause 暂停下载
-restart 继续下载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getAvailableCityList 获取可下载离线地图的城市列表
-getAvailableProvinceList 获取可下载离线地图的省和城市列表
-getDownloadList 获取已下载列表
-getDownloadingList 获取正在下载列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isUpdate 已下载的离线地图数据是否需要更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delete  删除已下载或者正在下载数据</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">openLocation 打开定位功能,监听并返回设备所在地经纬度信息
-closeLocation 关闭定位功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getAddress 获取经纬度对应的具体地址信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-convertLocation 转换坐标的方法
-onChange 设备位置变化的监听方法</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨广</t>
-    <rPh sb="0" eb="1">
-      <t>yang'g</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <rPh sb="0" eb="1">
-      <t>ye'fe</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <rPh sb="0" eb="1">
-      <t>ye'fei</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>董继菲</t>
-    <rPh sb="0" eb="1">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <rPh sb="0" eb="1">
-      <t>y'f</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨广</t>
-    <rPh sb="0" eb="1">
-      <t>yang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>guang</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <rPh sb="0" eb="1">
-      <t>y'fei</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kang'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄢龙涛</t>
-    <rPh sb="0" eb="1">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>long'tao</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨广</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶飞</t>
-    <rPh sb="0" eb="1">
-      <t>ye'f</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kanl'gi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>knag</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>董继菲</t>
-    <rPh sb="0" eb="1">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji'xu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄢龙涛</t>
-    <rPh sb="0" eb="1">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lon'tao</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄢龙涛</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
-    <rPh sb="0" eb="1">
-      <t>fei'qi</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄢龙涛</t>
-    <rPh sb="0" eb="1">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>long't</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康立</t>
-    <rPh sb="0" eb="1">
-      <t>liu'kang'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄢龙涛</t>
-    <rPh sb="0" eb="1">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>log'tao</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄锦</t>
-    <rPh sb="0" eb="1">
-      <t>huang'jin</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">uexTestinCrash </t>
+    <t>只显示图标</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺文档</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5691,13 +6066,15 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5709,14 +6086,16 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5731,19 +6110,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5893,6 +6275,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5988,7 +6372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6136,9 +6520,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6178,35 +6559,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -6264,6 +6618,45 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6572,62 +6965,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" style="45" customWidth="1"/>
-    <col min="3" max="4" width="7.83203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="45" customWidth="1"/>
+    <col min="3" max="4" width="7.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="84"/>
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="69"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="70"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -6640,9 +7033,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
@@ -6656,163 +7049,163 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="1:10" s="68" customFormat="1" ht="67.5">
+      <c r="A4" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" s="68" customFormat="1" ht="175.5">
+      <c r="A5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" s="68" customFormat="1" ht="324">
+      <c r="A6" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="68" customFormat="1" ht="67.5">
+      <c r="A7" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="E7" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" s="68" customFormat="1" ht="81">
+      <c r="A8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D8" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" s="78" customFormat="1" ht="182" x14ac:dyDescent="0.15">
-      <c r="A5" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="75" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" s="68" customFormat="1" ht="81">
+      <c r="A9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" s="68" customFormat="1" ht="391.5">
+      <c r="A10" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" s="78" customFormat="1" ht="342" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="79" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A8" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" s="78" customFormat="1" ht="406" x14ac:dyDescent="0.15">
-      <c r="A10" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -6826,40 +7219,40 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="78" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:10" s="68" customFormat="1" ht="27">
+      <c r="A12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E12" s="76" t="s">
+      <c r="B12" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
-        <v>333</v>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" ht="27">
+      <c r="A13" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>20</v>
@@ -6868,87 +7261,90 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" s="78" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A14" s="78" t="s">
+      <c r="J13" s="62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="68" customFormat="1" ht="54">
+      <c r="A14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="76" t="s">
+      <c r="C14" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="1:10" s="78" customFormat="1" ht="154" x14ac:dyDescent="0.15">
-      <c r="A15" s="78" t="s">
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" s="68" customFormat="1" ht="148.5">
+      <c r="A15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C15" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E15" s="76" t="s">
+      <c r="C15" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77"/>
-    </row>
-    <row r="16" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A16" s="78" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" s="68" customFormat="1" ht="81">
+      <c r="A16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" s="76" t="s">
+      <c r="C16" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="82" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="72" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="409.5">
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>316</v>
+      <c r="B17" s="92" t="s">
+        <v>376</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>20</v>
@@ -6957,19 +7353,22 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="J17" s="93" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="409.5">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>352</v>
+      <c r="B18" s="92" t="s">
+        <v>347</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>20</v>
@@ -6978,8 +7377,11 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J18" s="93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
@@ -6993,64 +7395,64 @@
       <c r="I19" s="27"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A20" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="76" t="s">
+    <row r="20" spans="1:10" s="68" customFormat="1" ht="81">
+      <c r="A20" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="84" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="74" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="78" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21" s="76" t="s">
+    <row r="21" spans="1:10" s="68" customFormat="1" ht="81">
+      <c r="A21" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="77"/>
-    </row>
-    <row r="22" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="409.5">
       <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>319</v>
+      <c r="B22" s="92" t="s">
+        <v>316</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>20</v>
@@ -7059,74 +7461,77 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" s="78" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="76" t="s">
+      <c r="J22" s="93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="68" customFormat="1" ht="108">
+      <c r="A23" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="77"/>
-    </row>
-    <row r="24" spans="1:10" s="78" customFormat="1" ht="238" x14ac:dyDescent="0.15">
-      <c r="A24" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="B24" s="81" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" s="68" customFormat="1" ht="229.5">
+      <c r="A24" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="77"/>
-    </row>
-    <row r="25" spans="1:10" s="78" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A25" s="78" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="1:10" s="68" customFormat="1" ht="67.5">
+      <c r="A25" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E25" s="76" t="s">
+      <c r="C25" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="77"/>
-    </row>
-    <row r="26" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" ht="409.5">
       <c r="A26" s="31" t="s">
         <v>32</v>
       </c>
@@ -7134,10 +7539,10 @@
         <v>289</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>20</v>
@@ -7146,11 +7551,11 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J26" s="94" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
@@ -7164,18 +7569,18 @@
       <c r="I27" s="27"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="108">
       <c r="A28" s="47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>290</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>11</v>
@@ -7184,44 +7589,42 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="81" t="s">
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" s="68" customFormat="1" ht="40.5">
+      <c r="A29" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="E29" s="76" t="s">
+      <c r="C29" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="77"/>
-    </row>
-    <row r="30" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="67"/>
+    </row>
+    <row r="30" spans="1:10" ht="54">
       <c r="A30" s="40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>292</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>11</v>
@@ -7231,64 +7634,64 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="78" customFormat="1" ht="168" x14ac:dyDescent="0.15">
-      <c r="A31" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="B31" s="81" t="s">
+    <row r="31" spans="1:10" s="68" customFormat="1" ht="162">
+      <c r="A31" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E31" s="76" t="s">
+      <c r="C31" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="82" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A32" s="78" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="68" customFormat="1" ht="40.5">
+      <c r="A32" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E32" s="76" t="s">
+      <c r="C32" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="77"/>
-    </row>
-    <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>295</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>11</v>
@@ -7297,11 +7700,11 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+      <c r="J33" s="54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="202.5">
       <c r="A34" s="47" t="s">
         <v>38</v>
       </c>
@@ -7309,10 +7712,10 @@
         <v>296</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>11</v>
@@ -7321,11 +7724,11 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="51" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J34" s="50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="25" t="s">
         <v>39</v>
       </c>
@@ -7339,18 +7742,18 @@
       <c r="I35" s="27"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="67.5">
       <c r="A36" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>344</v>
+        <v>338</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>339</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>41</v>
@@ -7360,7 +7763,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="162">
       <c r="A37" s="47" t="s">
         <v>42</v>
       </c>
@@ -7368,10 +7771,10 @@
         <v>297</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>41</v>
@@ -7380,19 +7783,22 @@
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" ht="182" x14ac:dyDescent="0.15">
+      <c r="J37" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="297">
       <c r="A38" s="47" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>298</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>41</v>
@@ -7401,43 +7807,46 @@
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" s="78" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A39" s="78" t="s">
+      <c r="J38" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="68" customFormat="1" ht="108">
+      <c r="A39" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D39" s="75" t="s">
+      <c r="C39" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="D39" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="86" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="94.5">
       <c r="A40" s="40" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>300</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>41</v>
@@ -7447,18 +7856,18 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="27">
       <c r="A41" s="40" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>301</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>41</v>
@@ -7468,18 +7877,18 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="27">
       <c r="A42" s="40" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>302</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>41</v>
@@ -7489,27 +7898,27 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A43" s="60" t="s">
-        <v>349</v>
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="40.5">
+      <c r="A43" s="59" t="s">
+        <v>344</v>
       </c>
       <c r="B43" s="42" t="s">
         <v>303</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
-      <c r="J43" s="87" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J43" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18">
       <c r="A44" s="25" t="s">
         <v>47</v>
       </c>
@@ -7523,18 +7932,18 @@
       <c r="I44" s="27"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>311</v>
+    <row r="45" spans="1:10" ht="27">
+      <c r="A45" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>309</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>41</v>
@@ -7543,19 +7952,22 @@
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J45" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="40.5">
       <c r="A46" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>41</v>
@@ -7565,18 +7977,18 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="67.5">
       <c r="A47" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>41</v>
@@ -7585,22 +7997,20 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J47" s="54"/>
+    </row>
+    <row r="48" spans="1:10" ht="40.5">
       <c r="A48" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>41</v>
@@ -7610,18 +8020,18 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A49" s="57" t="s">
+    <row r="49" spans="1:10" ht="67.5">
+      <c r="A49" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>41</v>
@@ -7630,22 +8040,22 @@
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
-      <c r="J49" s="51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="J49" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="67.5">
       <c r="A50" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>41</v>
@@ -7654,53 +8064,51 @@
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="31" customFormat="1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A51" s="88" t="s">
+      <c r="J50" s="54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="31" customFormat="1" ht="135">
+      <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="E51" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="E51" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
-      <c r="J51" s="89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J51" s="79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="67.5">
       <c r="A52" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>329</v>
+      <c r="B52" s="57" t="s">
+        <v>325</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="32"/>
-      <c r="J52" s="56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="1:10" ht="18">
       <c r="A53" s="25" t="s">
         <v>55</v>
       </c>
@@ -7714,15 +8122,15 @@
       <c r="I53" s="27"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>41</v>
@@ -7731,16 +8139,19 @@
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J54" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>41</v>
@@ -7750,28 +8161,28 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="32" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>41</v>
@@ -7781,15 +8192,15 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>41</v>
@@ -7799,15 +8210,15 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>41</v>
@@ -7817,16 +8228,16 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="46"/>
       <c r="C60" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>41</v>
@@ -7835,17 +8246,20 @@
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J60" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>41</v>
@@ -7855,7 +8269,7 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="18">
       <c r="A62" s="25" t="s">
         <v>64</v>
       </c>
@@ -7869,16 +8283,16 @@
       <c r="I62" s="27"/>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="46"/>
       <c r="C63" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>41</v>
@@ -7887,29 +8301,35 @@
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J63" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F64" s="32"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J64" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="46"/>
       <c r="C65" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>41</v>
@@ -7919,15 +8339,15 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>41</v>
@@ -7937,15 +8357,15 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>41</v>
@@ -7955,16 +8375,16 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="46"/>
       <c r="C68" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E68" s="38" t="s">
         <v>41</v>
@@ -7973,13 +8393,16 @@
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J68" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="38" t="s">
@@ -7989,8 +8412,11 @@
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
-    </row>
-    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+      <c r="J69" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="18">
       <c r="A70" s="25" t="s">
         <v>72</v>
       </c>
@@ -8003,116 +8429,126 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E71" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J73" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="31" customFormat="1">
       <c r="A75" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="46"/>
-      <c r="C75" s="87"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="32"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="91"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E75" s="80"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="81"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J76" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J77" s="62"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J78" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="45"/>
       <c r="C79" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="21"/>
@@ -8122,16 +8558,16 @@
       <c r="J79" s="48"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="45"/>
       <c r="C80" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="21"/>
@@ -8141,11 +8577,11 @@
       <c r="J80" s="48"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="18">
       <c r="A81" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="52"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="34"/>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
@@ -8155,146 +8591,173 @@
       <c r="I81" s="27"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="40" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J84" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="53" t="s">
-        <v>354</v>
+      <c r="C86" s="52" t="s">
+        <v>349</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="53" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D87" s="52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="40" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J88" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C89" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J89" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="53" t="s">
-        <v>354</v>
+      <c r="C90" s="52" t="s">
+        <v>349</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J90" s="62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="53" t="s">
-        <v>354</v>
+      <c r="C91" s="52" t="s">
+        <v>349</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J91" s="62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="53" t="s">
-        <v>354</v>
+      <c r="C92" s="52" t="s">
+        <v>349</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J92" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C93" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J93" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="53" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C94" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="J94" s="62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>377</v>
+      <c r="C95" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J95" s="62" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8314,62 +8777,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="192" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
-    <col min="6" max="9" width="7.83203125" style="21" customWidth="1"/>
+    <col min="6" max="9" width="7.875" style="21" customWidth="1"/>
     <col min="10" max="10" width="29" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="84"/>
+      <c r="J1" s="90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="70"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -8382,9 +8845,9 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="72"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
         <v>98</v>
       </c>
@@ -8398,7 +8861,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="20" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>99</v>
       </c>
@@ -8418,7 +8881,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="20" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>102</v>
       </c>
@@ -8438,7 +8901,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="20" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>103</v>
       </c>
@@ -8475,7 +8938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8483,21 +8946,21 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>104</v>
       </c>
@@ -8523,7 +8986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" customFormat="1" ht="16.5">
       <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
@@ -8541,7 +9004,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" customFormat="1" ht="16.5">
       <c r="A3" s="17" t="s">
         <v>111</v>
       </c>
@@ -8559,7 +9022,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" customFormat="1" ht="16.5">
       <c r="A4" s="17" t="s">
         <v>111</v>
       </c>
@@ -8577,7 +9040,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" customFormat="1" ht="16.5">
       <c r="A5" s="17" t="s">
         <v>111</v>
       </c>
@@ -8595,7 +9058,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
@@ -8614,7 +9077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" customFormat="1" ht="16.5">
       <c r="A7" s="19" t="s">
         <v>111</v>
       </c>
@@ -8632,7 +9095,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" customFormat="1" ht="16.5">
       <c r="A8" s="19" t="s">
         <v>111</v>
       </c>
@@ -8650,7 +9113,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" customFormat="1" ht="16.5">
       <c r="A9" s="19" t="s">
         <v>125</v>
       </c>
@@ -8668,7 +9131,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" customFormat="1" ht="16.5">
       <c r="A10" s="19" t="s">
         <v>125</v>
       </c>
@@ -8687,7 +9150,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" customFormat="1" ht="16.5">
       <c r="A11" s="19" t="s">
         <v>125</v>
       </c>
@@ -8706,7 +9169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" customFormat="1" ht="16.5">
       <c r="A12" s="19" t="s">
         <v>125</v>
       </c>
@@ -8724,7 +9187,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" customFormat="1" ht="16.5">
       <c r="A13" s="19" t="s">
         <v>125</v>
       </c>
@@ -8742,7 +9205,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="19" t="s">
         <v>125</v>
       </c>
@@ -8757,7 +9220,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" customFormat="1" ht="16.5">
       <c r="A15" s="19" t="s">
         <v>125</v>
       </c>
@@ -8775,7 +9238,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" customFormat="1" ht="16.5">
       <c r="A16" s="19" t="s">
         <v>125</v>
       </c>
@@ -8793,7 +9256,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" customFormat="1" ht="16.5">
       <c r="A17" s="19" t="s">
         <v>125</v>
       </c>
@@ -8811,7 +9274,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" customFormat="1" ht="16.5">
       <c r="A18" s="19" t="s">
         <v>125</v>
       </c>
@@ -8829,7 +9292,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" customFormat="1" ht="16.5">
       <c r="A19" s="19" t="s">
         <v>125</v>
       </c>
@@ -8847,7 +9310,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" customFormat="1" ht="16.5">
       <c r="A20" s="19" t="s">
         <v>125</v>
       </c>
@@ -8865,7 +9328,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" customFormat="1" ht="16.5">
       <c r="A21" s="19" t="s">
         <v>125</v>
       </c>
@@ -8883,7 +9346,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" customFormat="1" ht="16.5">
       <c r="A22" s="19" t="s">
         <v>125</v>
       </c>
@@ -8901,7 +9364,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" customFormat="1" ht="16.5">
       <c r="A23" s="19" t="s">
         <v>125</v>
       </c>
@@ -8919,7 +9382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" customFormat="1" ht="16.5">
       <c r="A24" s="19" t="s">
         <v>125</v>
       </c>
@@ -8937,7 +9400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" customFormat="1" ht="16.5">
       <c r="A25" s="19" t="s">
         <v>125</v>
       </c>
@@ -8955,7 +9418,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" customFormat="1" ht="16.5">
       <c r="A26" s="19" t="s">
         <v>125</v>
       </c>
@@ -8973,7 +9436,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" customFormat="1" ht="16.5">
       <c r="A27" s="19" t="s">
         <v>125</v>
       </c>
@@ -8991,7 +9454,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" customFormat="1" ht="16.5">
       <c r="A28" s="19" t="s">
         <v>125</v>
       </c>
@@ -9009,7 +9472,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" customFormat="1" ht="16.5">
       <c r="A29" s="19" t="s">
         <v>125</v>
       </c>
@@ -9027,7 +9490,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" customFormat="1" ht="16.5">
       <c r="A30" s="19" t="s">
         <v>125</v>
       </c>
@@ -9045,7 +9508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" customFormat="1" ht="16.5">
       <c r="A31" s="19" t="s">
         <v>125</v>
       </c>
@@ -9063,7 +9526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" customFormat="1" ht="16.5">
       <c r="A32" s="19" t="s">
         <v>125</v>
       </c>
@@ -9081,7 +9544,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" customFormat="1" ht="16.5">
       <c r="A33" s="19" t="s">
         <v>160</v>
       </c>
@@ -9099,7 +9562,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" customFormat="1" ht="16.5">
       <c r="A34" s="19" t="s">
         <v>160</v>
       </c>
@@ -9117,7 +9580,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" customFormat="1" ht="16.5">
       <c r="A35" s="19" t="s">
         <v>160</v>
       </c>
@@ -9135,7 +9598,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" customFormat="1" ht="16.5">
       <c r="A36" s="19" t="s">
         <v>160</v>
       </c>
@@ -9152,7 +9615,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" customFormat="1" ht="16.5">
       <c r="A37" s="19" t="s">
         <v>160</v>
       </c>
@@ -9170,7 +9633,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" customFormat="1" ht="16.5">
       <c r="A38" s="19" t="s">
         <v>160</v>
       </c>
@@ -9188,7 +9651,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" customFormat="1" ht="16.5">
       <c r="A39" s="19" t="s">
         <v>160</v>
       </c>
@@ -9206,7 +9669,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" customFormat="1" ht="16.5">
       <c r="A40" s="19" t="s">
         <v>160</v>
       </c>
@@ -9223,7 +9686,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" customFormat="1" ht="16.5">
       <c r="A41" s="19" t="s">
         <v>160</v>
       </c>
@@ -9240,7 +9703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" customFormat="1" ht="16.5">
       <c r="A42" s="19" t="s">
         <v>160</v>
       </c>
@@ -9257,7 +9720,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" customFormat="1" ht="16.5">
       <c r="A43" s="19" t="s">
         <v>160</v>
       </c>
@@ -9274,7 +9737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" customFormat="1" ht="16.5">
       <c r="A44" s="19" t="s">
         <v>160</v>
       </c>
@@ -9292,7 +9755,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" customFormat="1" ht="16.5">
       <c r="A45" s="19" t="s">
         <v>160</v>
       </c>
@@ -9309,7 +9772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" customFormat="1" ht="16.5">
       <c r="A46" s="19" t="s">
         <v>160</v>
       </c>
@@ -9326,7 +9789,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" customFormat="1" ht="16.5">
       <c r="A47" s="19" t="s">
         <v>160</v>
       </c>
@@ -9343,7 +9806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" customFormat="1" ht="16.5">
       <c r="A48" s="19" t="s">
         <v>160</v>
       </c>
@@ -9361,7 +9824,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" customFormat="1" ht="16.5">
       <c r="A49" s="19" t="s">
         <v>160</v>
       </c>
@@ -9379,7 +9842,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" customFormat="1" ht="16.5">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
@@ -9397,7 +9860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" customFormat="1" ht="16.5">
       <c r="A51" s="19" t="s">
         <v>160</v>
       </c>
@@ -9413,7 +9876,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" customFormat="1" ht="16.5">
       <c r="A52" s="19" t="s">
         <v>160</v>
       </c>
@@ -9430,7 +9893,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" customFormat="1" ht="16.5">
       <c r="A53" s="19" t="s">
         <v>160</v>
       </c>
@@ -9445,7 +9908,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" customFormat="1" ht="16.5">
       <c r="A54" s="19" t="s">
         <v>160</v>
       </c>
@@ -9463,7 +9926,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" customFormat="1" ht="16.5">
       <c r="A55" s="19" t="s">
         <v>160</v>
       </c>
@@ -9481,7 +9944,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" customFormat="1" ht="16.5">
       <c r="A56" s="19" t="s">
         <v>160</v>
       </c>
@@ -9499,7 +9962,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" customFormat="1" ht="16.5">
       <c r="A57" s="19" t="s">
         <v>160</v>
       </c>
@@ -9516,7 +9979,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" customFormat="1" ht="16.5">
       <c r="A58" s="19" t="s">
         <v>160</v>
       </c>
@@ -9531,7 +9994,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" customFormat="1" ht="16.5">
       <c r="A59" s="19" t="s">
         <v>160</v>
       </c>
@@ -9546,7 +10009,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" customFormat="1" ht="16.5">
       <c r="A60" s="19" t="s">
         <v>211</v>
       </c>
@@ -9564,7 +10027,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" customFormat="1" ht="16.5">
       <c r="A61" s="19" t="s">
         <v>211</v>
       </c>
@@ -9582,7 +10045,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" customFormat="1" ht="16.5">
       <c r="A62" s="19" t="s">
         <v>211</v>
       </c>
@@ -9600,7 +10063,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" customFormat="1" ht="16.5">
       <c r="A63" s="19" t="s">
         <v>211</v>
       </c>
@@ -9618,7 +10081,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" customFormat="1" ht="16.5">
       <c r="A64" s="19" t="s">
         <v>211</v>
       </c>
@@ -9636,7 +10099,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" customFormat="1" ht="16.5">
       <c r="A65" s="19" t="s">
         <v>211</v>
       </c>
@@ -9654,7 +10117,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" customFormat="1" ht="16.5">
       <c r="A66" s="19" t="s">
         <v>211</v>
       </c>
@@ -9672,7 +10135,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" customFormat="1" ht="16.5">
       <c r="A67" s="19" t="s">
         <v>211</v>
       </c>
@@ -9690,7 +10153,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" customFormat="1" ht="16.5">
       <c r="A68" s="19" t="s">
         <v>211</v>
       </c>
@@ -9708,7 +10171,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" customFormat="1" ht="16.5">
       <c r="A69" s="19" t="s">
         <v>211</v>
       </c>
@@ -9726,7 +10189,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" customFormat="1" ht="16.5">
       <c r="A70" s="19" t="s">
         <v>211</v>
       </c>
@@ -9744,7 +10207,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" customFormat="1" ht="16.5">
       <c r="A71" s="19" t="s">
         <v>211</v>
       </c>
@@ -9759,7 +10222,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" customFormat="1" ht="16.5">
       <c r="A72" s="19" t="s">
         <v>211</v>
       </c>
@@ -9777,7 +10240,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" customFormat="1" ht="16.5">
       <c r="A73" s="19" t="s">
         <v>211</v>
       </c>
@@ -9795,7 +10258,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" customFormat="1" ht="16.5">
       <c r="A74" s="19" t="s">
         <v>211</v>
       </c>
@@ -9813,7 +10276,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" customFormat="1" ht="16.5">
       <c r="A75" s="19" t="s">
         <v>211</v>
       </c>
@@ -9831,7 +10294,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" customFormat="1" ht="16.5">
       <c r="A76" s="19" t="s">
         <v>211</v>
       </c>
@@ -9849,7 +10312,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" customFormat="1" ht="16.5">
       <c r="A77" s="19" t="s">
         <v>211</v>
       </c>
@@ -9867,7 +10330,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" customFormat="1" ht="16.5">
       <c r="A78" s="19" t="s">
         <v>211</v>
       </c>
@@ -9882,7 +10345,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" customFormat="1" ht="16.5">
       <c r="A79" s="19" t="s">
         <v>211</v>
       </c>
@@ -9900,7 +10363,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" customFormat="1" ht="16.5">
       <c r="A80" s="19" t="s">
         <v>211</v>
       </c>
@@ -9918,7 +10381,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" customFormat="1" ht="16.5">
       <c r="A81" s="19" t="s">
         <v>211</v>
       </c>
@@ -9936,7 +10399,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" customFormat="1" ht="16.5">
       <c r="A82" s="19" t="s">
         <v>211</v>
       </c>
@@ -9954,7 +10417,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" customFormat="1" ht="16.5">
       <c r="A83" s="19" t="s">
         <v>211</v>
       </c>
@@ -9972,7 +10435,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" customFormat="1" ht="16.5">
       <c r="A84" s="19" t="s">
         <v>256</v>
       </c>
@@ -9987,7 +10450,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" customFormat="1" ht="16.5">
       <c r="A85" s="19" t="s">
         <v>256</v>
       </c>
@@ -10005,7 +10468,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" customFormat="1" ht="16.5">
       <c r="A86" s="19" t="s">
         <v>256</v>
       </c>
@@ -10023,7 +10486,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" customFormat="1" ht="16.5">
       <c r="A87" s="19" t="s">
         <v>256</v>
       </c>
@@ -10041,7 +10504,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="16.5">
       <c r="A88" s="19" t="s">
         <v>256</v>
       </c>
@@ -10075,25 +10538,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" customFormat="1" ht="42">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -10122,7 +10585,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" customFormat="1" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
@@ -10142,7 +10605,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>111</v>
       </c>
@@ -10160,7 +10623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" customFormat="1" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>125</v>
       </c>
@@ -10183,7 +10646,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="6" t="s">
         <v>125</v>
       </c>
@@ -10206,7 +10669,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>125</v>
       </c>
@@ -10229,7 +10692,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="10" t="s">
         <v>125</v>
       </c>
@@ -10252,7 +10715,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" customFormat="1" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>160</v>
       </c>
@@ -10275,7 +10738,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" customFormat="1" ht="16.5">
       <c r="A9" s="6" t="s">
         <v>160</v>
       </c>
@@ -10298,7 +10761,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" customFormat="1" ht="16.5">
       <c r="A10" s="6" t="s">
         <v>160</v>
       </c>
@@ -10321,7 +10784,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" customFormat="1" ht="16.5">
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
@@ -10342,7 +10805,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" customFormat="1" ht="16.5">
       <c r="A12" s="6" t="s">
         <v>160</v>
       </c>
@@ -10365,7 +10828,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" customFormat="1" ht="16.5">
       <c r="A13" s="6" t="s">
         <v>160</v>
       </c>
@@ -10386,7 +10849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" customFormat="1" ht="16.5">
       <c r="A14" s="6" t="s">
         <v>160</v>
       </c>
@@ -10409,7 +10872,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" customFormat="1" ht="16.5">
       <c r="A15" s="6" t="s">
         <v>160</v>
       </c>
@@ -10430,7 +10893,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" customFormat="1" ht="16.5">
       <c r="A16" s="6" t="s">
         <v>211</v>
       </c>
@@ -10467,15 +10930,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/引擎插件4.0.xlsx
+++ b/引擎插件4.0.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="540" windowWidth="18015" windowHeight="7440"/>
+    <workbookView xWindow="1485" yWindow="540" windowWidth="18015" windowHeight="7440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="4.0插件" sheetId="1" r:id="rId1"/>
     <sheet name="4.0引擎" sheetId="2" r:id="rId2"/>
     <sheet name="线上插件" sheetId="3" r:id="rId3"/>
     <sheet name="新增插件" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="4.0入master分支" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4.0插件'!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4.0插件'!$D$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4.0入master分支'!$B$1:$B$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">线上插件!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="444">
   <si>
     <t>名称</t>
   </si>
@@ -6048,12 +6049,231 @@
     <t>缺文档</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>插件名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexFileMgr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDevice</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDownloaderMgr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexXmlHttpMgr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDataBaseMgr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexLocation</t>
+  </si>
+  <si>
+    <t>uexControl</t>
+  </si>
+  <si>
+    <t>uexVideo</t>
+  </si>
+  <si>
+    <t>uexQQ</t>
+  </si>
+  <si>
+    <t>uexUpdate</t>
+  </si>
+  <si>
+    <t>uexBackground</t>
+  </si>
+  <si>
+    <t>uexCreditCardRec</t>
+  </si>
+  <si>
+    <t>uexKeyChain</t>
+  </si>
+  <si>
+    <t>uexTouchID</t>
+  </si>
+  <si>
+    <t>uexInputTextFieldView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexGaodeNavi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexBaiduNavi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexSegmentControl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexUmeng</t>
+  </si>
+  <si>
+    <t>uexScrollPicture</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexQupai</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexPDFReader</t>
+  </si>
+  <si>
+    <t>uexCall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexSMS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexALiBaiChuan</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexZip</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexMobSMS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexWheelPickView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexCoverFlow2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexEmail</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexScrawl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexXunfei</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexNIM</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexJPush</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexEasemob</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uex3DTouch</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexBluetoothLE</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexNBListView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexTestinCrash</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexShakeView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexInAppPurchase</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDiDiTravel</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董继菲</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>uexSearchBarView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexSecurityKeyboard</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexLocalNotification</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexActionSheet</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexSlidePager</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexUnionPay</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexDocumentReader</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexListView</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>uexChart</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6278,6 +6498,14 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6317,7 +6545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -6343,6 +6571,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6372,7 +6615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6619,6 +6862,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6649,14 +6907,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6968,9 +7220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6986,41 +7238,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="89" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="82" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -7033,7 +7285,7 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
@@ -7049,7 +7301,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" s="68" customFormat="1" ht="67.5">
+    <row r="4" spans="1:10" s="68" customFormat="1" ht="243">
       <c r="A4" s="63" t="s">
         <v>326</v>
       </c>
@@ -7071,7 +7323,7 @@
       <c r="I4" s="65"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" s="68" customFormat="1" ht="175.5">
+    <row r="5" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7345,7 @@
       <c r="I5" s="65"/>
       <c r="J5" s="67"/>
     </row>
-    <row r="6" spans="1:10" s="68" customFormat="1" ht="324">
+    <row r="6" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A6" s="68" t="s">
         <v>13</v>
       </c>
@@ -7117,7 +7369,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="68" customFormat="1" ht="67.5">
+    <row r="7" spans="1:10" s="68" customFormat="1" ht="175.5">
       <c r="A7" s="68" t="s">
         <v>14</v>
       </c>
@@ -7139,7 +7391,7 @@
       <c r="I7" s="65"/>
       <c r="J7" s="67"/>
     </row>
-    <row r="8" spans="1:10" s="68" customFormat="1" ht="81">
+    <row r="8" spans="1:10" s="68" customFormat="1" ht="162">
       <c r="A8" s="68" t="s">
         <v>15</v>
       </c>
@@ -7161,7 +7413,7 @@
       <c r="I8" s="65"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" s="68" customFormat="1" ht="81">
+    <row r="9" spans="1:10" s="68" customFormat="1" ht="297">
       <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
@@ -7183,7 +7435,7 @@
       <c r="I9" s="65"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="1:10" s="68" customFormat="1" ht="391.5">
+    <row r="10" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A10" s="68" t="s">
         <v>17</v>
       </c>
@@ -7219,7 +7471,7 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="68" customFormat="1" ht="27">
+    <row r="12" spans="1:10" s="68" customFormat="1" ht="40.5">
       <c r="A12" s="68" t="s">
         <v>19</v>
       </c>
@@ -7241,7 +7493,7 @@
       <c r="I12" s="65"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10" ht="54">
       <c r="A13" s="59" t="s">
         <v>328</v>
       </c>
@@ -7265,7 +7517,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="68" customFormat="1" ht="54">
+    <row r="14" spans="1:10" s="68" customFormat="1" ht="121.5">
       <c r="A14" s="68" t="s">
         <v>22</v>
       </c>
@@ -7287,7 +7539,7 @@
       <c r="I14" s="65"/>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="1:10" s="68" customFormat="1" ht="148.5">
+    <row r="15" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A15" s="68" t="s">
         <v>23</v>
       </c>
@@ -7309,7 +7561,7 @@
       <c r="I15" s="65"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" s="68" customFormat="1" ht="81">
+    <row r="16" spans="1:10" s="68" customFormat="1" ht="189">
       <c r="A16" s="68" t="s">
         <v>24</v>
       </c>
@@ -7337,7 +7589,7 @@
       <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="82" t="s">
         <v>376</v>
       </c>
       <c r="C17" s="32" t="s">
@@ -7353,7 +7605,7 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="83" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7361,7 +7613,7 @@
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="82" t="s">
         <v>347</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -7377,7 +7629,7 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="83" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7395,7 +7647,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:10" s="68" customFormat="1" ht="81">
+    <row r="20" spans="1:10" s="68" customFormat="1" ht="270">
       <c r="A20" s="73" t="s">
         <v>329</v>
       </c>
@@ -7419,7 +7671,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="68" customFormat="1" ht="81">
+    <row r="21" spans="1:10" s="68" customFormat="1" ht="270">
       <c r="A21" s="63" t="s">
         <v>330</v>
       </c>
@@ -7445,7 +7697,7 @@
       <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="82" t="s">
         <v>316</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -7461,11 +7713,11 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="83" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="68" customFormat="1" ht="108">
+    <row r="23" spans="1:10" s="68" customFormat="1" ht="351">
       <c r="A23" s="63" t="s">
         <v>331</v>
       </c>
@@ -7487,7 +7739,7 @@
       <c r="I23" s="65"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" s="68" customFormat="1" ht="229.5">
+    <row r="24" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A24" s="73" t="s">
         <v>332</v>
       </c>
@@ -7509,7 +7761,7 @@
       <c r="I24" s="65"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" s="68" customFormat="1" ht="67.5">
+    <row r="25" spans="1:10" s="68" customFormat="1" ht="148.5">
       <c r="A25" s="68" t="s">
         <v>31</v>
       </c>
@@ -7551,7 +7803,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="94" t="s">
+      <c r="J26" s="84" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7569,7 +7821,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="108">
+    <row r="28" spans="1:10" ht="189">
       <c r="A28" s="47" t="s">
         <v>333</v>
       </c>
@@ -7591,7 +7843,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:10" s="68" customFormat="1" ht="40.5">
+    <row r="29" spans="1:10" s="68" customFormat="1" ht="94.5">
       <c r="A29" s="63" t="s">
         <v>334</v>
       </c>
@@ -7613,7 +7865,7 @@
       <c r="I29" s="65"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" ht="54">
+    <row r="30" spans="1:10" ht="135">
       <c r="A30" s="40" t="s">
         <v>335</v>
       </c>
@@ -7634,7 +7886,7 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="68" customFormat="1" ht="162">
+    <row r="31" spans="1:10" s="68" customFormat="1" ht="409.5">
       <c r="A31" s="63" t="s">
         <v>336</v>
       </c>
@@ -7658,7 +7910,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="68" customFormat="1" ht="40.5">
+    <row r="32" spans="1:10" s="68" customFormat="1" ht="94.5">
       <c r="A32" s="68" t="s">
         <v>37</v>
       </c>
@@ -7680,7 +7932,7 @@
       <c r="I32" s="65"/>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" ht="94.5">
+    <row r="33" spans="1:10" ht="270">
       <c r="A33" s="40" t="s">
         <v>337</v>
       </c>
@@ -7704,7 +7956,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="202.5">
+    <row r="34" spans="1:10" ht="409.5">
       <c r="A34" s="47" t="s">
         <v>38</v>
       </c>
@@ -7742,7 +7994,7 @@
       <c r="I35" s="27"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:10" ht="67.5">
+    <row r="36" spans="1:10" ht="202.5">
       <c r="A36" s="40" t="s">
         <v>338</v>
       </c>
@@ -7763,7 +8015,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="162">
+    <row r="37" spans="1:10" ht="270">
       <c r="A37" s="47" t="s">
         <v>42</v>
       </c>
@@ -7787,7 +8039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="297">
+    <row r="38" spans="1:10" ht="409.5">
       <c r="A38" s="47" t="s">
         <v>340</v>
       </c>
@@ -7811,7 +8063,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="68" customFormat="1" ht="108">
+    <row r="39" spans="1:10" s="68" customFormat="1" ht="310.5">
       <c r="A39" s="68" t="s">
         <v>44</v>
       </c>
@@ -7835,7 +8087,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="94.5">
+    <row r="40" spans="1:10" ht="256.5">
       <c r="A40" s="40" t="s">
         <v>341</v>
       </c>
@@ -7856,7 +8108,7 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="27">
+    <row r="41" spans="1:10" ht="54">
       <c r="A41" s="40" t="s">
         <v>342</v>
       </c>
@@ -7877,7 +8129,7 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="27">
+    <row r="42" spans="1:10" ht="67.5">
       <c r="A42" s="40" t="s">
         <v>343</v>
       </c>
@@ -7898,7 +8150,7 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="40.5">
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="94.5">
       <c r="A43" s="59" t="s">
         <v>344</v>
       </c>
@@ -7932,7 +8184,7 @@
       <c r="I44" s="27"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:10" ht="27">
+    <row r="45" spans="1:10" ht="40.5">
       <c r="A45" s="61" t="s">
         <v>345</v>
       </c>
@@ -7956,7 +8208,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="40.5">
+    <row r="46" spans="1:10" ht="121.5">
       <c r="A46" s="36" t="s">
         <v>48</v>
       </c>
@@ -7977,7 +8229,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:10" ht="67.5">
+    <row r="47" spans="1:10" ht="162">
       <c r="A47" s="36" t="s">
         <v>49</v>
       </c>
@@ -7999,7 +8251,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5">
+    <row r="48" spans="1:10" ht="121.5">
       <c r="A48" s="36" t="s">
         <v>50</v>
       </c>
@@ -8020,7 +8272,7 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:10" ht="67.5">
+    <row r="49" spans="1:10" ht="175.5">
       <c r="A49" s="56" t="s">
         <v>51</v>
       </c>
@@ -8044,7 +8296,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="67.5">
+    <row r="50" spans="1:10" ht="216">
       <c r="A50" s="36" t="s">
         <v>52</v>
       </c>
@@ -8068,7 +8320,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="31" customFormat="1" ht="135">
+    <row r="51" spans="1:10" s="31" customFormat="1" ht="297">
       <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
@@ -8092,7 +8344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="67.5">
+    <row r="52" spans="1:10" ht="135">
       <c r="A52" s="36" t="s">
         <v>54</v>
       </c>
@@ -8761,6 +9013,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D95"/>
   <mergeCells count="7">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:D1"/>
@@ -8798,41 +9051,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="89" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="90" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
@@ -8845,7 +9098,7 @@
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="91"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="A3" s="25" t="s">
@@ -10931,13 +11184,552 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5">
+      <c r="A1" s="97" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="97"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5">
+      <c r="A2" s="97"/>
+      <c r="B2" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="85" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="85" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="85" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="85" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="85" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="85" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="85" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="B61" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="85" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="85" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="85" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="85" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="85" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="85" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="85" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="85" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="B74" t="s">
+        <v>433</v>
+      </c>
+      <c r="C74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="85" t="s">
+        <v>428</v>
+      </c>
+      <c r="B77" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="85" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="85" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="85" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="85" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="85" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B82">
+    <filterColumn colId="0"/>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"董继菲,鄢龙涛,叶飞"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"刘康立,杨广,黄锦"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 E1:E1048576">
+      <formula1>"未完成,完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
